--- a/T2A-Multimetro.xlsx
+++ b/T2A-Multimetro.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\Faculdade\1º Ano\2º Semestre\Laboratório de Física I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB80D8F2-7EF0-42EA-B58B-EB651C455B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED7C78-BC3E-4798-8218-112D266EAFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>Voltagem</t>
   </si>
@@ -48,9 +47,6 @@
   </si>
   <si>
     <t>Incerteza do Multimetro (V) :</t>
-  </si>
-  <si>
-    <t>Incerteza do Multimetro (I) :</t>
   </si>
   <si>
     <r>
@@ -110,60 +106,53 @@
     <t>Ciruito B Resistência 3</t>
   </si>
   <si>
-    <t>Coluna1</t>
+    <t>V (V)</t>
   </si>
   <si>
-    <t>Coluna2</t>
+    <t>u(V)</t>
   </si>
   <si>
-    <t>1,7135-1,7145</t>
+    <t>u(I)</t>
   </si>
   <si>
-    <t>3,0650-3,0750</t>
+    <t>I (A)</t>
   </si>
   <si>
-    <t>4,580-4,895</t>
+    <t>R (Ω)</t>
   </si>
   <si>
-    <t>6,5450-6,5340</t>
+    <t>1,00E-06*</t>
   </si>
   <si>
-    <t>7,8650-7,8520</t>
+    <t>Resistência (Regressão linear):</t>
   </si>
   <si>
-    <t>9,6450-9,6340</t>
+    <t>Erro relativo á previsão (%) :</t>
   </si>
   <si>
-    <t>10,9340-10,9300</t>
+    <t>Erro Média em relacao á previsao(%):</t>
   </si>
   <si>
-    <t>12,720-12,725</t>
+    <t>Previsão da Resistência:</t>
   </si>
   <si>
-    <t>*</t>
+    <t>Incerteza da Resistência (Ω) :</t>
   </si>
   <si>
-    <t>18,510-18,515</t>
+    <t>Incerteza do Multimetro (A) :</t>
   </si>
   <si>
-    <t>19,450-19,458</t>
-  </si>
-  <si>
-    <t>Comentar curva</t>
-  </si>
-  <si>
-    <t>1,49-1,46</t>
+    <t>2,00E-02*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +165,26 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,10 +204,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,19 +226,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="77">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -235,14 +283,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -250,57 +323,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -308,15 +343,49 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -380,7 +449,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -404,24 +485,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -437,21 +500,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -639,10 +696,55 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$D$4:$D$18</c:f>
+              <c:f>Folha1!$E$4:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.5375E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1234000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2039999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2433999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2564999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2886000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2874999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9865000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04273E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2766E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3806000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4873000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5980999999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -652,6 +754,51 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -740,7 +887,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1115,10 +1262,55 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$D$28:$D$42</c:f>
+              <c:f>Folha1!$E$28:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.48E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3700000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.78E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3399999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9100000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1899999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8500000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3800000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7099999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9200000000000004E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1128,6 +1320,51 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.98</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1216,7 +1453,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1559,7 +1796,7 @@
                   <c:y val="-8.1377223680373284E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1593,52 +1830,52 @@
             <c:numRef>
               <c:f>Folha1!$E$52:$E$66</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.9999999999999999E-4</c:v>
+                  <c:v>6.9999999999999997E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9999999999999998E-4</c:v>
+                  <c:v>8.9999999999999996E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1000000000000001E-3</c:v>
+                  <c:v>1.1000000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2999999999999999E-3</c:v>
+                  <c:v>1.3E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4E-3</c:v>
+                  <c:v>1.3999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6000000000000001E-3</c:v>
+                  <c:v>1.5999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6999999999999999E-3</c:v>
+                  <c:v>1.7E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8E-3</c:v>
+                  <c:v>1.7999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.9999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2000000000000001E-3</c:v>
+                  <c:v>2.2000000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3999999999999998E-3</c:v>
+                  <c:v>2.3999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>2.5000000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>2.5000000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5999999999999999E-3</c:v>
+                  <c:v>2.6000000000000001E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,7 +1884,7 @@
             <c:numRef>
               <c:f>Folha1!$C$52:$C$66</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.68</c:v>
@@ -1782,7 +2019,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1904,7 +2141,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2156,63 +2393,64 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>Folha1!$E$80:$E$94</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1,7135-1,7145</c:v>
+                  <c:v>1.714E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3,0650-3,0750</c:v>
+                  <c:v>3.0699999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4,580-4,895</c:v>
+                  <c:v>4.7404999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6,5450-6,5340</c:v>
+                  <c:v>6.5395000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7,8650-7,8520</c:v>
+                  <c:v>7.8584999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9,6450-9,6340</c:v>
+                  <c:v>9.6395000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10,9340-10,9300</c:v>
+                  <c:v>1.0932000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12,720-12,725</c:v>
+                  <c:v>1.2722499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14,6500</c:v>
+                  <c:v>1.465E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15,3120</c:v>
+                  <c:v>1.5311999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17,0710</c:v>
+                  <c:v>1.7070999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18,510-18,515</c:v>
+                  <c:v>1.8512500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19,450-19,458</c:v>
+                  <c:v>1.9453999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20,3820</c:v>
+                  <c:v>2.0382000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21,5000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Folha1!$C$80:$C$94</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.81</c:v>
@@ -2236,7 +2474,7 @@
                   <c:v>5.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.43</c:v>
+                  <c:v>5.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.83</c:v>
@@ -2347,7 +2585,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2469,7 +2707,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2724,52 +2962,52 @@
             <c:numRef>
               <c:f>Folha1!$E$104:$E$118</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>7.7999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14599999999999999</c:v>
+                  <c:v>1.46E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18</c:v>
+                  <c:v>1.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22700000000000001</c:v>
+                  <c:v>2.2700000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27300000000000002</c:v>
+                  <c:v>2.7300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.317</c:v>
+                  <c:v>3.1700000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36599999999999999</c:v>
+                  <c:v>3.6600000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42899999999999999</c:v>
+                  <c:v>4.2900000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>4.7599999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55200000000000005</c:v>
+                  <c:v>5.5200000000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59099999999999997</c:v>
+                  <c:v>5.9099999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>6.7500000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75800000000000001</c:v>
+                  <c:v>7.5799999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84</c:v>
+                  <c:v>8.4499999999999994E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94499999999999995</c:v>
+                  <c:v>9.4499999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,13 +3016,13 @@
             <c:numRef>
               <c:f>Folha1!$C$104:$C$118</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.81</c:v>
@@ -2820,7 +3058,7 @@
                   <c:v>7.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4499999999999993</c:v>
+                  <c:v>8.44</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>9.52</c:v>
@@ -2913,7 +3151,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3035,7 +3273,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3256,7 +3494,7 @@
                   <c:y val="-8.1377223680373284E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3288,12 +3526,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$D$128:$D$142</c:f>
+              <c:f>Folha1!$E$128:$E$142</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9999999999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5000000000000002E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3302,10 +3582,52 @@
             <c:numRef>
               <c:f>Folha1!$C$128:$C$142</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3395,7 +3717,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3517,7 +3839,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6950,16 +7272,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6986,16 +7308,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>588645</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7025,15 +7347,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7062,16 +7384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7100,16 +7422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7138,14 +7460,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -7178,14 +7500,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}" name="Tabela5" displayName="Tabela5" ref="B3:E18" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="B3:E18" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9DD51987-C1BC-4ED6-8FEC-B5E9EEBD87E4}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{15D1FA17-1AE6-4DD2-8292-D64CE9308936}" name="Voltagem" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{5BFB6233-8250-4878-B204-A8C660E33AB0}" name="Corrente Elétrica" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{419C236C-08C9-42EB-933C-7880265CDDD8}" name="Resistência" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="62">
-      <calculatedColumnFormula>C4/D4</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}" name="Tabela5" displayName="Tabela5" ref="B3:G18" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="B3:G18" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9DD51987-C1BC-4ED6-8FEC-B5E9EEBD87E4}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{15D1FA17-1AE6-4DD2-8292-D64CE9308936}" name="V (V)" dataDxfId="29" totalsRowDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{7C02DDDF-3141-4D0A-9AF5-518B2A531A4C}" name="u(V)" dataDxfId="28" totalsRowDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{5BFB6233-8250-4878-B204-A8C660E33AB0}" name="I (A)" dataDxfId="27" totalsRowDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{D00D6C69-A1D9-4D13-9A2F-60BE40695798}" name="u(I)" dataDxfId="26" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{419C236C-08C9-42EB-933C-7880265CDDD8}" name="R (Ω)" totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="68">
+      <calculatedColumnFormula>C4/E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7193,14 +7517,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}" name="Tabela513" displayName="Tabela513" ref="B27:E42" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="B27:E42" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{71843C50-F2B2-4812-B490-8BF118C0297E}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{991DA961-5670-4F45-9567-BEB5B16C9F9F}" name="Voltagem" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{D8270B4F-B072-4BED-8F6B-32BF8798E9F7}" name="Corrente Elétrica" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{9EAEEDAC-6D0F-473B-A32D-883D869F1ED1}" name="Resistência" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52">
-      <calculatedColumnFormula>C28/D28</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}" name="Tabela513" displayName="Tabela513" ref="B27:G42" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="B27:G42" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{71843C50-F2B2-4812-B490-8BF118C0297E}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="30" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{991DA961-5670-4F45-9567-BEB5B16C9F9F}" name="Voltagem" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{D016CBE5-CAE9-43D8-BDA7-51C54CA2663A}" name="u(V)" dataDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{D8270B4F-B072-4BED-8F6B-32BF8798E9F7}" name="Corrente Elétrica" dataDxfId="22" totalsRowDxfId="64" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{ADFD343F-0A14-4F6B-B60A-AC165360EBBD}" name="u(I)" dataDxfId="21" totalsRowDxfId="31" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{9EAEEDAC-6D0F-473B-A32D-883D869F1ED1}" name="Resistência" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="63" dataCellStyle="Moeda">
+      <calculatedColumnFormula>C28/E28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7208,15 +7534,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}" name="Tabela515" displayName="Tabela515" ref="B51:G66" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}" name="Tabela515" displayName="Tabela515" ref="B51:G66" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="B51:G66" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{42A0E4D7-25BB-48A1-879F-59A29E5FDEC0}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{47CBB6DA-76E3-4208-B8AC-53ED1356227C}" name="Voltagem" dataDxfId="24" totalsRowDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{17E94D9D-99DE-43DE-A01F-DDD967301A44}" name="Coluna1" dataDxfId="23" totalsRowDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{D546E76A-468E-464B-A2CB-4F07756EC755}" name="Corrente Elétrica" dataDxfId="22" totalsRowDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{5C06B65C-049E-4CDE-9C5E-793479A4D2C5}" name="Coluna2" dataDxfId="20" totalsRowDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{9B5FBD40-E7C9-4AF1-B58C-93484A227F08}" name="Resistência" totalsRowFunction="count" dataDxfId="21" totalsRowDxfId="46">
+    <tableColumn id="1" xr3:uid="{42A0E4D7-25BB-48A1-879F-59A29E5FDEC0}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{47CBB6DA-76E3-4208-B8AC-53ED1356227C}" name="V (V)" dataDxfId="19" totalsRowDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{339EC1BF-6347-49FE-8C68-674FFE212D24}" name="u(V)" dataDxfId="18" totalsRowDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{D546E76A-468E-464B-A2CB-4F07756EC755}" name="I (A)" dataDxfId="17" totalsRowDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{26E97079-5B7D-4585-A322-17562E32181D}" name="u(I)" dataDxfId="16" totalsRowDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{9B5FBD40-E7C9-4AF1-B58C-93484A227F08}" name="R (Ω)" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="54">
       <calculatedColumnFormula>C52/E52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7225,15 +7551,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}" name="Tabela516" displayName="Tabela516" ref="B79:G94" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}" name="Tabela516" displayName="Tabela516" ref="B79:G94" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="B79:G94" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DA8929B6-8358-4286-BBE7-87E237EAAF4B}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{AB952BEB-A90E-4961-B158-2A68B404E244}" name="Voltagem" dataDxfId="16" totalsRowDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{1366D6A9-D38D-48F4-A701-351986C79679}" name="Coluna1" dataDxfId="15" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{8245E335-11B5-4743-B73E-528AAAF1A734}" name="Corrente Elétrica" dataDxfId="14" totalsRowDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{9B4812CF-B5EA-4732-B368-D16C912B6018}" name="Coluna2" dataDxfId="12" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{A7DC4E2F-8B36-4153-B12F-2CB9A0F3C0FE}" name="Resistência" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="40">
+    <tableColumn id="1" xr3:uid="{DA8929B6-8358-4286-BBE7-87E237EAAF4B}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{AB952BEB-A90E-4961-B158-2A68B404E244}" name="V (V)" dataDxfId="14" totalsRowDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{DBBC59F9-D98C-4686-97C1-BEE96C71F346}" name="u(V)" dataDxfId="13" totalsRowDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{8245E335-11B5-4743-B73E-528AAAF1A734}" name="I (A)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{7F838851-7F2E-40AB-96BC-7EA7E1DA6457}" name="u(I)" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A7DC4E2F-8B36-4153-B12F-2CB9A0F3C0FE}" name="R (Ω)" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="47">
       <calculatedColumnFormula>C80/E80</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7242,15 +7568,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}" name="Tabela517" displayName="Tabela517" ref="B103:G118" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}" name="Tabela517" displayName="Tabela517" ref="B103:G118" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="B103:G118" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E5653933-D5F0-40E0-9126-7D5C5E6E076F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{4047F096-802D-4A82-8556-4FDCD1CBA596}" name="Voltagem" dataDxfId="8" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{92DFBC4E-631A-4F2A-AD40-936C125F6480}" name="Coluna1" dataDxfId="7" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{6A2E6146-0EF7-407B-BF4F-00BD8FF043CE}" name="Corrente Elétrica" dataDxfId="6" totalsRowDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{8807C46E-356A-4E6C-8E12-BE6916BF24D6}" name="Coluna2" dataDxfId="4" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5A9E15A7-8097-42C6-A5E9-38F4A78C1117}" name="Resistência" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{E5653933-D5F0-40E0-9126-7D5C5E6E076F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{4047F096-802D-4A82-8556-4FDCD1CBA596}" name="V (V)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{39BCB85A-98A6-4169-ABBD-53EC7B090C38}" name="u(V)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6A2E6146-0EF7-407B-BF4F-00BD8FF043CE}" name="I (A)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{527997B1-B87F-41CF-8B06-19A40E1B12DD}" name="u(I)" dataDxfId="6" totalsRowDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{5A9E15A7-8097-42C6-A5E9-38F4A78C1117}" name="R (Ω)" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="41">
       <calculatedColumnFormula>C104/E104</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7259,14 +7585,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}" name="Tabela518" displayName="Tabela518" ref="B127:E142" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="B127:E142" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FF1DBC2D-D6EA-47E0-9253-0394DF3401A6}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{E8262805-4EA5-4DDE-9F58-1568CDE64B65}" name="Voltagem" dataDxfId="2" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{4DCE768E-96BA-4F88-9C29-8BC5D79A7E60}" name="Corrente Elétrica" dataDxfId="0" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{DC14564C-AA8B-4953-90CB-3874FB98E31D}" name="Resistência" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="28">
-      <calculatedColumnFormula>C128/D128</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}" name="Tabela518" displayName="Tabela518" ref="B127:G142" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="B127:G142" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FF1DBC2D-D6EA-47E0-9253-0394DF3401A6}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E8262805-4EA5-4DDE-9F58-1568CDE64B65}" name="V (V)" dataDxfId="4" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{A83FC60C-ADB5-4B27-B59A-4BF99A9A0315}" name="u(V)" dataDxfId="3" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{4DCE768E-96BA-4F88-9C29-8BC5D79A7E60}" name="I (A)" dataDxfId="2" totalsRowDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{FB7AB7EF-F243-4E85-AE65-90CC109B64B6}" name="u(I)" dataDxfId="1" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{DC14564C-AA8B-4953-90CB-3874FB98E31D}" name="R (Ω)" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="32">
+      <calculatedColumnFormula>C128/E128</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7570,7 +7898,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -7585,6 +7913,9 @@
   <we:properties/>
   <we:bindings>
     <we:binding id="RangeSelect" type="matrix" appref="{EBF7A827-4287-4B11-A03D-8B56046FE39E}"/>
+    <we:binding id="InputY" type="matrix" appref="{EF659F33-B27D-477A-BED5-49EA59CEFAD8}"/>
+    <we:binding id="InputX" type="matrix" appref="{1FAC1EA7-7C57-444F-A795-D14AD7B737CD}"/>
+    <we:binding id="Output" type="matrix" appref="{5BE6B1A2-8B0E-4A4B-89F6-D17106E225DD}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -7594,322 +7925,531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93CEA2-7506-43DA-BD0E-18E2DA668FCC}">
   <dimension ref="B2:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V123" sqref="V123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="O3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="Q3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="e">
-        <f t="shared" ref="E4:E13" si="0">C4/D4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="O4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.5375E-3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G18" si="0">C4/E4</f>
+        <v>468.29268292682923</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="Q4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="9">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="e">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.1234000000000001E-3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+        <v>470.94282754073652</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="e">
+      <c r="C6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3.2039999999999998E-3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+        <v>468.16479400749068</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="e">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.2433999999999996E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>471.32016778997979</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M7" s="1"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="9">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="e">
+      <c r="C8" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5.2564999999999999E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>466.08960334823558</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="e">
+      <c r="C9" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>467.94871794871796</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="3"/>
-      <c r="O9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="5" t="e">
-        <f>SQRT(((1/D20)*C22)^2+(-(C20/(D20^2))*D22)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="Q9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="9">
+        <f>SQRT(((1/E20)*C22)^2+(-(C20/(E20^2))*E22)^2)</f>
+        <v>115.08094791750561</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="e">
+      <c r="C10" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7.2886000000000001E-3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+        <v>466.48190324616525</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="e">
+      <c r="C11" s="4">
+        <v>3.87</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8.2874999999999997E-3</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+        <v>466.96832579185525</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="Q11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="9">
+        <f>SLOPE(Tabela5[V (V)],Tabela5[I (A)])</f>
+        <v>464.23921468327904</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="e">
+      <c r="C12" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9.9865000000000006E-3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+        <v>441.59615480899214</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="e">
+      <c r="C13" s="4">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.04273E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+        <v>466.08422122697152</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="Q13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="14">
+        <f>ABS((T7-T11)/T7)</f>
+        <v>1.2256990035576501E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="e">
-        <f t="shared" ref="E14:E17" si="1">C14/D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <v>5.41</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.1560000000000001E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>467.99307958477505</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="Q14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="15">
+        <f>ABS((T7-G20)/T7)</f>
+        <v>9.1024993524850759E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.2766E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>466.08177972740094</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="4">
+        <v>6.43</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1.3806000000000001E-2</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>465.73953353614365</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
+        <v>6.93</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1.4873000000000001E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="0"/>
+        <v>465.9450010085389</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="e">
-        <f>C18/D18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.5980999999999999E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>466.17858707214822</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4">
+        <f>AVERAGE(C4:C18)</f>
+        <v>3.9533333333333336</v>
+      </c>
+      <c r="E20" s="8">
+        <f>AVERAGE(E4:E18)</f>
+        <v>8.5053799999999999E-3</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8">
+        <f>AVERAGE(G4:G18)</f>
+        <v>465.72182530433201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="e">
-        <f>AVERAGE(C4:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="4" t="e">
-        <f>AVERAGE(D4:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="4" t="e">
-        <f>AVERAGE(E4:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="4">
+        <f>STDEVA(C4:C18)</f>
+        <v>2.187825622023142</v>
+      </c>
+      <c r="E21" s="8">
+        <f>STDEVA(E4:E18)</f>
+        <v>4.7106600023169333E-3</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8">
+        <f>STDEVA(G4:G18)</f>
+        <v>6.8978760942238413</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4" t="e">
-        <f>STDEVA(C4:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="4" t="e">
-        <f>STDEVA(D4:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="4" t="e">
-        <f>STDEVA(E4:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="4">
+        <f>C21/SQRT(10)</f>
+        <v>0.69185120888677698</v>
+      </c>
+      <c r="E22" s="8">
+        <f>E21/SQRT(10)</f>
+        <v>1.4896414889975563E-3</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22" si="1">G21/SQRT(10)</f>
+        <v>2.1812999475373567</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4" t="e">
-        <f>C21/SQRT(10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="4" t="e">
-        <f>D21/SQRT(10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="4" t="e">
-        <f t="shared" ref="E22" si="2">E21/SQRT(10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
@@ -7917,393 +8457,626 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="O27" s="7" t="s">
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="Q27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="e">
-        <f t="shared" ref="E28:E37" si="3">C28/D28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="O28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E28" s="18">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="F28" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G28" s="18">
+        <f>C28/E28</f>
+        <v>9750</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="Q28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="F29" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G29" s="18">
+        <f>C29/E29</f>
+        <v>9384.6153846153848</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C30" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="F30" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G30" s="18">
+        <f>C30/E30</f>
+        <v>9957.8059071729949</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>4</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="C31" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E31" s="18">
+        <v>3.48E-4</v>
+      </c>
+      <c r="F31" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G31" s="18">
+        <f>C31/E31</f>
+        <v>10000</v>
+      </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M31" s="1"/>
+      <c r="N31" s="5"/>
+      <c r="Q31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="C32" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E32" s="18">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="F32" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G32" s="18">
+        <f>C32/E32</f>
+        <v>10023.584905660377</v>
+      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>6</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="C33" s="4">
+        <v>5.34</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E33" s="18">
+        <v>5.3700000000000004E-4</v>
+      </c>
+      <c r="F33" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G33" s="18">
+        <f>C33/E33</f>
+        <v>9944.1340782122898</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="3"/>
-      <c r="O33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="5" t="e">
-        <f>SQRT(((1/D44)*C46)^2+(-(C44/(D44^2))*D46)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="Q33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="9">
+        <f>SQRT(((1/E44)*C46)^2+(-(C44/(E44^2))*E46)^2)</f>
+        <v>2275.6957077765142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>7</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C34" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="D34" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E34" s="18">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F34" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G34" s="18">
+        <f>C34/E34</f>
+        <v>10696.428571428572</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>8</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <v>6.81</v>
+      </c>
+      <c r="D35" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E35" s="18">
+        <v>6.78E-4</v>
+      </c>
+      <c r="F35" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G35" s="18">
+        <f>C35/E35</f>
+        <v>10044.247787610619</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="Q35" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="9">
+        <f>SLOPE(Tabela513[Voltagem],Tabela513[Corrente Elétrica])</f>
+        <v>10104.290262959435</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>9</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C36" s="4">
+        <v>7.38</v>
+      </c>
+      <c r="D36" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E36" s="18">
+        <v>7.3399999999999995E-4</v>
+      </c>
+      <c r="F36" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G36" s="18">
+        <f>C36/E36</f>
+        <v>10054.49591280654</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>10</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C37" s="4">
+        <v>7.95</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E37" s="18">
+        <v>7.9100000000000004E-4</v>
+      </c>
+      <c r="F37" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G37" s="18">
+        <f>C37/E37</f>
+        <v>10050.568900126422</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="Q37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="14">
+        <f>ABS((T31-T35)/T31)</f>
+        <v>1.042902629594355E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>11</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="e">
-        <f t="shared" ref="E38:E42" si="4">C38/D38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C38" s="4">
+        <v>8.24</v>
+      </c>
+      <c r="D38" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E38" s="18">
+        <v>8.1899999999999996E-4</v>
+      </c>
+      <c r="F38" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G38" s="18">
+        <f>C38/E38</f>
+        <v>10061.050061050062</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="Q38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="15">
+        <f>ABS((T31-G44)/T31)</f>
+        <v>1.3978027113196732E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>12</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C39" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E39" s="18">
+        <v>8.8500000000000004E-4</v>
+      </c>
+      <c r="F39" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G39" s="18">
+        <f>C39/E39</f>
+        <v>10056.497175141243</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>13</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C40" s="4">
+        <v>9.44</v>
+      </c>
+      <c r="D40" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E40" s="18">
+        <v>9.3800000000000003E-4</v>
+      </c>
+      <c r="F40" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G40" s="18">
+        <f>C40/E40</f>
+        <v>10063.965884861407</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>14</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C41" s="4">
+        <v>9.77</v>
+      </c>
+      <c r="D41" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E41" s="18">
+        <v>9.7099999999999997E-4</v>
+      </c>
+      <c r="F41" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G41" s="18">
+        <f>C41/E41</f>
+        <v>10061.791967044284</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>15</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C42" s="4">
+        <v>9.98</v>
+      </c>
+      <c r="D42" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E42" s="18">
+        <v>9.9200000000000004E-4</v>
+      </c>
+      <c r="F42" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G42" s="18">
+        <f>C42/E42</f>
+        <v>10060.483870967742</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4">
+        <f>AVERAGE(C28:C42)</f>
+        <v>6.1260000000000003</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8">
+        <f>AVERAGE(E28:E42)</f>
+        <v>6.0826666666666663E-4</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="8">
+        <f>AVERAGE(G28:G42)</f>
+        <v>10013.978027113197</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="4" t="e">
-        <f>AVERAGE(C28:C42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D44" s="4" t="e">
-        <f>AVERAGE(D28:D42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="4" t="e">
-        <f>AVERAGE(E28:E42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="4">
+        <f>STDEVA(C28:C42)</f>
+        <v>3.1010869062314277</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="8">
+        <f>STDEVA(E28:E42)</f>
+        <v>3.0675128749681294E-4</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="8">
+        <f>STDEVA(G28:G42)</f>
+        <v>261.13897472485797</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="4" t="e">
-        <f>STDEVA(C28:C42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D45" s="4" t="e">
-        <f>STDEVA(D28:D42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="4" t="e">
-        <f>STDEVA(E28:E42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4" t="e">
+      <c r="C46" s="4">
         <f>C45/SQRT(10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D46" s="4" t="e">
-        <f>D45/SQRT(10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="4" t="e">
-        <f t="shared" ref="E46" si="5">E45/SQRT(10)</f>
-        <v>#DIV/0!</v>
+        <v>0.98064978458163166</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="8">
+        <f t="shared" ref="E46:G46" si="2">E45/SQRT(10)</f>
+        <v>9.7003274367905937E-5</v>
       </c>
       <c r="F46" s="6"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G46" s="8">
+        <f t="shared" si="2"/>
+        <v>82.57939459716934</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>6</v>
+      <c r="G51" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H51" s="3"/>
-      <c r="Q51" s="7" t="s">
+      <c r="Q51" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="4">
         <v>1.68</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="4">
-        <f>C52/E52</f>
-        <v>2400</v>
+      <c r="D52" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="8">
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" ref="G52:G66" si="3">C52/E52</f>
+        <v>2400000</v>
       </c>
       <c r="H52" s="6"/>
-      <c r="Q52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q52" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="4">
         <v>2.52</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="4">
-        <f>C53/E53</f>
-        <v>2800</v>
+      <c r="D53" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E53" s="8">
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="3"/>
+        <v>2800000</v>
       </c>
       <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T53" s="9"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>3</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="4">
         <v>2.91</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="4">
-        <f>C54/E54</f>
-        <v>2910</v>
+      <c r="D54" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="3"/>
+        <v>2910000.0000000005</v>
       </c>
       <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T54" s="9"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>4</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="4">
         <v>3.6</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="4">
-        <f>C55/E55</f>
-        <v>3272.7272727272725</v>
+      <c r="D55" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G55" s="8">
+        <f t="shared" si="3"/>
+        <v>3272727.2727272725</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="3"/>
@@ -8312,410 +9085,520 @@
       <c r="L55" s="5"/>
       <c r="M55" s="1"/>
       <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q55" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="9">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>5</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="4">
         <v>4.45</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="4">
-        <f>C56/E56</f>
-        <v>3423.0769230769233</v>
+      <c r="D56" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1.3E-6</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G56" s="8">
+        <f t="shared" si="3"/>
+        <v>3423076.923076923</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T56" s="9"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>6</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="4">
         <v>4.95</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>1.4E-3</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="4">
-        <f>C57/E57</f>
-        <v>3535.7142857142858</v>
+      <c r="D57" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E57" s="8">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G57" s="8">
+        <f t="shared" si="3"/>
+        <v>3535714.2857142859</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="Q57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="5">
-        <f>SQRT(((1/D68)*C70)^2+(-(C68/(D68^2))*D70)^2)</f>
-        <v>641.86227200783935</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q57" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="9">
+        <f>SQRT(((1/E68)*C70)^2+(-(C68/(E68^2))*E70)^2)</f>
+        <v>641862.27200783929</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>7</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="4">
         <v>5.47</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="4">
-        <f>C58/E58</f>
-        <v>3418.7499999999995</v>
+      <c r="D58" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E58" s="8">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G58" s="8">
+        <f t="shared" si="3"/>
+        <v>3418750</v>
       </c>
       <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T58" s="9"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>8</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="4">
         <v>5.98</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="4">
-        <f>C59/E59</f>
-        <v>3517.6470588235297</v>
+      <c r="D59" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1.7E-6</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G59" s="8">
+        <f t="shared" si="3"/>
+        <v>3517647.0588235296</v>
       </c>
       <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q59" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="9">
+        <f>SLOPE(Tabela515[V (V)],Tabela515[I (A)])</f>
+        <v>4175199.6242367299</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>9</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="4">
         <v>6.46</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9">
-        <v>1.8E-3</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="4">
-        <f>C60/E60</f>
-        <v>3588.8888888888891</v>
+      <c r="D60" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G60" s="8">
+        <f t="shared" si="3"/>
+        <v>3588888.888888889</v>
       </c>
       <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>10</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="4">
         <v>7.16</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9">
-        <v>2E-3</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="4">
-        <f>C61/E61</f>
-        <v>3580</v>
+      <c r="D61" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E61" s="8">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G61" s="8">
+        <f t="shared" si="3"/>
+        <v>3580000.0000000005</v>
       </c>
       <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="14">
+        <f>((T55-T59)/T55)</f>
+        <v>0.38600005525930442</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>11</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="4">
         <v>7.99</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="4">
-        <f>C62/E62</f>
-        <v>3631.8181818181815</v>
+      <c r="D62" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="F62" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G62" s="8">
+        <f t="shared" si="3"/>
+        <v>3631818.1818181816</v>
       </c>
       <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q62" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="15">
+        <f>(T55-G68)/T55</f>
+        <v>0.50075181452214323</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>12</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="4">
-        <f>C63/E63</f>
-        <v>3625</v>
+      <c r="D63" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E63" s="8">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G63" s="8">
+        <f t="shared" si="3"/>
+        <v>3625000</v>
       </c>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>13</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="4">
         <v>9.15</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="4">
-        <f>C64/E64</f>
-        <v>3660</v>
+      <c r="D64" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E64" s="8">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G64" s="8">
+        <f t="shared" si="3"/>
+        <v>3660000</v>
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>14</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="4">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="4">
-        <f>C65/E65</f>
-        <v>3752.0000000000005</v>
+      <c r="D65" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G65" s="8">
+        <f t="shared" si="3"/>
+        <v>3752000</v>
       </c>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>15</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="4">
         <v>9.9</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="4">
-        <f>C66/E66</f>
-        <v>3807.6923076923081</v>
+      <c r="D66" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2.6000000000000001E-6</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="3"/>
+        <v>3807692.3076923075</v>
       </c>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" s="4">
         <f>AVERAGE(C52:C66)</f>
         <v>6.02</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="8">
         <f>AVERAGE(E52:E66)</f>
-        <v>1.713333333333333E-3</v>
-      </c>
-      <c r="E68" s="4">
+        <v>1.7133333333333332E-6</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="8">
         <f>AVERAGE(G52:G66)</f>
-        <v>3394.8876612494259</v>
-      </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+        <v>3394887.6612494262</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4">
         <f>STDEVA(C52:C66)</f>
         <v>2.66224126844818</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="8">
         <f>STDEVA(E52:E66)</f>
-        <v>6.3680751371494469E-4</v>
-      </c>
-      <c r="E69" s="4">
+        <v>6.3680751371494486E-7</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="8">
         <f>STDEVA(G52:G66)</f>
-        <v>394.53501665967093</v>
-      </c>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+        <v>394535.0166596687</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" s="4">
         <f>C69/SQRT(10)</f>
         <v>0.84187460891920085</v>
       </c>
-      <c r="D70" s="4">
-        <f>D69/SQRT(10)</f>
-        <v>2.0137621744481383E-4</v>
-      </c>
-      <c r="E70" s="4">
-        <f t="shared" ref="E70" si="6">E69/SQRT(10)</f>
-        <v>124.76292693370367</v>
+      <c r="E70" s="8">
+        <f>E69/SQRT(10)</f>
+        <v>2.0137621744481388E-7</v>
       </c>
       <c r="F70" s="6"/>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B74" s="7" t="s">
+      <c r="G70" s="8">
+        <f t="shared" ref="G70" si="4">G69/SQRT(10)</f>
+        <v>124762.92693370297</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B78" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H79" s="3"/>
-      <c r="Q79" s="7" t="s">
+      <c r="Q79" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>1</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="4">
         <v>0.81</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="8" t="e">
-        <f>C80/E80</f>
-        <v>#VALUE!</v>
+      <c r="D80" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1.714E-3</v>
+      </c>
+      <c r="F80" s="8">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="G80" s="8">
+        <f t="shared" ref="G80:G94" si="5">C80/E80</f>
+        <v>472.57876312718787</v>
       </c>
       <c r="H80" s="6"/>
-      <c r="Q80" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q80" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>2</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="4">
         <v>1.44</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="8" t="e">
-        <f>C81/E81</f>
-        <v>#VALUE!</v>
+      <c r="D81" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E81" s="8">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="F81" s="8">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G81" s="8">
+        <f t="shared" si="5"/>
+        <v>469.05537459283391</v>
       </c>
       <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T81" s="9"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>3</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="4">
         <v>2.15</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="8" t="e">
-        <f>C82/E82</f>
-        <v>#VALUE!</v>
+      <c r="D82" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E82" s="8">
+        <v>4.7404999999999999E-3</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1.55E-4</v>
+      </c>
+      <c r="G82" s="8">
+        <f t="shared" si="5"/>
+        <v>453.53865625988817</v>
       </c>
       <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T82" s="9"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>4</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="4">
         <v>3.06</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="8" t="e">
-        <f>C83/E83</f>
-        <v>#VALUE!</v>
+      <c r="D83" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E83" s="8">
+        <v>6.5395000000000002E-3</v>
+      </c>
+      <c r="F83" s="8">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="G83" s="8">
+        <f t="shared" si="5"/>
+        <v>467.92568239162017</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="3"/>
@@ -8724,396 +9607,502 @@
       <c r="L83" s="5"/>
       <c r="M83" s="1"/>
       <c r="N83" s="5"/>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q83" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="9">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>5</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="4">
         <v>3.68</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="8" t="e">
-        <f>C84/E84</f>
-        <v>#VALUE!</v>
+      <c r="D84" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E84" s="8">
+        <v>7.8584999999999992E-3</v>
+      </c>
+      <c r="F84" s="8">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G84" s="8">
+        <f t="shared" si="5"/>
+        <v>468.28275116116316</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T84" s="9"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>6</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="4">
         <v>4.53</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="8" t="e">
-        <f>C85/E85</f>
-        <v>#VALUE!</v>
+      <c r="D85" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E85" s="8">
+        <v>9.6395000000000005E-3</v>
+      </c>
+      <c r="F85" s="8">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="G85" s="8">
+        <f t="shared" si="5"/>
+        <v>469.94138700140047</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="Q85" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="5">
-        <f>SQRT(((1/D96)*C98)^2+(-(C96/(D96^2))*D98)^2)</f>
-        <v>7.3677687281155396E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="9">
+        <f>SQRT(((1/E96)*C98)^2+(-(C96/(E96^2))*E98)^2)</f>
+        <v>110.53496611955116</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>7</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="4">
         <v>5.12</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="8" t="e">
-        <f>C86/E86</f>
-        <v>#VALUE!</v>
+      <c r="D86" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E86" s="8">
+        <v>1.0932000000000001E-2</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="G86" s="8">
+        <f t="shared" si="5"/>
+        <v>468.34979875594581</v>
       </c>
       <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T86" s="9"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>8</v>
       </c>
-      <c r="C87" s="9">
-        <v>5.43</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="8" t="e">
-        <f>C87/E87</f>
-        <v>#VALUE!</v>
+      <c r="C87" s="4">
+        <v>5.93</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E87" s="8">
+        <v>1.2722499999999999E-2</v>
+      </c>
+      <c r="F87" s="8">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G87" s="8">
+        <f t="shared" si="5"/>
+        <v>466.10336018864217</v>
       </c>
       <c r="H87" s="6"/>
-      <c r="Q87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q87" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="9">
+        <f>SLOPE(Tabela516[V (V)],Tabela516[I (A)])</f>
+        <v>465.55989729092471</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>9</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="4">
         <v>6.83</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9">
-        <v>14.65</v>
-      </c>
-      <c r="F88" s="9"/>
+      <c r="D88" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E88" s="8">
+        <v>1.465E-2</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G88" s="8">
-        <f>C88/E88</f>
-        <v>0.46621160409556311</v>
+        <f t="shared" si="5"/>
+        <v>466.21160409556313</v>
       </c>
       <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>10</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="4">
         <v>7.14</v>
       </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9">
-        <v>15.311999999999999</v>
-      </c>
-      <c r="F89" s="9"/>
+      <c r="D89" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E89" s="8">
+        <v>1.5311999999999999E-2</v>
+      </c>
+      <c r="F89" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="G89" s="8">
-        <f>C89/E89</f>
-        <v>0.46630094043887149</v>
+        <f t="shared" si="5"/>
+        <v>466.30094043887146</v>
       </c>
       <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q89" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="14">
+        <f>((T83-T87)/T83)</f>
+        <v>9.4470270405857242E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>11</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="4">
         <v>7.96</v>
       </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9">
-        <v>17.071000000000002</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>27</v>
+      <c r="D90" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E90" s="8">
+        <v>1.7070999999999999E-2</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G90" s="8">
-        <f>C90/E90</f>
-        <v>0.46628785659891037</v>
+        <f t="shared" si="5"/>
+        <v>466.28785659891042</v>
       </c>
       <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q90" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="15">
+        <f>ABS((T83-G96)/T83)</f>
+        <v>7.4915092966851629E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>12</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="4">
         <v>8.6300000000000008</v>
       </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="8" t="e">
-        <f>C91/E91</f>
-        <v>#VALUE!</v>
+      <c r="D91" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E91" s="8">
+        <v>1.8512500000000001E-2</v>
+      </c>
+      <c r="F91" s="8">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G91" s="8">
+        <f t="shared" si="5"/>
+        <v>466.17150573936533</v>
       </c>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>13</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="4">
         <v>9.06</v>
       </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="8" t="e">
-        <f>C92/E92</f>
-        <v>#VALUE!</v>
+      <c r="D92" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E92" s="8">
+        <v>1.9453999999999999E-2</v>
+      </c>
+      <c r="F92" s="8">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G92" s="8">
+        <f t="shared" si="5"/>
+        <v>465.71399198108361</v>
       </c>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>14</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="4">
         <v>9.49</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9">
-        <v>20.382000000000001</v>
-      </c>
-      <c r="F93" s="9"/>
+      <c r="D93" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E93" s="8">
+        <v>2.0382000000000001E-2</v>
+      </c>
+      <c r="F93" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="G93" s="8">
-        <f>C93/E93</f>
-        <v>0.46560690805612792</v>
+        <f t="shared" si="5"/>
+        <v>465.60690805612796</v>
       </c>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>15</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="4">
         <v>10</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9">
-        <v>21.5</v>
-      </c>
-      <c r="F94" s="9"/>
+      <c r="D94" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E94" s="8">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="F94" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="G94" s="8">
-        <f>C94/E94</f>
-        <v>0.46511627906976744</v>
+        <f t="shared" si="5"/>
+        <v>465.11627906976747</v>
       </c>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" s="4">
         <f>AVERAGE(C80:C94)</f>
-        <v>5.6886666666666663</v>
-      </c>
-      <c r="D96" s="4">
+        <v>5.7219999999999995</v>
+      </c>
+      <c r="E96" s="8">
         <f>AVERAGE(E80:E94)</f>
-        <v>17.783000000000001</v>
-      </c>
-      <c r="E96" s="4" t="e">
+        <v>1.2273200000000001E-2</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="4">
         <f>AVERAGE(G80:G94)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.3">
+        <v>466.47899063055797</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" s="4">
         <f>STDEVA(C80:C94)</f>
-        <v>3.0316800308614056</v>
-      </c>
-      <c r="D97" s="4">
+        <v>3.031381580354787</v>
+      </c>
+      <c r="E97" s="8">
         <f>STDEVA(E80:E94)</f>
-        <v>8.8281867064425832</v>
-      </c>
-      <c r="E97" s="4" t="e">
+        <v>6.5110933737298335E-3</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="4">
         <f>STDEVA(G80:G94)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.3">
+        <v>4.1032210501884805</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="4">
         <f>C97/SQRT(10)</f>
-        <v>0.95870140343716048</v>
-      </c>
-      <c r="D98" s="4">
-        <f>D97/SQRT(10)</f>
-        <v>2.791717760157884</v>
-      </c>
-      <c r="E98" s="4" t="e">
-        <f t="shared" ref="E98" si="7">E97/SQRT(10)</f>
-        <v>#VALUE!</v>
+        <v>0.95860702510018592</v>
+      </c>
+      <c r="E98" s="8">
+        <f>E97/SQRT(10)</f>
+        <v>2.0589885119016217E-3</v>
       </c>
       <c r="F98" s="6"/>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B102" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G98" s="4">
+        <f t="shared" ref="G98" si="6">G97/SQRT(10)</f>
+        <v>1.2975524261743667</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H101" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H103" s="3"/>
-      <c r="Q103" s="7" t="s">
+      <c r="Q103" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>1</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="11">
         <v>0.77</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="4">
-        <f>C104/E104</f>
-        <v>9.8717948717948723</v>
+      <c r="D104" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E104" s="10">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="F104" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G104" s="10">
+        <f t="shared" ref="G104:G118" si="7">C104/E104</f>
+        <v>9871.794871794873</v>
       </c>
       <c r="H104" s="6"/>
-      <c r="Q104" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q104" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>2</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" s="4" t="e">
-        <f>C105/E105</f>
-        <v>#VALUE!</v>
+      <c r="C105" s="11">
+        <v>1.48</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="10">
+        <v>1.46E-4</v>
+      </c>
+      <c r="F105" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G105" s="10">
+        <f t="shared" si="7"/>
+        <v>10136.986301369863</v>
       </c>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>3</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="11">
         <v>1.81</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="4">
-        <f>C106/E106</f>
-        <v>10.055555555555555</v>
+      <c r="D106" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E106" s="10">
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="F106" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G106" s="10">
+        <f t="shared" si="7"/>
+        <v>10055.555555555557</v>
       </c>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>4</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="11">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="4">
-        <f>C107/E107</f>
-        <v>10.044052863436121</v>
+      <c r="D107" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E107" s="10">
+        <v>2.2700000000000002E-4</v>
+      </c>
+      <c r="F107" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G107" s="10">
+        <f t="shared" si="7"/>
+        <v>10044.052863436122</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="3"/>
@@ -9122,610 +10111,954 @@
       <c r="L107" s="5"/>
       <c r="M107" s="1"/>
       <c r="N107" s="5"/>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q107" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>5</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="11">
         <v>2.74</v>
       </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="4">
-        <f>C108/E108</f>
-        <v>10.036630036630036</v>
+      <c r="D108" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E108" s="10">
+        <v>2.7300000000000002E-4</v>
+      </c>
+      <c r="F108" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G108" s="10">
+        <f t="shared" si="7"/>
+        <v>10036.630036630037</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T108" s="9"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>6</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="11">
         <v>3.18</v>
       </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9">
-        <v>0.317</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" s="4">
-        <f>C109/E109</f>
-        <v>10.031545741324921</v>
+      <c r="D109" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E109" s="10">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="F109" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G109" s="10">
+        <f t="shared" si="7"/>
+        <v>10031.545741324921</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="Q109" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="5">
-        <f>SQRT(((1/D120)*C122)^2+(-(C120/(D120^2))*D122)^2)</f>
-        <v>2.7481215810449329</v>
-      </c>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q109" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="9">
+        <f>SQRT(((1/E120)*C122)^2+(-(C120/(E120^2))*E122)^2)</f>
+        <v>2612.0114556618387</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>7</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="11">
         <v>3.68</v>
       </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="4">
-        <f>C110/E110</f>
-        <v>10.05464480874317</v>
+      <c r="D110" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E110" s="10">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="F110" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G110" s="10">
+        <f t="shared" si="7"/>
+        <v>10054.644808743169</v>
       </c>
       <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T110" s="9"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>8</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="11">
         <v>4.33</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="4">
-        <f>C111/E111</f>
-        <v>10.093240093240093</v>
+      <c r="D111" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E111" s="10">
+        <v>4.2900000000000002E-4</v>
+      </c>
+      <c r="F111" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G111" s="10">
+        <f t="shared" si="7"/>
+        <v>10093.240093240092</v>
       </c>
       <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q111" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="9">
+        <f>SLOPE(Tabela517[V (V)],Tabela517[I (A)])</f>
+        <v>10057.504745271553</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>9</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="11">
         <v>4.8</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="4">
-        <f>C112/E112</f>
-        <v>10.084033613445378</v>
+      <c r="D112" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E112" s="10">
+        <v>4.7599999999999997E-4</v>
+      </c>
+      <c r="F112" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G112" s="10">
+        <f t="shared" si="7"/>
+        <v>10084.033613445379</v>
       </c>
       <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>10</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="11">
         <v>5.56</v>
       </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="4">
-        <f>C113/E113</f>
-        <v>10.07246376811594</v>
+      <c r="D113" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E113" s="10">
+        <v>5.5200000000000008E-4</v>
+      </c>
+      <c r="F113" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G113" s="10">
+        <f t="shared" si="7"/>
+        <v>10072.46376811594</v>
       </c>
       <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q113" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="14">
+        <f>ABS((T107-T111)/T107)</f>
+        <v>5.7504745271553474E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>11</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="11">
         <v>5.96</v>
       </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="4">
-        <f>C114/E114</f>
-        <v>10.084602368866328</v>
+      <c r="D114" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E114" s="10">
+        <v>5.9099999999999995E-4</v>
+      </c>
+      <c r="F114" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G114" s="10">
+        <f t="shared" si="7"/>
+        <v>10084.60236886633</v>
       </c>
       <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q114" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="15">
+        <f>ABS((T107-G120)/T107)</f>
+        <v>5.2067968264465888E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>12</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="11">
         <v>6.8</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="4">
-        <f>C115/E115</f>
-        <v>10.074074074074073</v>
+      <c r="D115" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E115" s="10">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="F115" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G115" s="10">
+        <f t="shared" si="7"/>
+        <v>10074.074074074073</v>
       </c>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>13</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="11">
         <v>7.64</v>
       </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="4">
-        <f>C116/E116</f>
-        <v>10.079155672823218</v>
+      <c r="D116" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E116" s="10">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="F116" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G116" s="10">
+        <f t="shared" si="7"/>
+        <v>10079.155672823219</v>
       </c>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>14</v>
       </c>
-      <c r="C117" s="9">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9">
-        <v>0.84</v>
-      </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="4">
-        <f>C117/E117</f>
-        <v>10.059523809523808</v>
+      <c r="C117" s="11">
+        <v>8.44</v>
+      </c>
+      <c r="D117" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E117" s="10">
+        <v>8.4499999999999994E-4</v>
+      </c>
+      <c r="F117" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G117" s="10">
+        <f t="shared" si="7"/>
+        <v>9988.165680473372</v>
       </c>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>15</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="11">
         <v>9.52</v>
       </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="4">
-        <f>C118/E118</f>
-        <v>10.074074074074074</v>
+      <c r="D118" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E118" s="10">
+        <v>9.4499999999999998E-4</v>
+      </c>
+      <c r="F118" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G118" s="10">
+        <f t="shared" si="7"/>
+        <v>10074.074074074073</v>
       </c>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" s="4">
         <f>AVERAGE(C104:C118)</f>
-        <v>4.822857142857143</v>
-      </c>
-      <c r="D120" s="4">
+        <v>4.5993333333333331</v>
+      </c>
+      <c r="E120" s="8">
         <f>AVERAGE(E104:E118)</f>
-        <v>0.45686666666666664</v>
-      </c>
-      <c r="E120" s="4" t="e">
+        <v>4.5719999999999995E-4</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="8">
         <f>AVERAGE(G104:G118)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.3">
+        <v>10052.067968264466</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" s="4">
         <f>STDEVA(C104:C118)</f>
-        <v>2.8178813385405772</v>
-      </c>
-      <c r="D121" s="4">
+        <v>2.6700708034129166</v>
+      </c>
+      <c r="E121" s="8">
         <f>STDEVA(E104:E118)</f>
-        <v>0.26495440757843236</v>
-      </c>
-      <c r="E121" s="4" t="e">
+        <v>2.6547348535884221E-4</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="8">
         <f>STDEVA(G104:G118)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F121" s="6"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.3">
+        <v>60.017411251811424</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" s="4">
         <f>C121/SQRT(10)</f>
-        <v>0.89109232058722365</v>
-      </c>
-      <c r="D122" s="4">
-        <f>D121/SQRT(10)</f>
-        <v>8.3785940404842413E-2</v>
-      </c>
-      <c r="E122" s="4" t="e">
-        <f t="shared" ref="E122" si="8">E121/SQRT(10)</f>
-        <v>#VALUE!</v>
+        <v>0.84435052527005017</v>
+      </c>
+      <c r="E122" s="8">
+        <f>E121/SQRT(10)</f>
+        <v>8.3950087211730399E-5</v>
       </c>
       <c r="F122" s="6"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B126" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G122" s="8">
+        <f t="shared" ref="G122" si="8">G121/SQRT(10)</f>
+        <v>18.979171882274159</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E123" s="9"/>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B126" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="O127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="Q127" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>1</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="4">
         <v>0.95</v>
       </c>
-      <c r="D128" s="9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E128" s="4">
-        <f t="shared" ref="E128:E137" si="9">C128/D128</f>
-        <v>316.66666666666663</v>
-      </c>
-      <c r="F128" s="6"/>
-      <c r="O128" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="7"/>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D128" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E128" s="8">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="F128" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G128" s="8">
+        <f t="shared" ref="G128:G142" si="9">C128/E128</f>
+        <v>3166666.6666666665</v>
+      </c>
+      <c r="H128" s="6"/>
+      <c r="Q128" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="9">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>2</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="4" t="e">
+      <c r="C129" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="D129" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E129" s="8">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="F129" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G129" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F129" s="6"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
+        <v>3480000</v>
+      </c>
+      <c r="H129" s="6"/>
+      <c r="T129" s="9"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>3</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="4" t="e">
+      <c r="C130" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="D130" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E130" s="8">
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="F130" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G130" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F130" s="6"/>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.3">
+        <v>3737500.0000000005</v>
+      </c>
+      <c r="H130" s="6"/>
+      <c r="T130" s="9"/>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>4</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="4" t="e">
+      <c r="C131" s="4">
+        <v>4.01</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E131" s="8">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="F131" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G131" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
+        <v>3645454.5454545449</v>
+      </c>
+      <c r="H131" s="6"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="1"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
       <c r="L131" s="5"/>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M131" s="1"/>
+      <c r="N131" s="5"/>
+      <c r="Q131" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="9">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>5</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="4" t="e">
+      <c r="C132" s="4">
+        <v>4.58</v>
+      </c>
+      <c r="D132" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E132" s="8">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="F132" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G132" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F132" s="6"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+        <v>3816666.666666667</v>
+      </c>
+      <c r="H132" s="6"/>
       <c r="I132" s="3"/>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="T132" s="9"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>6</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="4" t="e">
+      <c r="C133" s="4">
+        <v>5.52</v>
+      </c>
+      <c r="D133" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E133" s="8">
+        <v>1.5E-6</v>
+      </c>
+      <c r="F133" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G133" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+        <v>3679999.9999999995</v>
+      </c>
+      <c r="H133" s="6"/>
       <c r="I133" s="3"/>
-      <c r="O133" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="7"/>
-      <c r="R133" s="5" t="e">
-        <f>SQRT(((1/D144)*C146)^2+(-(C144/(D144^2))*D146)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="Q133" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="9">
+        <f>SQRT(((1/E144)*C146)^2+(-(C144/(E144^2))*E146)^2)</f>
+        <v>634526.55757414585</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>7</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="4" t="e">
+      <c r="C134" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="D134" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E134" s="8">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="F134" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G134" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F134" s="6"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
+        <v>3825000.0000000005</v>
+      </c>
+      <c r="H134" s="6"/>
+      <c r="T134" s="9"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>8</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="4" t="e">
+      <c r="C135" s="4">
+        <v>6.54</v>
+      </c>
+      <c r="D135" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E135" s="8">
+        <v>1.7E-6</v>
+      </c>
+      <c r="F135" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G135" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F135" s="6"/>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.3">
+        <v>3847058.8235294116</v>
+      </c>
+      <c r="H135" s="6"/>
+      <c r="Q135" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="9">
+        <f>SLOPE(Tabela515[V (V)],Tabela515[I (A)])</f>
+        <v>4175199.6242367299</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>9</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="4" t="e">
+      <c r="C136" s="4">
+        <v>7.22</v>
+      </c>
+      <c r="D136" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E136" s="8">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="F136" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G136" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F136" s="6"/>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.3">
+        <v>4011111.111111111</v>
+      </c>
+      <c r="H136" s="6"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>10</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="4" t="e">
+      <c r="C137" s="4">
+        <v>7.66</v>
+      </c>
+      <c r="D137" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E137" s="8">
+        <v>1.9E-6</v>
+      </c>
+      <c r="F137" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G137" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F137" s="6"/>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
+        <v>4031578.9473684211</v>
+      </c>
+      <c r="H137" s="6"/>
+      <c r="Q137" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="14">
+        <f>ABS(T131-T135)/T131</f>
+        <v>0.38600005525930442</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <v>11</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="4" t="e">
-        <f t="shared" ref="E138:E142" si="10">C138/D138</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F138" s="6"/>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C138" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="D138" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E138" s="8">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="F138" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G138" s="8">
+        <f t="shared" si="9"/>
+        <v>3928571.4285714291</v>
+      </c>
+      <c r="H138" s="6"/>
+      <c r="Q138" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R138" s="13"/>
+      <c r="S138" s="13"/>
+      <c r="T138" s="15">
+        <f>ABS(T131-G144)/T131</f>
+        <v>0.44018062833281024</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <v>12</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F139" s="6"/>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C139" s="4">
+        <v>8.82</v>
+      </c>
+      <c r="D139" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E139" s="8">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="F139" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G139" s="8">
+        <f t="shared" si="9"/>
+        <v>4009090.9090909092</v>
+      </c>
+      <c r="H139" s="6"/>
+      <c r="Q139" s="16"/>
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="17"/>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <v>13</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F140" s="6"/>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C140" s="4">
+        <v>9</v>
+      </c>
+      <c r="D140" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E140" s="8">
+        <v>2.3E-6</v>
+      </c>
+      <c r="F140" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G140" s="8">
+        <f t="shared" si="9"/>
+        <v>3913043.4782608696</v>
+      </c>
+      <c r="H140" s="6"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <v>14</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" s="6"/>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C141" s="4">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E141" s="8">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="F141" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G141" s="8">
+        <f t="shared" si="9"/>
+        <v>4045833.333333334</v>
+      </c>
+      <c r="H141" s="6"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <v>15</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F142" s="6"/>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C142" s="4">
+        <v>9.91</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E142" s="8">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="F142" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G142" s="8">
+        <f t="shared" si="9"/>
+        <v>3963999.9999999995</v>
+      </c>
+      <c r="H142" s="6"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" s="4">
         <f>AVERAGE(C128:C142)</f>
-        <v>0.95</v>
-      </c>
-      <c r="D144" s="4">
-        <f>AVERAGE(D128:D142)</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E144" s="4" t="e">
+        <v>6.2013333333333343</v>
+      </c>
+      <c r="E144" s="8">
         <f>AVERAGE(E128:E142)</f>
-        <v>#DIV/0!</v>
+        <v>1.5933333333333335E-6</v>
       </c>
       <c r="F144" s="6"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="8">
+        <f>AVERAGE(G128:G142)</f>
+        <v>3806771.7273368905</v>
+      </c>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="4">
+        <f>STDEVA(C128:C142)</f>
+        <v>2.8526450549487934</v>
+      </c>
+      <c r="E145" s="8">
+        <f>STDEVA(E128:E142)</f>
+        <v>6.8916789025054048E-7</v>
+      </c>
+      <c r="F145" s="6"/>
+      <c r="G145" s="8">
+        <f>STDEVA(G128:G142)</f>
+        <v>240042.60206381421</v>
+      </c>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="4" t="e">
-        <f>STDEVA(C128:C142)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D145" s="4" t="e">
-        <f>STDEVA(D128:D142)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E145" s="4" t="e">
-        <f>STDEVA(E128:E142)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F145" s="6"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="4" t="e">
+      <c r="C146" s="4">
         <f>C145/SQRT(15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D146" s="4" t="e">
-        <f>D145/SQRT(15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E146" s="4" t="e">
+        <v>0.73654978603050791</v>
+      </c>
+      <c r="E146" s="8">
         <f>E145/SQRT(15)</f>
-        <v>#DIV/0!</v>
+        <v>1.7794238411208293E-7</v>
       </c>
       <c r="F146" s="6"/>
+      <c r="G146" s="8">
+        <f>G145/SQRT(15)</f>
+        <v>61978.733344896435</v>
+      </c>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="O133:Q133"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="B50:E50"/>
+  <mergeCells count="49">
+    <mergeCell ref="Q135:S135"/>
+    <mergeCell ref="Q137:S137"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="Q131:S131"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q133:S133"/>
+    <mergeCell ref="Q31:S31"/>
     <mergeCell ref="Q51:S51"/>
     <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="B78:E78"/>
     <mergeCell ref="Q79:S79"/>
     <mergeCell ref="B74:R74"/>
-    <mergeCell ref="B102:E102"/>
     <mergeCell ref="Q103:S103"/>
     <mergeCell ref="Q104:S104"/>
     <mergeCell ref="Q109:S109"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="O127:Q127"/>
-    <mergeCell ref="O128:Q128"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="Q128:S128"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
     <mergeCell ref="Q80:S80"/>
     <mergeCell ref="Q85:S85"/>
     <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q9:S9"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q111:S111"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="Q114:S114"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9743,25 +11076,37 @@
         <x15:webExtension appRef="{EBF7A827-4287-4B11-A03D-8B56046FE39E}">
           <xm:f>Folha1!1:1048576</xm:f>
         </x15:webExtension>
+        <x15:webExtension appRef="{EF659F33-B27D-477A-BED5-49EA59CEFAD8}">
+          <xm:f>Folha1!$C$4:$C$18</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{1FAC1EA7-7C57-444F-A795-D14AD7B737CD}">
+          <xm:f>Folha1!$E$4:$E$18</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{5BE6B1A2-8B0E-4A4B-89F6-D17106E225DD}">
+          <xm:f>Folha1!$R$14:$AA$31</xm:f>
+        </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21916A6B-B22C-4907-B35C-B132BFC979C4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B52C624EF34AD478A5856EC85ED098F" ma:contentTypeVersion="8" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="13f11bc05279c011ff2d322d3f66fd67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50696793-6437-4e87-ba7e-0fc4fcfbac97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffcb33e49fcbec99d603f857985d8417" ns3:_="">
     <xsd:import namespace="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
@@ -9931,22 +11276,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60169DA3-410F-42F9-98E4-43875082A5B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C452E65F-37E5-422E-B821-5F797BE3DB5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9962,28 +11316,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60169DA3-410F-42F9-98E4-43875082A5B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T2A-Multimetro.xlsx
+++ b/T2A-Multimetro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED7C78-BC3E-4798-8218-112D266EAFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD40FB20-585F-45EC-A55E-1B6A7566868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>Voltagem</t>
   </si>
@@ -144,6 +166,15 @@
   <si>
     <t>2,00E-02*</t>
   </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>Residuo</t>
+  </si>
+  <si>
+    <t>ANALISE ESTATISTICA</t>
+  </si>
 </sst>
 </file>
 
@@ -195,12 +226,64 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -209,23 +292,14 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,9 +311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -255,21 +326,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -284,7 +379,82 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -303,7 +473,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -319,7 +500,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -327,7 +507,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -335,7 +533,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -343,7 +561,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -351,7 +580,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -359,15 +587,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -392,115 +611,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -612,7 +723,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14024371183581519"/>
+          <c:y val="0.15062984496124032"/>
+          <c:w val="0.78413178332174593"/>
+          <c:h val="0.69722234938655925"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -696,7 +817,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$4:$E$18</c:f>
+              <c:f>Folha1!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -750,7 +871,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$4:$C$18</c:f>
+              <c:f>Folha1!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -824,9 +945,25 @@
         <c:axId val="838931744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.7000000000000005E-2"/>
+          <c:min val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -932,6 +1069,8 @@
         <c:axId val="838937568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7.7"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1058,6 +1197,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61989819291069126"/>
+          <c:y val="0.68008644631630344"/>
+          <c:w val="0.30364543754412626"/>
+          <c:h val="0.16351858633949828"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1262,7 +1442,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$28:$E$42</c:f>
+              <c:f>Folha1!$D$28:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1316,7 +1496,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$28:$C$42</c:f>
+              <c:f>Folha1!$B$28:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1828,7 +2008,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$52:$E$66</c:f>
+              <c:f>Folha1!$D$52:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1882,7 +2062,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$52:$C$66</c:f>
+              <c:f>Folha1!$B$52:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2394,7 +2574,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$80:$E$94</c:f>
+              <c:f>Folha1!$D$80:$D$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2448,7 +2628,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$80:$C$94</c:f>
+              <c:f>Folha1!$B$80:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2960,7 +3140,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$104:$E$118</c:f>
+              <c:f>Folha1!$D$104:$D$118</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3014,7 +3194,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$104:$C$118</c:f>
+              <c:f>Folha1!$B$104:$B$118</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3526,7 +3706,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$128:$E$142</c:f>
+              <c:f>Folha1!$D$128:$D$142</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3580,7 +3760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$128:$C$142</c:f>
+              <c:f>Folha1!$B$128:$B$142</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3932,6 +4112,504 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15203958880139984"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.77257392825896765"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residuo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$D$4:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.5375E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1234000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2039999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2433999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2564999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2886000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2874999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9865000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04273E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2766E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3806000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4873000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5980999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$H$4:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.4298058739939945E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4320499910607314E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7751546043092201E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5244914862508905E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9241664668788765E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8344898825873646E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1543658308986959E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7815106761859489E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2309273189850316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.443603518257941E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8592276710827988E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8719783802793266E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5911000532183195E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0567758465123376E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.619070859605177E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14D1-4857-AAE8-8949BC9F2E8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1459645904"/>
+        <c:axId val="1459642992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1459645904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="9.000000000000003E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459642992"/>
+        <c:crossesAt val="-1580000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1459642992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459645904"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6998842957130359"/>
+          <c:y val="0.53058982210557026"/>
+          <c:w val="0.22511570428696412"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4172,6 +4850,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7268,20 +7986,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7308,16 +8542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>283845</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7346,13 +8580,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -7384,13 +8618,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -7422,13 +8656,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -7460,13 +8694,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -7496,20 +8730,62 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38566</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0470AF65-CC33-4EAA-B686-0537C52C7434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}" name="Tabela5" displayName="Tabela5" ref="B3:G18" headerRowDxfId="76" dataDxfId="75">
-  <autoFilter ref="B3:G18" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9DD51987-C1BC-4ED6-8FEC-B5E9EEBD87E4}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{15D1FA17-1AE6-4DD2-8292-D64CE9308936}" name="V (V)" dataDxfId="29" totalsRowDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{7C02DDDF-3141-4D0A-9AF5-518B2A531A4C}" name="u(V)" dataDxfId="28" totalsRowDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{5BFB6233-8250-4878-B204-A8C660E33AB0}" name="I (A)" dataDxfId="27" totalsRowDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{D00D6C69-A1D9-4D13-9A2F-60BE40695798}" name="u(I)" dataDxfId="26" totalsRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{419C236C-08C9-42EB-933C-7880265CDDD8}" name="R (Ω)" totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="68">
-      <calculatedColumnFormula>C4/E4</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}" name="Tabela5" displayName="Tabela5" ref="A3:H18" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A3:H18" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9DD51987-C1BC-4ED6-8FEC-B5E9EEBD87E4}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{15D1FA17-1AE6-4DD2-8292-D64CE9308936}" name="V (V)" dataDxfId="2" totalsRowDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{7C02DDDF-3141-4D0A-9AF5-518B2A531A4C}" name="u(V)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5BFB6233-8250-4878-B204-A8C660E33AB0}" name="I (A)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D00D6C69-A1D9-4D13-9A2F-60BE40695798}" name="u(I)" dataDxfId="0" totalsRowDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{419C236C-08C9-42EB-933C-7880265CDDD8}" name="R (Ω)" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="72">
+      <calculatedColumnFormula>B4/D4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5D26FCBD-106E-427B-AC75-BD87B08904B4}" name="Fit" dataDxfId="5" totalsRowDxfId="8">
+      <calculatedColumnFormula>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4F6967FE-8E66-46D5-89AC-72983E1166AF}" name="Residuo" dataDxfId="4" totalsRowDxfId="7">
+      <calculatedColumnFormula>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7517,16 +8793,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}" name="Tabela513" displayName="Tabela513" ref="B27:G42" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="B27:G42" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}" name="Tabela513" displayName="Tabela513" ref="A27:F42" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A27:F42" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{71843C50-F2B2-4812-B490-8BF118C0297E}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="30" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{991DA961-5670-4F45-9567-BEB5B16C9F9F}" name="Voltagem" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{D016CBE5-CAE9-43D8-BDA7-51C54CA2663A}" name="u(V)" dataDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{D8270B4F-B072-4BED-8F6B-32BF8798E9F7}" name="Corrente Elétrica" dataDxfId="22" totalsRowDxfId="64" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{ADFD343F-0A14-4F6B-B60A-AC165360EBBD}" name="u(I)" dataDxfId="21" totalsRowDxfId="31" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{9EAEEDAC-6D0F-473B-A32D-883D869F1ED1}" name="Resistência" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="63" dataCellStyle="Moeda">
-      <calculatedColumnFormula>C28/E28</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{71843C50-F2B2-4812-B490-8BF118C0297E}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{991DA961-5670-4F45-9567-BEB5B16C9F9F}" name="Voltagem" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{D016CBE5-CAE9-43D8-BDA7-51C54CA2663A}" name="u(V)" dataDxfId="66" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{D8270B4F-B072-4BED-8F6B-32BF8798E9F7}" name="Corrente Elétrica" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{ADFD343F-0A14-4F6B-B60A-AC165360EBBD}" name="u(I)" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{9EAEEDAC-6D0F-473B-A32D-883D869F1ED1}" name="Resistência" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Moeda">
+      <calculatedColumnFormula>B28/D28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7534,16 +8810,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}" name="Tabela515" displayName="Tabela515" ref="B51:G66" headerRowDxfId="62" dataDxfId="61">
-  <autoFilter ref="B51:G66" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}" name="Tabela515" displayName="Tabela515" ref="A51:F66" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A51:F66" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{42A0E4D7-25BB-48A1-879F-59A29E5FDEC0}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{47CBB6DA-76E3-4208-B8AC-53ED1356227C}" name="V (V)" dataDxfId="19" totalsRowDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{339EC1BF-6347-49FE-8C68-674FFE212D24}" name="u(V)" dataDxfId="18" totalsRowDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{D546E76A-468E-464B-A2CB-4F07756EC755}" name="I (A)" dataDxfId="17" totalsRowDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{26E97079-5B7D-4585-A322-17562E32181D}" name="u(I)" dataDxfId="16" totalsRowDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{9B5FBD40-E7C9-4AF1-B58C-93484A227F08}" name="R (Ω)" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="54">
-      <calculatedColumnFormula>C52/E52</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{42A0E4D7-25BB-48A1-879F-59A29E5FDEC0}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{47CBB6DA-76E3-4208-B8AC-53ED1356227C}" name="V (V)" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{339EC1BF-6347-49FE-8C68-674FFE212D24}" name="u(V)" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{D546E76A-468E-464B-A2CB-4F07756EC755}" name="I (A)" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{26E97079-5B7D-4585-A322-17562E32181D}" name="u(I)" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{9B5FBD40-E7C9-4AF1-B58C-93484A227F08}" name="R (Ω)" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46">
+      <calculatedColumnFormula>B52/D52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7551,16 +8827,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}" name="Tabela516" displayName="Tabela516" ref="B79:G94" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="B79:G94" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}" name="Tabela516" displayName="Tabela516" ref="A79:F94" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A79:F94" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DA8929B6-8358-4286-BBE7-87E237EAAF4B}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{AB952BEB-A90E-4961-B158-2A68B404E244}" name="V (V)" dataDxfId="14" totalsRowDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{DBBC59F9-D98C-4686-97C1-BEE96C71F346}" name="u(V)" dataDxfId="13" totalsRowDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{8245E335-11B5-4743-B73E-528AAAF1A734}" name="I (A)" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{7F838851-7F2E-40AB-96BC-7EA7E1DA6457}" name="u(I)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{A7DC4E2F-8B36-4153-B12F-2CB9A0F3C0FE}" name="R (Ω)" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="47">
-      <calculatedColumnFormula>C80/E80</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{DA8929B6-8358-4286-BBE7-87E237EAAF4B}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{AB952BEB-A90E-4961-B158-2A68B404E244}" name="V (V)" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{DBBC59F9-D98C-4686-97C1-BEE96C71F346}" name="u(V)" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{8245E335-11B5-4743-B73E-528AAAF1A734}" name="I (A)" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{7F838851-7F2E-40AB-96BC-7EA7E1DA6457}" name="u(I)" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{A7DC4E2F-8B36-4153-B12F-2CB9A0F3C0FE}" name="R (Ω)" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="34">
+      <calculatedColumnFormula>B80/D80</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7568,16 +8844,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}" name="Tabela517" displayName="Tabela517" ref="B103:G118" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="B103:G118" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}" name="Tabela517" displayName="Tabela517" ref="A103:F118" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A103:F118" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E5653933-D5F0-40E0-9126-7D5C5E6E076F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{4047F096-802D-4A82-8556-4FDCD1CBA596}" name="V (V)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{39BCB85A-98A6-4169-ABBD-53EC7B090C38}" name="u(V)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6A2E6146-0EF7-407B-BF4F-00BD8FF043CE}" name="I (A)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{527997B1-B87F-41CF-8B06-19A40E1B12DD}" name="u(I)" dataDxfId="6" totalsRowDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{5A9E15A7-8097-42C6-A5E9-38F4A78C1117}" name="R (Ω)" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="41">
-      <calculatedColumnFormula>C104/E104</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E5653933-D5F0-40E0-9126-7D5C5E6E076F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{4047F096-802D-4A82-8556-4FDCD1CBA596}" name="V (V)" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{39BCB85A-98A6-4169-ABBD-53EC7B090C38}" name="u(V)" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{6A2E6146-0EF7-407B-BF4F-00BD8FF043CE}" name="I (A)" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{527997B1-B87F-41CF-8B06-19A40E1B12DD}" name="u(I)" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{5A9E15A7-8097-42C6-A5E9-38F4A78C1117}" name="R (Ω)" totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="23">
+      <calculatedColumnFormula>B104/D104</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7585,16 +8861,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}" name="Tabela518" displayName="Tabela518" ref="B127:G142" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="B127:G142" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}" name="Tabela518" displayName="Tabela518" ref="A127:F142" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A127:F142" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FF1DBC2D-D6EA-47E0-9253-0394DF3401A6}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{E8262805-4EA5-4DDE-9F58-1568CDE64B65}" name="V (V)" dataDxfId="4" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{A83FC60C-ADB5-4B27-B59A-4BF99A9A0315}" name="u(V)" dataDxfId="3" totalsRowDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{4DCE768E-96BA-4F88-9C29-8BC5D79A7E60}" name="I (A)" dataDxfId="2" totalsRowDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{FB7AB7EF-F243-4E85-AE65-90CC109B64B6}" name="u(I)" dataDxfId="1" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{DC14564C-AA8B-4953-90CB-3874FB98E31D}" name="R (Ω)" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="32">
-      <calculatedColumnFormula>C128/E128</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{FF1DBC2D-D6EA-47E0-9253-0394DF3401A6}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E8262805-4EA5-4DDE-9F58-1568CDE64B65}" name="V (V)" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{A83FC60C-ADB5-4B27-B59A-4BF99A9A0315}" name="u(V)" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4DCE768E-96BA-4F88-9C29-8BC5D79A7E60}" name="I (A)" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{FB7AB7EF-F243-4E85-AE65-90CC109B64B6}" name="u(I)" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{DC14564C-AA8B-4953-90CB-3874FB98E31D}" name="R (Ω)" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="9">
+      <calculatedColumnFormula>B128/D128</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -7923,3144 +9199,3314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93CEA2-7506-43DA-BD0E-18E2DA668FCC}">
-  <dimension ref="B2:T146"/>
+  <dimension ref="A2:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V123" sqref="V123"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36:X47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.21875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.21875" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="T2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="Q3" s="12" t="s">
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="T3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="25">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.5375E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F4" s="5">
+        <f>B4/D4</f>
+        <v>468.29268292682923</v>
+      </c>
+      <c r="G4" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>0.71857019412600598</v>
+      </c>
+      <c r="H4" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>1.4298058739939945E-3</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="20" cm="1">
+        <f t="array" ref="J4:K8">LINEST(Tabela5[V (V)],Tabela5[I (A)],TRUE,TRUE)</f>
+        <v>464.23921468327922</v>
+      </c>
+      <c r="K4" s="20">
+        <v>4.8024015504641859E-3</v>
+      </c>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.1234000000000001E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F5" s="5">
+        <f>B5/D5</f>
+        <v>470.94282754073652</v>
+      </c>
+      <c r="G5" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>0.99056795000893927</v>
+      </c>
+      <c r="H5" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>9.4320499910607314E-3</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="20">
+        <v>3.8006521695006943</v>
+      </c>
+      <c r="K5" s="20">
+        <v>3.6662496657451686E-2</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="9">
+      <c r="B6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="D6" s="5">
+        <v>3.2039999999999998E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F6" s="5">
+        <f>B6/D6</f>
+        <v>468.16479400749068</v>
+      </c>
+      <c r="G6" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>1.4922248453956908</v>
+      </c>
+      <c r="H6" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>7.7751546043092201E-3</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="20">
+        <v>0.99912944199347653</v>
+      </c>
+      <c r="K6" s="20">
+        <v>6.6989062946331016E-2</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
         <v>0.01</v>
       </c>
-      <c r="E4" s="8">
-        <v>1.5375E-3</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="D7" s="5">
+        <v>4.2433999999999996E-3</v>
+      </c>
+      <c r="E7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G18" si="0">C4/E4</f>
-        <v>468.29268292682923</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="Q4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="9">
+      <c r="F7" s="5">
+        <f>B7/D7</f>
+        <v>471.32016778997979</v>
+      </c>
+      <c r="G7" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>1.9747550851374911</v>
+      </c>
+      <c r="H7" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>2.5244914862508905E-2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="20">
+        <v>14919.950937885862</v>
+      </c>
+      <c r="K7" s="20">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="25">
+        <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
+        <v>115.08094791750561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.2564999999999999E-3</v>
+      </c>
+      <c r="E8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="F8" s="5">
+        <f>B8/D8</f>
+        <v>466.08960334823558</v>
+      </c>
+      <c r="G8" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>2.4450758335331213</v>
+      </c>
+      <c r="H8" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>4.9241664668788765E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="20">
+        <v>66.953795384125769</v>
+      </c>
+      <c r="K8" s="20">
+        <v>5.8337949207557478E-2</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.01</v>
       </c>
-      <c r="E5" s="8">
-        <v>2.1234000000000001E-3</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D9" s="5">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="E9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>470.94282754073652</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3.2039999999999998E-3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>468.16479400749068</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4.2433999999999996E-3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>471.32016778997979</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="5"/>
-      <c r="Q7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="9">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5.2564999999999999E-3</v>
-      </c>
-      <c r="F8" s="8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>466.08960334823558</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2.92</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="8">
-        <v>6.2399999999999999E-3</v>
-      </c>
-      <c r="F9" s="8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
+      <c r="F9" s="5">
+        <f>B9/D9</f>
         <v>467.94871794871796</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="Q9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="9">
-        <f>SQRT(((1/E20)*C22)^2+(-(C20/(E20^2))*E22)^2)</f>
-        <v>115.08094791750561</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="8">
-        <v>7.2886000000000001E-3</v>
-      </c>
-      <c r="F10" s="8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>466.48190324616525</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3.87</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E11" s="8">
-        <v>8.2874999999999997E-3</v>
-      </c>
-      <c r="F11" s="8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>466.96832579185525</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="Q11" s="12" t="s">
+      <c r="G9" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>2.9016551011741263</v>
+      </c>
+      <c r="H9" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>1.8344898825873646E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="T9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="9">
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="25">
         <f>SLOPE(Tabela5[V (V)],Tabela5[I (A)])</f>
         <v>464.23921468327904</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.2886000000000001E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F10" s="5">
+        <f>B10/D10</f>
+        <v>466.48190324616525</v>
+      </c>
+      <c r="G10" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>3.388456341691013</v>
+      </c>
+      <c r="H10" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>1.1543658308986959E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="4"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8.2874999999999997E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F11" s="5">
+        <f>B11/D11</f>
+        <v>466.96832579185525</v>
+      </c>
+      <c r="G11" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>3.8521848932381406</v>
+      </c>
+      <c r="H11" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>1.7815106761859489E-2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="4"/>
+      <c r="T11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="26">
+        <f>ABS((W5-W9)/W5)</f>
+        <v>1.2256990035576501E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="B12" s="2">
         <v>4.41</v>
       </c>
-      <c r="D12" s="8">
+      <c r="C12" s="5">
         <v>0.01</v>
       </c>
-      <c r="E12" s="8">
+      <c r="D12" s="5">
         <v>9.9865000000000006E-3</v>
       </c>
-      <c r="F12" s="8">
+      <c r="E12" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
+      <c r="F12" s="5">
+        <f>B12/D12</f>
         <v>441.59615480899214</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="G12" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>4.6409273189850317</v>
+      </c>
+      <c r="H12" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>-0.2309273189850316</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="4"/>
+      <c r="T12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="28">
+        <f>ABS((W5-F20)/W5)</f>
+        <v>9.1024993524850759E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="B13" s="2">
         <v>4.8600000000000003</v>
       </c>
-      <c r="D13" s="8">
+      <c r="C13" s="5">
         <v>0.01</v>
       </c>
-      <c r="E13" s="8">
+      <c r="D13" s="5">
         <v>1.04273E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="E13" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
+      <c r="F13" s="5">
+        <f>B13/D13</f>
         <v>466.08422122697152</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="Q13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="14">
-        <f>ABS((T7-T11)/T7)</f>
-        <v>1.2256990035576501E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>4.8455639648174209</v>
+      </c>
+      <c r="H13" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>1.443603518257941E-2</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
       <c r="B14" s="2">
+        <v>5.41</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.1560000000000001E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F14" s="5">
+        <f>B14/D14</f>
+        <v>467.99307958477505</v>
+      </c>
+      <c r="G14" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>5.3714077232891722</v>
+      </c>
+      <c r="H14" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>3.8592276710827988E-2</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.2766E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F15" s="5">
+        <f>B15/D15</f>
+        <v>466.08177972740094</v>
+      </c>
+      <c r="G15" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>5.9312802161972069</v>
+      </c>
+      <c r="H15" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>1.8719783802793266E-2</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.43</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.3806000000000001E-2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5">
+        <f>B16/D16</f>
+        <v>465.73953353614365</v>
+      </c>
+      <c r="G16" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>6.4140889994678165</v>
+      </c>
+      <c r="H16" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>1.5911000532183195E-2</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6.93</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.4873000000000001E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F17" s="5">
+        <f>B17/D17</f>
+        <v>465.9450010085389</v>
+      </c>
+      <c r="G17" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>6.9094322415348763</v>
+      </c>
+      <c r="H17" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>2.0567758465123376E-2</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.5980999999999999E-2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F18" s="5">
+        <f>B18/D18</f>
+        <v>466.17858707214822</v>
+      </c>
+      <c r="G18" s="2">
+        <f>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</f>
+        <v>7.4238092914039484</v>
+      </c>
+      <c r="H18" s="2">
+        <f>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</f>
+        <v>2.619070859605177E-2</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="19">
+        <f>AVERAGE(B4:B18)</f>
+        <v>3.9533333333333336</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21">
+        <f>AVERAGE(D4:D18)</f>
+        <v>8.5053799999999999E-3</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="21">
+        <f>AVERAGE(F4:F18)</f>
+        <v>465.72182530433201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="19">
+        <f>STDEVA(B4:B18)</f>
+        <v>2.187825622023142</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21">
+        <f>STDEVA(D4:D18)</f>
+        <v>4.7106600023169333E-3</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21">
+        <f>STDEVA(F4:F18)</f>
+        <v>6.8978760942238413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="19">
+        <f>B21/SQRT(10)</f>
+        <v>0.69185120888677698</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21">
+        <f>D21/SQRT(10)</f>
+        <v>1.4896414889975563E-3</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21">
+        <f t="shared" ref="F22" si="0">F21/SQRT(10)</f>
+        <v>2.1812999475373567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D28" s="14">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="E28" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" ref="F28:F42" si="1">B28/D28</f>
+        <v>9750</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="E29" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="1"/>
+        <v>9384.6153846153848</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="E30" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="1"/>
+        <v>9957.8059071729949</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="14">
+        <v>3.48E-4</v>
+      </c>
+      <c r="E31" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D32" s="14">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="E32" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="1"/>
+        <v>10023.584905660377</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5.34</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D33" s="14">
+        <v>5.3700000000000004E-4</v>
+      </c>
+      <c r="E33" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="1"/>
+        <v>9944.1340782122898</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="C34" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D34" s="14">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="E34" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="1"/>
+        <v>10696.428571428572</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.81</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D35" s="14">
+        <v>6.78E-4</v>
+      </c>
+      <c r="E35" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="1"/>
+        <v>10044.247787610619</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7.38</v>
+      </c>
+      <c r="C36" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D36" s="14">
+        <v>7.3399999999999995E-4</v>
+      </c>
+      <c r="E36" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="1"/>
+        <v>10054.49591280654</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="U36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D37" s="14">
+        <v>7.9100000000000004E-4</v>
+      </c>
+      <c r="E37" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="1"/>
+        <v>10050.568900126422</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="U37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
-        <v>5.41</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1.1560000000000001E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>467.99307958477505</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="Q14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="15">
-        <f>ABS((T7-G20)/T7)</f>
-        <v>9.1024993524850759E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B38" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D38" s="14">
+        <v>8.1899999999999996E-4</v>
+      </c>
+      <c r="E38" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="1"/>
+        <v>10061.050061050062</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
-        <v>5.95</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1.2766E-2</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="B39" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D39" s="14">
+        <v>8.8500000000000004E-4</v>
+      </c>
+      <c r="E39" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>466.08177972740094</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="F39" s="14">
+        <f t="shared" si="1"/>
+        <v>10056.497175141243</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="X39" s="6"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
-        <v>6.43</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1.3806000000000001E-2</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>465.73953353614365</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B40" s="2">
+        <v>9.44</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D40" s="14">
+        <v>9.3800000000000003E-4</v>
+      </c>
+      <c r="E40" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="1"/>
+        <v>10063.965884861407</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="U40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
-        <v>6.93</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1.4873000000000001E-2</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
-        <v>465.9450010085389</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B41" s="2">
+        <v>9.77</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D41" s="14">
+        <v>9.7099999999999997E-4</v>
+      </c>
+      <c r="E41" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="1"/>
+        <v>10061.791967044284</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="X41" s="6"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
-        <v>7.45</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1.5980999999999999E-2</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="B42" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D42" s="14">
+        <v>9.9200000000000004E-4</v>
+      </c>
+      <c r="E42" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" si="0"/>
-        <v>466.17858707214822</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="F42" s="14">
+        <f t="shared" si="1"/>
+        <v>10060.483870967742</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="U42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="6">
+        <f>SQRT(((1/D44)*B46)^2+(-(B44/(D44^2))*D46)^2)</f>
+        <v>2275.6957077765142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="X43" s="6"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4">
-        <f>AVERAGE(C4:C18)</f>
-        <v>3.9533333333333336</v>
-      </c>
-      <c r="E20" s="8">
-        <f>AVERAGE(E4:E18)</f>
-        <v>8.5053799999999999E-3</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8">
-        <f>AVERAGE(G4:G18)</f>
-        <v>465.72182530433201</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4">
-        <f>STDEVA(C4:C18)</f>
-        <v>2.187825622023142</v>
-      </c>
-      <c r="E21" s="8">
-        <f>STDEVA(E4:E18)</f>
-        <v>4.7106600023169333E-3</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8">
-        <f>STDEVA(G4:G18)</f>
-        <v>6.8978760942238413</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4">
-        <f>C21/SQRT(10)</f>
-        <v>0.69185120888677698</v>
-      </c>
-      <c r="E22" s="8">
-        <f>E21/SQRT(10)</f>
-        <v>1.4896414889975563E-3</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8">
-        <f t="shared" ref="G22" si="1">G21/SQRT(10)</f>
-        <v>2.1812999475373567</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="Q27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="D28" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E28" s="18">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="F28" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G28" s="18">
-        <f>C28/E28</f>
-        <v>9750</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="Q28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="9">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1.22</v>
-      </c>
-      <c r="D29" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E29" s="18">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="F29" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G29" s="18">
-        <f>C29/E29</f>
-        <v>9384.6153846153848</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="T29" s="9"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2.36</v>
-      </c>
-      <c r="D30" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E30" s="18">
-        <v>2.3699999999999999E-4</v>
-      </c>
-      <c r="F30" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G30" s="18">
-        <f>C30/E30</f>
-        <v>9957.8059071729949</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="T30" s="9"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4">
-        <v>3.48</v>
-      </c>
-      <c r="D31" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E31" s="18">
-        <v>3.48E-4</v>
-      </c>
-      <c r="F31" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G31" s="18">
-        <f>C31/E31</f>
-        <v>10000</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="5"/>
-      <c r="Q31" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>5</v>
-      </c>
-      <c r="C32" s="4">
-        <v>4.25</v>
-      </c>
-      <c r="D32" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E32" s="18">
-        <v>4.2400000000000001E-4</v>
-      </c>
-      <c r="F32" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G32" s="18">
-        <f>C32/E32</f>
-        <v>10023.584905660377</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="T32" s="9"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5.34</v>
-      </c>
-      <c r="D33" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E33" s="18">
-        <v>5.3700000000000004E-4</v>
-      </c>
-      <c r="F33" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G33" s="18">
-        <f>C33/E33</f>
-        <v>9944.1340782122898</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="Q33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="9">
-        <f>SQRT(((1/E44)*C46)^2+(-(C44/(E44^2))*E46)^2)</f>
-        <v>2275.6957077765142</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.99</v>
-      </c>
-      <c r="D34" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E34" s="18">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="F34" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G34" s="18">
-        <f>C34/E34</f>
-        <v>10696.428571428572</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="T34" s="9"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4">
-        <v>6.81</v>
-      </c>
-      <c r="D35" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E35" s="18">
-        <v>6.78E-4</v>
-      </c>
-      <c r="F35" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G35" s="18">
-        <f>C35/E35</f>
-        <v>10044.247787610619</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="Q35" s="12" t="s">
+      <c r="B44" s="2">
+        <f>AVERAGE(B28:B42)</f>
+        <v>6.1260000000000003</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="5">
+        <f>AVERAGE(D28:D42)</f>
+        <v>6.0826666666666663E-4</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5">
+        <f>AVERAGE(F28:F42)</f>
+        <v>10013.978027113197</v>
+      </c>
+      <c r="U44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="9">
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="6">
         <f>SLOPE(Tabela513[Voltagem],Tabela513[Corrente Elétrica])</f>
         <v>10104.290262959435</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>9</v>
-      </c>
-      <c r="C36" s="4">
-        <v>7.38</v>
-      </c>
-      <c r="D36" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E36" s="18">
-        <v>7.3399999999999995E-4</v>
-      </c>
-      <c r="F36" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G36" s="18">
-        <f>C36/E36</f>
-        <v>10054.49591280654</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>10</v>
-      </c>
-      <c r="C37" s="4">
-        <v>7.95</v>
-      </c>
-      <c r="D37" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E37" s="18">
-        <v>7.9100000000000004E-4</v>
-      </c>
-      <c r="F37" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G37" s="18">
-        <f>C37/E37</f>
-        <v>10050.568900126422</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="Q37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="14">
-        <f>ABS((T31-T35)/T31)</f>
-        <v>1.042902629594355E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>11</v>
-      </c>
-      <c r="C38" s="4">
-        <v>8.24</v>
-      </c>
-      <c r="D38" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E38" s="18">
-        <v>8.1899999999999996E-4</v>
-      </c>
-      <c r="F38" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G38" s="18">
-        <f>C38/E38</f>
-        <v>10061.050061050062</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="Q38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="15">
-        <f>ABS((T31-G44)/T31)</f>
-        <v>1.3978027113196732E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4">
-        <v>8.9</v>
-      </c>
-      <c r="D39" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E39" s="18">
-        <v>8.8500000000000004E-4</v>
-      </c>
-      <c r="F39" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G39" s="18">
-        <f>C39/E39</f>
-        <v>10056.497175141243</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4">
-        <v>9.44</v>
-      </c>
-      <c r="D40" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E40" s="18">
-        <v>9.3800000000000003E-4</v>
-      </c>
-      <c r="F40" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G40" s="18">
-        <f>C40/E40</f>
-        <v>10063.965884861407</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>14</v>
-      </c>
-      <c r="C41" s="4">
-        <v>9.77</v>
-      </c>
-      <c r="D41" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E41" s="18">
-        <v>9.7099999999999997E-4</v>
-      </c>
-      <c r="F41" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G41" s="18">
-        <f>C41/E41</f>
-        <v>10061.791967044284</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>15</v>
-      </c>
-      <c r="C42" s="4">
-        <v>9.98</v>
-      </c>
-      <c r="D42" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E42" s="18">
-        <v>9.9200000000000004E-4</v>
-      </c>
-      <c r="F42" s="18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G42" s="18">
-        <f>C42/E42</f>
-        <v>10060.483870967742</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4">
-        <f>AVERAGE(C28:C42)</f>
-        <v>6.1260000000000003</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="8">
-        <f>AVERAGE(E28:E42)</f>
-        <v>6.0826666666666663E-4</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8">
-        <f>AVERAGE(G28:G42)</f>
-        <v>10013.978027113197</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="4">
-        <f>STDEVA(C28:C42)</f>
+      <c r="B45" s="2">
+        <f>STDEVA(B28:B42)</f>
         <v>3.1010869062314277</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="8">
-        <f>STDEVA(E28:E42)</f>
+      <c r="C45" s="2"/>
+      <c r="D45" s="5">
+        <f>STDEVA(D28:D42)</f>
         <v>3.0675128749681294E-4</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8">
-        <f>STDEVA(G28:G42)</f>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5">
+        <f>STDEVA(F28:F42)</f>
         <v>261.13897472485797</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="4">
-        <f>C45/SQRT(10)</f>
+      <c r="B46" s="2">
+        <f>B45/SQRT(10)</f>
         <v>0.98064978458163166</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="8">
-        <f t="shared" ref="E46:G46" si="2">E45/SQRT(10)</f>
+      <c r="C46" s="2"/>
+      <c r="D46" s="5">
+        <f t="shared" ref="D46:F46" si="2">D45/SQRT(10)</f>
         <v>9.7003274367905937E-5</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8">
+      <c r="E46" s="4"/>
+      <c r="F46" s="5">
         <f t="shared" si="2"/>
         <v>82.57939459716934</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+      <c r="U46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="10">
+        <f>ABS((X40-X44)/X40)</f>
+        <v>1.042902629594355E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="11">
+        <f>ABS((X40-F44)/X40)</f>
+        <v>1.3978027113196732E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="D51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="F51" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="Q51" s="12" t="s">
+      <c r="I51" s="1"/>
+      <c r="U51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="9">
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>1</v>
       </c>
-      <c r="C52" s="4">
+      <c r="B52" s="2">
         <v>1.68</v>
       </c>
-      <c r="D52" s="8">
+      <c r="C52" s="5">
         <v>0.01</v>
       </c>
-      <c r="E52" s="8">
+      <c r="D52" s="5">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="F52" s="8">
+      <c r="E52" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G52" s="8">
-        <f t="shared" ref="G52:G66" si="3">C52/E52</f>
+      <c r="F52" s="5">
+        <f t="shared" ref="F52:F66" si="3">B52/D52</f>
         <v>2400000</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="Q52" s="12" t="s">
+      <c r="I52" s="4"/>
+      <c r="U52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="9">
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="6">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
         <v>2</v>
       </c>
-      <c r="C53" s="4">
+      <c r="B53" s="2">
         <v>2.52</v>
       </c>
-      <c r="D53" s="8">
+      <c r="C53" s="5">
         <v>0.01</v>
       </c>
-      <c r="E53" s="8">
+      <c r="D53" s="5">
         <v>8.9999999999999996E-7</v>
       </c>
-      <c r="F53" s="8">
+      <c r="E53" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G53" s="8">
+      <c r="F53" s="5">
         <f t="shared" si="3"/>
         <v>2800000</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="T53" s="9"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
+      <c r="I53" s="4"/>
+      <c r="X53" s="6"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
         <v>3</v>
       </c>
-      <c r="C54" s="4">
+      <c r="B54" s="2">
         <v>2.91</v>
       </c>
-      <c r="D54" s="8">
+      <c r="C54" s="5">
         <v>0.01</v>
       </c>
-      <c r="E54" s="8">
+      <c r="D54" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F54" s="8">
+      <c r="E54" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G54" s="8">
+      <c r="F54" s="5">
         <f t="shared" si="3"/>
         <v>2910000.0000000005</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="T54" s="9"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
+      <c r="I54" s="4"/>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
         <v>4</v>
       </c>
-      <c r="C55" s="4">
+      <c r="B55" s="2">
         <v>3.6</v>
       </c>
-      <c r="D55" s="8">
+      <c r="C55" s="5">
         <v>0.01</v>
       </c>
-      <c r="E55" s="8">
+      <c r="D55" s="5">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="F55" s="8">
+      <c r="E55" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G55" s="8">
+      <c r="F55" s="5">
         <f t="shared" si="3"/>
         <v>3272727.2727272725</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="5"/>
-      <c r="Q55" s="12" t="s">
+      <c r="I55" s="4"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="3"/>
+      <c r="U55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="9">
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="6">
         <v>6800000</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="1">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
         <v>5</v>
       </c>
-      <c r="C56" s="4">
+      <c r="B56" s="2">
         <v>4.45</v>
       </c>
-      <c r="D56" s="8">
+      <c r="C56" s="5">
         <v>0.01</v>
       </c>
-      <c r="E56" s="8">
+      <c r="D56" s="5">
         <v>1.3E-6</v>
       </c>
-      <c r="F56" s="8">
+      <c r="E56" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G56" s="8">
+      <c r="F56" s="5">
         <f t="shared" si="3"/>
         <v>3423076.923076923</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="T56" s="9"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
+      <c r="I56" s="4"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="X56" s="6"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
         <v>6</v>
       </c>
-      <c r="C57" s="4">
+      <c r="B57" s="2">
         <v>4.95</v>
       </c>
-      <c r="D57" s="8">
+      <c r="C57" s="5">
         <v>0.01</v>
       </c>
-      <c r="E57" s="8">
+      <c r="D57" s="5">
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="F57" s="8">
+      <c r="E57" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G57" s="8">
+      <c r="F57" s="5">
         <f t="shared" si="3"/>
         <v>3535714.2857142859</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="Q57" s="12" t="s">
+      <c r="I57" s="4"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="U57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="9">
-        <f>SQRT(((1/E68)*C70)^2+(-(C68/(E68^2))*E70)^2)</f>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="6">
+        <f>SQRT(((1/D68)*B70)^2+(-(B68/(D68^2))*D70)^2)</f>
         <v>641862.27200783929</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="1">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
         <v>7</v>
       </c>
-      <c r="C58" s="4">
+      <c r="B58" s="2">
         <v>5.47</v>
       </c>
-      <c r="D58" s="8">
+      <c r="C58" s="5">
         <v>0.01</v>
       </c>
-      <c r="E58" s="8">
+      <c r="D58" s="5">
         <v>1.5999999999999999E-6</v>
       </c>
-      <c r="F58" s="8">
+      <c r="E58" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G58" s="8">
+      <c r="F58" s="5">
         <f t="shared" si="3"/>
         <v>3418750</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="T58" s="9"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
+      <c r="I58" s="4"/>
+      <c r="X58" s="6"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
         <v>8</v>
       </c>
-      <c r="C59" s="4">
+      <c r="B59" s="2">
         <v>5.98</v>
       </c>
-      <c r="D59" s="8">
+      <c r="C59" s="5">
         <v>0.01</v>
       </c>
-      <c r="E59" s="8">
+      <c r="D59" s="5">
         <v>1.7E-6</v>
       </c>
-      <c r="F59" s="8">
+      <c r="E59" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G59" s="8">
+      <c r="F59" s="5">
         <f t="shared" si="3"/>
         <v>3517647.0588235296</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="Q59" s="12" t="s">
+      <c r="I59" s="4"/>
+      <c r="U59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="9">
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="6">
         <f>SLOPE(Tabela515[V (V)],Tabela515[I (A)])</f>
         <v>4175199.6242367299</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
         <v>9</v>
       </c>
-      <c r="C60" s="4">
+      <c r="B60" s="2">
         <v>6.46</v>
       </c>
-      <c r="D60" s="8">
+      <c r="C60" s="5">
         <v>0.01</v>
       </c>
-      <c r="E60" s="8">
+      <c r="D60" s="5">
         <v>1.7999999999999999E-6</v>
       </c>
-      <c r="F60" s="8">
+      <c r="E60" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G60" s="8">
+      <c r="F60" s="5">
         <f t="shared" si="3"/>
         <v>3588888.888888889</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
+      <c r="I60" s="4"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
         <v>10</v>
       </c>
-      <c r="C61" s="4">
+      <c r="B61" s="2">
         <v>7.16</v>
       </c>
-      <c r="D61" s="8">
+      <c r="C61" s="5">
         <v>0.01</v>
       </c>
-      <c r="E61" s="8">
+      <c r="D61" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="F61" s="8">
+      <c r="E61" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G61" s="8">
+      <c r="F61" s="5">
         <f t="shared" si="3"/>
         <v>3580000.0000000005</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="Q61" s="12" t="s">
+      <c r="I61" s="4"/>
+      <c r="U61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="14">
-        <f>((T55-T59)/T55)</f>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="10">
+        <f>((X55-X59)/X55)</f>
         <v>0.38600005525930442</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>11</v>
+      </c>
       <c r="B62" s="2">
-        <v>11</v>
-      </c>
-      <c r="C62" s="4">
         <v>7.99</v>
       </c>
-      <c r="D62" s="8">
+      <c r="C62" s="5">
         <v>0.01</v>
       </c>
-      <c r="E62" s="8">
+      <c r="D62" s="5">
         <v>2.2000000000000001E-6</v>
       </c>
-      <c r="F62" s="8">
+      <c r="E62" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G62" s="8">
+      <c r="F62" s="5">
         <f t="shared" si="3"/>
         <v>3631818.1818181816</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="Q62" s="13" t="s">
+      <c r="I62" s="4"/>
+      <c r="U62" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="15">
-        <f>(T55-G68)/T55</f>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="11">
+        <f>(X55-F68)/X55</f>
         <v>0.50075181452214323</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>12</v>
+      </c>
       <c r="B63" s="2">
-        <v>12</v>
-      </c>
-      <c r="C63" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D63" s="8">
+      <c r="C63" s="5">
         <v>0.01</v>
       </c>
-      <c r="E63" s="8">
+      <c r="D63" s="5">
         <v>2.3999999999999999E-6</v>
       </c>
-      <c r="F63" s="8">
+      <c r="E63" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G63" s="8">
+      <c r="F63" s="5">
         <f t="shared" si="3"/>
         <v>3625000</v>
       </c>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>13</v>
+      </c>
       <c r="B64" s="2">
-        <v>13</v>
-      </c>
-      <c r="C64" s="4">
         <v>9.15</v>
       </c>
-      <c r="D64" s="8">
+      <c r="C64" s="5">
         <v>0.01</v>
       </c>
-      <c r="E64" s="8">
+      <c r="D64" s="5">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="F64" s="8">
+      <c r="E64" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G64" s="8">
+      <c r="F64" s="5">
         <f t="shared" si="3"/>
         <v>3660000</v>
       </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>14</v>
+      </c>
       <c r="B65" s="2">
-        <v>14</v>
-      </c>
-      <c r="C65" s="4">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D65" s="8">
+      <c r="C65" s="5">
         <v>0.01</v>
       </c>
-      <c r="E65" s="8">
+      <c r="D65" s="5">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="F65" s="8">
+      <c r="E65" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G65" s="8">
+      <c r="F65" s="5">
         <f t="shared" si="3"/>
         <v>3752000</v>
       </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>15</v>
+      </c>
       <c r="B66" s="2">
-        <v>15</v>
-      </c>
-      <c r="C66" s="4">
         <v>9.9</v>
       </c>
-      <c r="D66" s="8">
+      <c r="C66" s="5">
         <v>0.01</v>
       </c>
-      <c r="E66" s="8">
+      <c r="D66" s="5">
         <v>2.6000000000000001E-6</v>
       </c>
-      <c r="F66" s="8">
+      <c r="E66" s="5">
         <v>1E-4</v>
       </c>
-      <c r="G66" s="8">
+      <c r="F66" s="5">
         <f t="shared" si="3"/>
         <v>3807692.3076923075</v>
       </c>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="4">
-        <f>AVERAGE(C52:C66)</f>
+      <c r="B68" s="2">
+        <f>AVERAGE(B52:B66)</f>
         <v>6.02</v>
       </c>
-      <c r="E68" s="8">
-        <f>AVERAGE(E52:E66)</f>
+      <c r="D68" s="5">
+        <f>AVERAGE(D52:D66)</f>
         <v>1.7133333333333332E-6</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="8">
-        <f>AVERAGE(G52:G66)</f>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5">
+        <f>AVERAGE(F52:F66)</f>
         <v>3394887.6612494262</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="4">
-        <f>STDEVA(C52:C66)</f>
+      <c r="B69" s="2">
+        <f>STDEVA(B52:B66)</f>
         <v>2.66224126844818</v>
       </c>
-      <c r="E69" s="8">
-        <f>STDEVA(E52:E66)</f>
+      <c r="D69" s="5">
+        <f>STDEVA(D52:D66)</f>
         <v>6.3680751371494486E-7</v>
       </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="8">
-        <f>STDEVA(G52:G66)</f>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5">
+        <f>STDEVA(F52:F66)</f>
         <v>394535.0166596687</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="4">
-        <f>C69/SQRT(10)</f>
+      <c r="B70" s="2">
+        <f>B69/SQRT(10)</f>
         <v>0.84187460891920085</v>
       </c>
-      <c r="E70" s="8">
-        <f>E69/SQRT(10)</f>
+      <c r="D70" s="5">
+        <f>D69/SQRT(10)</f>
         <v>2.0137621744481388E-7</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="8">
-        <f t="shared" ref="G70" si="4">G69/SQRT(10)</f>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5">
+        <f t="shared" ref="F70" si="4">F69/SQRT(10)</f>
         <v>124762.92693370297</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="12" t="s">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="12" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="E79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="F79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="Q79" s="12" t="s">
+      <c r="I79" s="1"/>
+      <c r="U79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="9">
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="1">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
         <v>1</v>
       </c>
-      <c r="C80" s="4">
+      <c r="B80" s="2">
         <v>0.81</v>
       </c>
-      <c r="D80" s="8">
+      <c r="C80" s="5">
         <v>0.01</v>
       </c>
-      <c r="E80" s="8">
+      <c r="D80" s="5">
         <v>1.714E-3</v>
       </c>
-      <c r="F80" s="8">
+      <c r="E80" s="5">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="G80" s="8">
-        <f t="shared" ref="G80:G94" si="5">C80/E80</f>
+      <c r="F80" s="5">
+        <f t="shared" ref="F80:F94" si="5">B80/D80</f>
         <v>472.57876312718787</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="Q80" s="12" t="s">
+      <c r="I80" s="4"/>
+      <c r="U80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="9">
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B81" s="1">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
         <v>2</v>
       </c>
-      <c r="C81" s="4">
+      <c r="B81" s="2">
         <v>1.44</v>
       </c>
-      <c r="D81" s="8">
+      <c r="C81" s="5">
         <v>0.01</v>
       </c>
-      <c r="E81" s="8">
+      <c r="D81" s="5">
         <v>3.0699999999999998E-3</v>
       </c>
-      <c r="F81" s="8">
+      <c r="E81" s="5">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G81" s="8">
+      <c r="F81" s="5">
         <f t="shared" si="5"/>
         <v>469.05537459283391</v>
       </c>
-      <c r="H81" s="6"/>
-      <c r="T81" s="9"/>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B82" s="1">
+      <c r="I81" s="4"/>
+      <c r="X81" s="6"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
         <v>3</v>
       </c>
-      <c r="C82" s="4">
+      <c r="B82" s="2">
         <v>2.15</v>
       </c>
-      <c r="D82" s="8">
+      <c r="C82" s="5">
         <v>0.01</v>
       </c>
-      <c r="E82" s="8">
+      <c r="D82" s="5">
         <v>4.7404999999999999E-3</v>
       </c>
-      <c r="F82" s="8">
+      <c r="E82" s="5">
         <v>1.55E-4</v>
       </c>
-      <c r="G82" s="8">
+      <c r="F82" s="5">
         <f t="shared" si="5"/>
         <v>453.53865625988817</v>
       </c>
-      <c r="H82" s="6"/>
-      <c r="T82" s="9"/>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B83" s="1">
+      <c r="I82" s="4"/>
+      <c r="X82" s="6"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
         <v>4</v>
       </c>
-      <c r="C83" s="4">
+      <c r="B83" s="2">
         <v>3.06</v>
       </c>
-      <c r="D83" s="8">
+      <c r="C83" s="5">
         <v>0.01</v>
       </c>
-      <c r="E83" s="8">
+      <c r="D83" s="5">
         <v>6.5395000000000002E-3</v>
       </c>
-      <c r="F83" s="8">
+      <c r="E83" s="5">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="G83" s="8">
+      <c r="F83" s="5">
         <f t="shared" si="5"/>
         <v>467.92568239162017</v>
       </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="5"/>
-      <c r="Q83" s="12" t="s">
+      <c r="I83" s="4"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="3"/>
+      <c r="U83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
-      <c r="T83" s="9">
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="6">
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B84" s="1">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
         <v>5</v>
       </c>
-      <c r="C84" s="4">
+      <c r="B84" s="2">
         <v>3.68</v>
       </c>
-      <c r="D84" s="8">
+      <c r="C84" s="5">
         <v>0.01</v>
       </c>
-      <c r="E84" s="8">
+      <c r="D84" s="5">
         <v>7.8584999999999992E-3</v>
       </c>
-      <c r="F84" s="8">
+      <c r="E84" s="5">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="G84" s="8">
+      <c r="F84" s="5">
         <f t="shared" si="5"/>
         <v>468.28275116116316</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="T84" s="9"/>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="1">
+      <c r="I84" s="4"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="X84" s="6"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
         <v>6</v>
       </c>
-      <c r="C85" s="4">
+      <c r="B85" s="2">
         <v>4.53</v>
       </c>
-      <c r="D85" s="8">
+      <c r="C85" s="5">
         <v>0.01</v>
       </c>
-      <c r="E85" s="8">
+      <c r="D85" s="5">
         <v>9.6395000000000005E-3</v>
       </c>
-      <c r="F85" s="8">
+      <c r="E85" s="5">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="G85" s="8">
+      <c r="F85" s="5">
         <f t="shared" si="5"/>
         <v>469.94138700140047</v>
       </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="Q85" s="12" t="s">
+      <c r="I85" s="4"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="U85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="9">
-        <f>SQRT(((1/E96)*C98)^2+(-(C96/(E96^2))*E98)^2)</f>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="6">
+        <f>SQRT(((1/D96)*B98)^2+(-(B96/(D96^2))*D98)^2)</f>
         <v>110.53496611955116</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B86" s="1">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
         <v>7</v>
       </c>
-      <c r="C86" s="4">
+      <c r="B86" s="2">
         <v>5.12</v>
       </c>
-      <c r="D86" s="8">
+      <c r="C86" s="5">
         <v>0.01</v>
       </c>
-      <c r="E86" s="8">
+      <c r="D86" s="5">
         <v>1.0932000000000001E-2</v>
       </c>
-      <c r="F86" s="8">
+      <c r="E86" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="G86" s="8">
+      <c r="F86" s="5">
         <f t="shared" si="5"/>
         <v>468.34979875594581</v>
       </c>
-      <c r="H86" s="6"/>
-      <c r="T86" s="9"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B87" s="1">
+      <c r="I86" s="4"/>
+      <c r="X86" s="6"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
         <v>8</v>
       </c>
-      <c r="C87" s="4">
+      <c r="B87" s="2">
         <v>5.93</v>
       </c>
-      <c r="D87" s="8">
+      <c r="C87" s="5">
         <v>0.01</v>
       </c>
-      <c r="E87" s="8">
+      <c r="D87" s="5">
         <v>1.2722499999999999E-2</v>
       </c>
-      <c r="F87" s="8">
+      <c r="E87" s="5">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="G87" s="8">
+      <c r="F87" s="5">
         <f t="shared" si="5"/>
         <v>466.10336018864217</v>
       </c>
-      <c r="H87" s="6"/>
-      <c r="Q87" s="12" t="s">
+      <c r="I87" s="4"/>
+      <c r="U87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="9">
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="6">
         <f>SLOPE(Tabela516[V (V)],Tabela516[I (A)])</f>
         <v>465.55989729092471</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B88" s="1">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
         <v>9</v>
       </c>
-      <c r="C88" s="4">
+      <c r="B88" s="2">
         <v>6.83</v>
       </c>
-      <c r="D88" s="8">
+      <c r="C88" s="5">
         <v>0.01</v>
       </c>
-      <c r="E88" s="8">
+      <c r="D88" s="5">
         <v>1.465E-2</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="E88" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="8">
+      <c r="F88" s="5">
         <f t="shared" si="5"/>
         <v>466.21160409556313</v>
       </c>
-      <c r="H88" s="6"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B89" s="1">
+      <c r="I88" s="4"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
         <v>10</v>
       </c>
-      <c r="C89" s="4">
+      <c r="B89" s="2">
         <v>7.14</v>
       </c>
-      <c r="D89" s="8">
+      <c r="C89" s="5">
         <v>0.01</v>
       </c>
-      <c r="E89" s="8">
+      <c r="D89" s="5">
         <v>1.5311999999999999E-2</v>
       </c>
-      <c r="F89" s="8">
+      <c r="E89" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G89" s="8">
+      <c r="F89" s="5">
         <f t="shared" si="5"/>
         <v>466.30094043887146</v>
       </c>
-      <c r="H89" s="6"/>
-      <c r="Q89" s="12" t="s">
+      <c r="I89" s="4"/>
+      <c r="U89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="14">
-        <f>((T83-T87)/T83)</f>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="10">
+        <f>((X83-X87)/X83)</f>
         <v>9.4470270405857242E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>11</v>
+      </c>
       <c r="B90" s="2">
-        <v>11</v>
-      </c>
-      <c r="C90" s="4">
         <v>7.96</v>
       </c>
-      <c r="D90" s="8">
+      <c r="C90" s="5">
         <v>0.01</v>
       </c>
-      <c r="E90" s="8">
+      <c r="D90" s="5">
         <v>1.7070999999999999E-2</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="E90" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="8">
+      <c r="F90" s="5">
         <f t="shared" si="5"/>
         <v>466.28785659891042</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="Q90" s="13" t="s">
+      <c r="I90" s="4"/>
+      <c r="U90" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="15">
-        <f>ABS((T83-G96)/T83)</f>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="11">
+        <f>ABS((X83-F96)/X83)</f>
         <v>7.4915092966851629E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <v>12</v>
+      </c>
       <c r="B91" s="2">
-        <v>12</v>
-      </c>
-      <c r="C91" s="4">
         <v>8.6300000000000008</v>
       </c>
-      <c r="D91" s="8">
+      <c r="C91" s="5">
         <v>0.01</v>
       </c>
-      <c r="E91" s="8">
+      <c r="D91" s="5">
         <v>1.8512500000000001E-2</v>
       </c>
-      <c r="F91" s="8">
+      <c r="E91" s="5">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G91" s="8">
+      <c r="F91" s="5">
         <f t="shared" si="5"/>
         <v>466.17150573936533</v>
       </c>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>13</v>
+      </c>
       <c r="B92" s="2">
-        <v>13</v>
-      </c>
-      <c r="C92" s="4">
         <v>9.06</v>
       </c>
-      <c r="D92" s="8">
+      <c r="C92" s="5">
         <v>0.01</v>
       </c>
-      <c r="E92" s="8">
+      <c r="D92" s="5">
         <v>1.9453999999999999E-2</v>
       </c>
-      <c r="F92" s="8">
+      <c r="E92" s="5">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="G92" s="8">
+      <c r="F92" s="5">
         <f t="shared" si="5"/>
         <v>465.71399198108361</v>
       </c>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>14</v>
+      </c>
       <c r="B93" s="2">
-        <v>14</v>
-      </c>
-      <c r="C93" s="4">
         <v>9.49</v>
       </c>
-      <c r="D93" s="8">
+      <c r="C93" s="5">
         <v>0.01</v>
       </c>
-      <c r="E93" s="8">
+      <c r="D93" s="5">
         <v>2.0382000000000001E-2</v>
       </c>
-      <c r="F93" s="8">
+      <c r="E93" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G93" s="8">
+      <c r="F93" s="5">
         <f t="shared" si="5"/>
         <v>465.60690805612796</v>
       </c>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>15</v>
+      </c>
       <c r="B94" s="2">
-        <v>15</v>
-      </c>
-      <c r="C94" s="4">
         <v>10</v>
       </c>
-      <c r="D94" s="8">
+      <c r="C94" s="5">
         <v>0.01</v>
       </c>
-      <c r="E94" s="8">
+      <c r="D94" s="5">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="F94" s="8">
+      <c r="E94" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G94" s="8">
+      <c r="F94" s="5">
         <f t="shared" si="5"/>
         <v>465.11627906976747</v>
       </c>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="4">
-        <f>AVERAGE(C80:C94)</f>
+      <c r="B96" s="2">
+        <f>AVERAGE(B80:B94)</f>
         <v>5.7219999999999995</v>
       </c>
-      <c r="E96" s="8">
-        <f>AVERAGE(E80:E94)</f>
+      <c r="D96" s="5">
+        <f>AVERAGE(D80:D94)</f>
         <v>1.2273200000000001E-2</v>
       </c>
-      <c r="F96" s="6"/>
-      <c r="G96" s="4">
-        <f>AVERAGE(G80:G94)</f>
+      <c r="E96" s="4"/>
+      <c r="F96" s="2">
+        <f>AVERAGE(F80:F94)</f>
         <v>466.47899063055797</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="4">
-        <f>STDEVA(C80:C94)</f>
+      <c r="B97" s="2">
+        <f>STDEVA(B80:B94)</f>
         <v>3.031381580354787</v>
       </c>
-      <c r="E97" s="8">
-        <f>STDEVA(E80:E94)</f>
+      <c r="D97" s="5">
+        <f>STDEVA(D80:D94)</f>
         <v>6.5110933737298335E-3</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="4">
-        <f>STDEVA(G80:G94)</f>
+      <c r="E97" s="4"/>
+      <c r="F97" s="2">
+        <f>STDEVA(F80:F94)</f>
         <v>4.1032210501884805</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="4">
-        <f>C97/SQRT(10)</f>
+      <c r="B98" s="2">
+        <f>B97/SQRT(10)</f>
         <v>0.95860702510018592</v>
       </c>
-      <c r="E98" s="8">
-        <f>E97/SQRT(10)</f>
+      <c r="D98" s="5">
+        <f>D97/SQRT(10)</f>
         <v>2.0589885119016217E-3</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="4">
-        <f t="shared" ref="G98" si="6">G97/SQRT(10)</f>
+      <c r="E98" s="4"/>
+      <c r="F98" s="2">
+        <f t="shared" ref="F98" si="6">F97/SQRT(10)</f>
         <v>1.2975524261743667</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H101" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A102" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B103" s="3" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="C103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="D103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="E103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="F103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="Q103" s="12" t="s">
+      <c r="I103" s="1"/>
+      <c r="U103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R103" s="12"/>
-      <c r="S103" s="12"/>
-      <c r="T103" s="20">
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B104" s="1">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
         <v>1</v>
       </c>
-      <c r="C104" s="11">
+      <c r="B104" s="8">
         <v>0.77</v>
       </c>
-      <c r="D104" s="10">
+      <c r="C104" s="7">
         <v>0.01</v>
       </c>
-      <c r="E104" s="10">
+      <c r="D104" s="7">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="F104" s="10">
+      <c r="E104" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G104" s="10">
-        <f t="shared" ref="G104:G118" si="7">C104/E104</f>
+      <c r="F104" s="7">
+        <f t="shared" ref="F104:F118" si="7">B104/D104</f>
         <v>9871.794871794873</v>
       </c>
-      <c r="H104" s="6"/>
-      <c r="Q104" s="12" t="s">
+      <c r="I104" s="4"/>
+      <c r="U104" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="9">
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B105" s="1">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A105" s="9">
         <v>2</v>
       </c>
-      <c r="C105" s="11">
+      <c r="B105" s="8">
         <v>1.48</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="C105" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E105" s="10">
+      <c r="D105" s="7">
         <v>1.46E-4</v>
       </c>
-      <c r="F105" s="10">
+      <c r="E105" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G105" s="10">
+      <c r="F105" s="7">
         <f t="shared" si="7"/>
         <v>10136.986301369863</v>
       </c>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B106" s="1">
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A106" s="9">
         <v>3</v>
       </c>
-      <c r="C106" s="11">
+      <c r="B106" s="8">
         <v>1.81</v>
       </c>
-      <c r="D106" s="10">
+      <c r="C106" s="7">
         <v>0.01</v>
       </c>
-      <c r="E106" s="10">
+      <c r="D106" s="7">
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="F106" s="10">
+      <c r="E106" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G106" s="10">
+      <c r="F106" s="7">
         <f t="shared" si="7"/>
         <v>10055.555555555557</v>
       </c>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B107" s="1">
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A107" s="9">
         <v>4</v>
       </c>
-      <c r="C107" s="11">
+      <c r="B107" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D107" s="10">
+      <c r="C107" s="7">
         <v>0.01</v>
       </c>
-      <c r="E107" s="10">
+      <c r="D107" s="7">
         <v>2.2700000000000002E-4</v>
       </c>
-      <c r="F107" s="10">
+      <c r="E107" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G107" s="10">
+      <c r="F107" s="7">
         <f t="shared" si="7"/>
         <v>10044.052863436122</v>
       </c>
-      <c r="H107" s="6"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="5"/>
-      <c r="Q107" s="12" t="s">
+      <c r="I107" s="4"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="3"/>
+      <c r="U107" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="9">
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B108" s="1">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A108" s="9">
         <v>5</v>
       </c>
-      <c r="C108" s="11">
+      <c r="B108" s="8">
         <v>2.74</v>
       </c>
-      <c r="D108" s="10">
+      <c r="C108" s="7">
         <v>0.01</v>
       </c>
-      <c r="E108" s="10">
+      <c r="D108" s="7">
         <v>2.7300000000000002E-4</v>
       </c>
-      <c r="F108" s="10">
+      <c r="E108" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G108" s="10">
+      <c r="F108" s="7">
         <f t="shared" si="7"/>
         <v>10036.630036630037</v>
       </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="T108" s="9"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B109" s="1">
+      <c r="I108" s="4"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="X108" s="6"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A109" s="9">
         <v>6</v>
       </c>
-      <c r="C109" s="11">
+      <c r="B109" s="8">
         <v>3.18</v>
       </c>
-      <c r="D109" s="10">
+      <c r="C109" s="7">
         <v>0.01</v>
       </c>
-      <c r="E109" s="10">
+      <c r="D109" s="7">
         <v>3.1700000000000001E-4</v>
       </c>
-      <c r="F109" s="10">
+      <c r="E109" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G109" s="10">
+      <c r="F109" s="7">
         <f t="shared" si="7"/>
         <v>10031.545741324921</v>
       </c>
-      <c r="H109" s="6"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="Q109" s="12" t="s">
+      <c r="I109" s="4"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="U109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="9">
-        <f>SQRT(((1/E120)*C122)^2+(-(C120/(E120^2))*E122)^2)</f>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="6">
+        <f>SQRT(((1/D120)*B122)^2+(-(B120/(D120^2))*D122)^2)</f>
         <v>2612.0114556618387</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B110" s="1">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A110" s="9">
         <v>7</v>
       </c>
-      <c r="C110" s="11">
+      <c r="B110" s="8">
         <v>3.68</v>
       </c>
-      <c r="D110" s="10">
+      <c r="C110" s="7">
         <v>0.01</v>
       </c>
-      <c r="E110" s="10">
+      <c r="D110" s="7">
         <v>3.6600000000000001E-4</v>
       </c>
-      <c r="F110" s="10">
+      <c r="E110" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G110" s="10">
+      <c r="F110" s="7">
         <f t="shared" si="7"/>
         <v>10054.644808743169</v>
       </c>
-      <c r="H110" s="6"/>
-      <c r="T110" s="9"/>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B111" s="1">
+      <c r="I110" s="4"/>
+      <c r="X110" s="6"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A111" s="9">
         <v>8</v>
       </c>
-      <c r="C111" s="11">
+      <c r="B111" s="8">
         <v>4.33</v>
       </c>
-      <c r="D111" s="10">
+      <c r="C111" s="7">
         <v>0.01</v>
       </c>
-      <c r="E111" s="10">
+      <c r="D111" s="7">
         <v>4.2900000000000002E-4</v>
       </c>
-      <c r="F111" s="10">
+      <c r="E111" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G111" s="10">
+      <c r="F111" s="7">
         <f t="shared" si="7"/>
         <v>10093.240093240092</v>
       </c>
-      <c r="H111" s="6"/>
-      <c r="Q111" s="12" t="s">
+      <c r="I111" s="4"/>
+      <c r="U111" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="9">
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="6">
         <f>SLOPE(Tabela517[V (V)],Tabela517[I (A)])</f>
         <v>10057.504745271553</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B112" s="1">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A112" s="9">
         <v>9</v>
       </c>
-      <c r="C112" s="11">
+      <c r="B112" s="8">
         <v>4.8</v>
       </c>
-      <c r="D112" s="10">
+      <c r="C112" s="7">
         <v>0.01</v>
       </c>
-      <c r="E112" s="10">
+      <c r="D112" s="7">
         <v>4.7599999999999997E-4</v>
       </c>
-      <c r="F112" s="10">
+      <c r="E112" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G112" s="10">
+      <c r="F112" s="7">
         <f t="shared" si="7"/>
         <v>10084.033613445379</v>
       </c>
-      <c r="H112" s="6"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B113" s="1">
+      <c r="I112" s="4"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A113" s="9">
         <v>10</v>
       </c>
-      <c r="C113" s="11">
+      <c r="B113" s="8">
         <v>5.56</v>
       </c>
-      <c r="D113" s="10">
+      <c r="C113" s="7">
         <v>0.01</v>
       </c>
-      <c r="E113" s="10">
+      <c r="D113" s="7">
         <v>5.5200000000000008E-4</v>
       </c>
-      <c r="F113" s="10">
+      <c r="E113" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G113" s="10">
+      <c r="F113" s="7">
         <f t="shared" si="7"/>
         <v>10072.46376811594</v>
       </c>
-      <c r="H113" s="6"/>
-      <c r="Q113" s="12" t="s">
+      <c r="I113" s="4"/>
+      <c r="U113" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
-      <c r="T113" s="14">
-        <f>ABS((T107-T111)/T107)</f>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="10">
+        <f>ABS((X107-X111)/X107)</f>
         <v>5.7504745271553474E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B114" s="2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A114" s="9">
         <v>11</v>
       </c>
-      <c r="C114" s="11">
+      <c r="B114" s="8">
         <v>5.96</v>
       </c>
-      <c r="D114" s="10">
+      <c r="C114" s="7">
         <v>0.01</v>
       </c>
-      <c r="E114" s="10">
+      <c r="D114" s="7">
         <v>5.9099999999999995E-4</v>
       </c>
-      <c r="F114" s="10">
+      <c r="E114" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G114" s="10">
+      <c r="F114" s="7">
         <f t="shared" si="7"/>
         <v>10084.60236886633</v>
       </c>
-      <c r="H114" s="6"/>
-      <c r="Q114" s="13" t="s">
+      <c r="I114" s="4"/>
+      <c r="U114" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R114" s="13"/>
-      <c r="S114" s="13"/>
-      <c r="T114" s="15">
-        <f>ABS((T107-G120)/T107)</f>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="11">
+        <f>ABS((X107-F120)/X107)</f>
         <v>5.2067968264465888E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B115" s="2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A115" s="9">
         <v>12</v>
       </c>
-      <c r="C115" s="11">
+      <c r="B115" s="8">
         <v>6.8</v>
       </c>
-      <c r="D115" s="10">
+      <c r="C115" s="7">
         <v>0.01</v>
       </c>
-      <c r="E115" s="10">
+      <c r="D115" s="7">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="F115" s="10">
+      <c r="E115" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G115" s="10">
+      <c r="F115" s="7">
         <f t="shared" si="7"/>
         <v>10074.074074074073</v>
       </c>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B116" s="2">
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A116" s="9">
         <v>13</v>
       </c>
-      <c r="C116" s="11">
+      <c r="B116" s="8">
         <v>7.64</v>
       </c>
-      <c r="D116" s="10">
+      <c r="C116" s="7">
         <v>0.01</v>
       </c>
-      <c r="E116" s="10">
+      <c r="D116" s="7">
         <v>7.5799999999999999E-4</v>
       </c>
-      <c r="F116" s="10">
+      <c r="E116" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G116" s="10">
+      <c r="F116" s="7">
         <f t="shared" si="7"/>
         <v>10079.155672823219</v>
       </c>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B117" s="2">
+      <c r="I116" s="4"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A117" s="9">
         <v>14</v>
       </c>
-      <c r="C117" s="11">
+      <c r="B117" s="8">
         <v>8.44</v>
       </c>
-      <c r="D117" s="10">
+      <c r="C117" s="7">
         <v>0.01</v>
       </c>
-      <c r="E117" s="10">
+      <c r="D117" s="7">
         <v>8.4499999999999994E-4</v>
       </c>
-      <c r="F117" s="10">
+      <c r="E117" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G117" s="10">
+      <c r="F117" s="7">
         <f t="shared" si="7"/>
         <v>9988.165680473372</v>
       </c>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B118" s="2">
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A118" s="9">
         <v>15</v>
       </c>
-      <c r="C118" s="11">
+      <c r="B118" s="8">
         <v>9.52</v>
       </c>
-      <c r="D118" s="10">
+      <c r="C118" s="7">
         <v>0.01</v>
       </c>
-      <c r="E118" s="10">
+      <c r="D118" s="7">
         <v>9.4499999999999998E-4</v>
       </c>
-      <c r="F118" s="10">
+      <c r="E118" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G118" s="10">
+      <c r="F118" s="7">
         <f t="shared" si="7"/>
         <v>10074.074074074073</v>
       </c>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="4">
-        <f>AVERAGE(C104:C118)</f>
+      <c r="B120" s="2">
+        <f>AVERAGE(B104:B118)</f>
         <v>4.5993333333333331</v>
       </c>
-      <c r="E120" s="8">
-        <f>AVERAGE(E104:E118)</f>
+      <c r="D120" s="5">
+        <f>AVERAGE(D104:D118)</f>
         <v>4.5719999999999995E-4</v>
       </c>
-      <c r="F120" s="6"/>
-      <c r="G120" s="8">
-        <f>AVERAGE(G104:G118)</f>
+      <c r="E120" s="4"/>
+      <c r="F120" s="5">
+        <f>AVERAGE(F104:F118)</f>
         <v>10052.067968264466</v>
       </c>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="4">
-        <f>STDEVA(C104:C118)</f>
+      <c r="B121" s="2">
+        <f>STDEVA(B104:B118)</f>
         <v>2.6700708034129166</v>
       </c>
-      <c r="E121" s="8">
-        <f>STDEVA(E104:E118)</f>
+      <c r="D121" s="5">
+        <f>STDEVA(D104:D118)</f>
         <v>2.6547348535884221E-4</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="8">
-        <f>STDEVA(G104:G118)</f>
+      <c r="E121" s="4"/>
+      <c r="F121" s="5">
+        <f>STDEVA(F104:F118)</f>
         <v>60.017411251811424</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="4">
-        <f>C121/SQRT(10)</f>
+      <c r="B122" s="2">
+        <f>B121/SQRT(10)</f>
         <v>0.84435052527005017</v>
       </c>
-      <c r="E122" s="8">
-        <f>E121/SQRT(10)</f>
+      <c r="D122" s="5">
+        <f>D121/SQRT(10)</f>
         <v>8.3950087211730399E-5</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="8">
-        <f t="shared" ref="G122" si="8">G121/SQRT(10)</f>
+      <c r="E122" s="4"/>
+      <c r="F122" s="5">
+        <f t="shared" ref="F122" si="8">F121/SQRT(10)</f>
         <v>18.979171882274159</v>
       </c>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E123" s="9"/>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B126" s="12" t="s">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D123" s="6"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="s">
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="B127" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="D127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="E127" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="F127" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H127" s="3"/>
-      <c r="Q127" s="12" t="s">
+      <c r="I127" s="1"/>
+      <c r="U127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12"/>
-      <c r="T127" s="9">
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B128" s="1">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A128" s="9">
         <v>1</v>
       </c>
-      <c r="C128" s="4">
+      <c r="B128" s="2">
         <v>0.95</v>
       </c>
-      <c r="D128" s="8">
+      <c r="C128" s="5">
         <v>0.01</v>
       </c>
-      <c r="E128" s="8">
+      <c r="D128" s="5">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="F128" s="8">
+      <c r="E128" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G128" s="8">
-        <f t="shared" ref="G128:G142" si="9">C128/E128</f>
+      <c r="F128" s="5">
+        <f t="shared" ref="F128:F142" si="9">B128/D128</f>
         <v>3166666.6666666665</v>
       </c>
-      <c r="H128" s="6"/>
-      <c r="Q128" s="12" t="s">
+      <c r="I128" s="4"/>
+      <c r="U128" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R128" s="12"/>
-      <c r="S128" s="12"/>
-      <c r="T128" s="9">
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="6">
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B129" s="1">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
         <v>2</v>
       </c>
-      <c r="C129" s="4">
+      <c r="B129" s="2">
         <v>1.74</v>
       </c>
-      <c r="D129" s="8">
+      <c r="C129" s="5">
         <v>0.01</v>
       </c>
-      <c r="E129" s="8">
+      <c r="D129" s="5">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="F129" s="8">
+      <c r="E129" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G129" s="8">
+      <c r="F129" s="5">
         <f t="shared" si="9"/>
         <v>3480000</v>
       </c>
-      <c r="H129" s="6"/>
-      <c r="T129" s="9"/>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B130" s="1">
+      <c r="I129" s="4"/>
+      <c r="X129" s="6"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
         <v>3</v>
       </c>
-      <c r="C130" s="4">
+      <c r="B130" s="2">
         <v>2.99</v>
       </c>
-      <c r="D130" s="8">
+      <c r="C130" s="5">
         <v>0.01</v>
       </c>
-      <c r="E130" s="8">
+      <c r="D130" s="5">
         <v>7.9999999999999996E-7</v>
       </c>
-      <c r="F130" s="8">
+      <c r="E130" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G130" s="8">
+      <c r="F130" s="5">
         <f t="shared" si="9"/>
         <v>3737500.0000000005</v>
       </c>
-      <c r="H130" s="6"/>
-      <c r="T130" s="9"/>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B131" s="1">
+      <c r="I130" s="4"/>
+      <c r="X130" s="6"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
         <v>4</v>
       </c>
-      <c r="C131" s="4">
+      <c r="B131" s="2">
         <v>4.01</v>
       </c>
-      <c r="D131" s="8">
+      <c r="C131" s="5">
         <v>0.01</v>
       </c>
-      <c r="E131" s="8">
+      <c r="D131" s="5">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="F131" s="8">
+      <c r="E131" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G131" s="8">
+      <c r="F131" s="5">
         <f t="shared" si="9"/>
         <v>3645454.5454545449</v>
       </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="5"/>
-      <c r="Q131" s="12" t="s">
+      <c r="I131" s="4"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="3"/>
+      <c r="U131" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R131" s="12"/>
-      <c r="S131" s="12"/>
-      <c r="T131" s="9">
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="6">
         <v>6800000</v>
       </c>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B132" s="1">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
         <v>5</v>
       </c>
-      <c r="C132" s="4">
+      <c r="B132" s="2">
         <v>4.58</v>
       </c>
-      <c r="D132" s="8">
+      <c r="C132" s="5">
         <v>0.01</v>
       </c>
-      <c r="E132" s="8">
+      <c r="D132" s="5">
         <v>1.1999999999999999E-6</v>
       </c>
-      <c r="F132" s="8">
+      <c r="E132" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G132" s="8">
+      <c r="F132" s="5">
         <f t="shared" si="9"/>
         <v>3816666.666666667</v>
       </c>
-      <c r="H132" s="6"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="T132" s="9"/>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B133" s="1">
+      <c r="I132" s="4"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="X132" s="6"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A133" s="9">
         <v>6</v>
       </c>
-      <c r="C133" s="4">
+      <c r="B133" s="2">
         <v>5.52</v>
       </c>
-      <c r="D133" s="8">
+      <c r="C133" s="5">
         <v>0.01</v>
       </c>
-      <c r="E133" s="8">
+      <c r="D133" s="5">
         <v>1.5E-6</v>
       </c>
-      <c r="F133" s="8">
+      <c r="E133" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G133" s="8">
+      <c r="F133" s="5">
         <f t="shared" si="9"/>
         <v>3679999.9999999995</v>
       </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="Q133" s="12" t="s">
+      <c r="I133" s="4"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="U133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R133" s="12"/>
-      <c r="S133" s="12"/>
-      <c r="T133" s="9">
-        <f>SQRT(((1/E144)*C146)^2+(-(C144/(E144^2))*E146)^2)</f>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="6">
+        <f>SQRT(((1/D144)*B146)^2+(-(B144/(D144^2))*D146)^2)</f>
         <v>634526.55757414585</v>
       </c>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B134" s="1">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A134" s="9">
         <v>7</v>
       </c>
-      <c r="C134" s="4">
+      <c r="B134" s="2">
         <v>6.12</v>
       </c>
-      <c r="D134" s="8">
+      <c r="C134" s="5">
         <v>0.01</v>
       </c>
-      <c r="E134" s="8">
+      <c r="D134" s="5">
         <v>1.5999999999999999E-6</v>
       </c>
-      <c r="F134" s="8">
+      <c r="E134" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G134" s="8">
+      <c r="F134" s="5">
         <f t="shared" si="9"/>
         <v>3825000.0000000005</v>
       </c>
-      <c r="H134" s="6"/>
-      <c r="T134" s="9"/>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B135" s="1">
+      <c r="I134" s="4"/>
+      <c r="X134" s="6"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A135" s="9">
         <v>8</v>
       </c>
-      <c r="C135" s="4">
+      <c r="B135" s="2">
         <v>6.54</v>
       </c>
-      <c r="D135" s="8">
+      <c r="C135" s="5">
         <v>0.01</v>
       </c>
-      <c r="E135" s="8">
+      <c r="D135" s="5">
         <v>1.7E-6</v>
       </c>
-      <c r="F135" s="8">
+      <c r="E135" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G135" s="8">
+      <c r="F135" s="5">
         <f t="shared" si="9"/>
         <v>3847058.8235294116</v>
       </c>
-      <c r="H135" s="6"/>
-      <c r="Q135" s="12" t="s">
+      <c r="I135" s="4"/>
+      <c r="U135" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R135" s="12"/>
-      <c r="S135" s="12"/>
-      <c r="T135" s="9">
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="6">
         <f>SLOPE(Tabela515[V (V)],Tabela515[I (A)])</f>
         <v>4175199.6242367299</v>
       </c>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B136" s="1">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A136" s="9">
         <v>9</v>
       </c>
-      <c r="C136" s="4">
+      <c r="B136" s="2">
         <v>7.22</v>
       </c>
-      <c r="D136" s="8">
+      <c r="C136" s="5">
         <v>0.01</v>
       </c>
-      <c r="E136" s="8">
+      <c r="D136" s="5">
         <v>1.7999999999999999E-6</v>
       </c>
-      <c r="F136" s="8">
+      <c r="E136" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G136" s="8">
+      <c r="F136" s="5">
         <f t="shared" si="9"/>
         <v>4011111.111111111</v>
       </c>
-      <c r="H136" s="6"/>
-      <c r="Q136" s="3"/>
-      <c r="R136" s="3"/>
-      <c r="S136" s="3"/>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B137" s="1">
+      <c r="I136" s="4"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A137" s="9">
         <v>10</v>
       </c>
-      <c r="C137" s="4">
+      <c r="B137" s="2">
         <v>7.66</v>
       </c>
-      <c r="D137" s="8">
+      <c r="C137" s="5">
         <v>0.01</v>
       </c>
-      <c r="E137" s="8">
+      <c r="D137" s="5">
         <v>1.9E-6</v>
       </c>
-      <c r="F137" s="8">
+      <c r="E137" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G137" s="8">
+      <c r="F137" s="5">
         <f t="shared" si="9"/>
         <v>4031578.9473684211</v>
       </c>
-      <c r="H137" s="6"/>
-      <c r="Q137" s="12" t="s">
+      <c r="I137" s="4"/>
+      <c r="U137" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R137" s="12"/>
-      <c r="S137" s="12"/>
-      <c r="T137" s="14">
-        <f>ABS(T131-T135)/T131</f>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="10">
+        <f>ABS(X131-X135)/X131</f>
         <v>0.38600005525930442</v>
       </c>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A138" s="9">
+        <v>11</v>
+      </c>
       <c r="B138" s="2">
-        <v>11</v>
-      </c>
-      <c r="C138" s="4">
         <v>8.25</v>
       </c>
-      <c r="D138" s="8">
+      <c r="C138" s="5">
         <v>0.01</v>
       </c>
-      <c r="E138" s="8">
+      <c r="D138" s="5">
         <v>2.0999999999999998E-6</v>
       </c>
-      <c r="F138" s="8">
+      <c r="E138" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G138" s="8">
+      <c r="F138" s="5">
         <f t="shared" si="9"/>
         <v>3928571.4285714291</v>
       </c>
-      <c r="H138" s="6"/>
-      <c r="Q138" s="13" t="s">
+      <c r="I138" s="4"/>
+      <c r="U138" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R138" s="13"/>
-      <c r="S138" s="13"/>
-      <c r="T138" s="15">
-        <f>ABS(T131-G144)/T131</f>
+      <c r="V138" s="12"/>
+      <c r="W138" s="12"/>
+      <c r="X138" s="11">
+        <f>ABS(X131-F144)/X131</f>
         <v>0.44018062833281024</v>
       </c>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A139" s="9">
+        <v>12</v>
+      </c>
       <c r="B139" s="2">
-        <v>12</v>
-      </c>
-      <c r="C139" s="4">
         <v>8.82</v>
       </c>
-      <c r="D139" s="8">
+      <c r="C139" s="5">
         <v>0.01</v>
       </c>
-      <c r="E139" s="8">
+      <c r="D139" s="5">
         <v>2.2000000000000001E-6</v>
       </c>
-      <c r="F139" s="8">
+      <c r="E139" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G139" s="8">
+      <c r="F139" s="5">
         <f t="shared" si="9"/>
         <v>4009090.9090909092</v>
       </c>
-      <c r="H139" s="6"/>
-      <c r="Q139" s="16"/>
-      <c r="R139" s="16"/>
-      <c r="S139" s="16"/>
-      <c r="T139" s="17"/>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I139" s="4"/>
+      <c r="U139" s="12"/>
+      <c r="V139" s="12"/>
+      <c r="W139" s="12"/>
+      <c r="X139" s="13"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A140" s="9">
+        <v>13</v>
+      </c>
       <c r="B140" s="2">
-        <v>13</v>
-      </c>
-      <c r="C140" s="4">
         <v>9</v>
       </c>
-      <c r="D140" s="8">
+      <c r="C140" s="5">
         <v>0.01</v>
       </c>
-      <c r="E140" s="8">
+      <c r="D140" s="5">
         <v>2.3E-6</v>
       </c>
-      <c r="F140" s="8">
+      <c r="E140" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G140" s="8">
+      <c r="F140" s="5">
         <f t="shared" si="9"/>
         <v>3913043.4782608696</v>
       </c>
-      <c r="H140" s="6"/>
-      <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="S140" s="3"/>
-      <c r="T140" s="3"/>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I140" s="4"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A141" s="9">
+        <v>14</v>
+      </c>
       <c r="B141" s="2">
-        <v>14</v>
-      </c>
-      <c r="C141" s="4">
         <v>9.7100000000000009</v>
       </c>
-      <c r="D141" s="8">
+      <c r="C141" s="5">
         <v>0.01</v>
       </c>
-      <c r="E141" s="8">
+      <c r="D141" s="5">
         <v>2.3999999999999999E-6</v>
       </c>
-      <c r="F141" s="8">
+      <c r="E141" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G141" s="8">
+      <c r="F141" s="5">
         <f t="shared" si="9"/>
         <v>4045833.333333334</v>
       </c>
-      <c r="H141" s="6"/>
-      <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-      <c r="S141" s="3"/>
-      <c r="T141" s="3"/>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I141" s="4"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A142" s="9">
+        <v>15</v>
+      </c>
       <c r="B142" s="2">
-        <v>15</v>
-      </c>
-      <c r="C142" s="4">
         <v>9.91</v>
       </c>
-      <c r="D142" s="8">
+      <c r="C142" s="5">
         <v>0.01</v>
       </c>
-      <c r="E142" s="8">
+      <c r="D142" s="5">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="F142" s="8">
+      <c r="E142" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G142" s="8">
+      <c r="F142" s="5">
         <f t="shared" si="9"/>
         <v>3963999.9999999995</v>
       </c>
-      <c r="H142" s="6"/>
-      <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-      <c r="S142" s="3"/>
-      <c r="T142" s="3"/>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
-      <c r="S143" s="3"/>
-      <c r="T143" s="3"/>
-    </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
+      <c r="I142" s="4"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C144" s="4">
-        <f>AVERAGE(C128:C142)</f>
+      <c r="B144" s="2">
+        <f>AVERAGE(B128:B142)</f>
         <v>6.2013333333333343</v>
       </c>
-      <c r="E144" s="8">
-        <f>AVERAGE(E128:E142)</f>
+      <c r="D144" s="5">
+        <f>AVERAGE(D128:D142)</f>
         <v>1.5933333333333335E-6</v>
       </c>
-      <c r="F144" s="6"/>
-      <c r="G144" s="8">
-        <f>AVERAGE(G128:G142)</f>
+      <c r="E144" s="4"/>
+      <c r="F144" s="5">
+        <f>AVERAGE(F128:F142)</f>
         <v>3806771.7273368905</v>
       </c>
-      <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-      <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C145" s="4">
-        <f>STDEVA(C128:C142)</f>
+      <c r="B145" s="2">
+        <f>STDEVA(B128:B142)</f>
         <v>2.8526450549487934</v>
       </c>
-      <c r="E145" s="8">
-        <f>STDEVA(E128:E142)</f>
+      <c r="D145" s="5">
+        <f>STDEVA(D128:D142)</f>
         <v>6.8916789025054048E-7</v>
       </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="8">
-        <f>STDEVA(G128:G142)</f>
+      <c r="E145" s="4"/>
+      <c r="F145" s="5">
+        <f>STDEVA(F128:F142)</f>
         <v>240042.60206381421</v>
       </c>
-      <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-      <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="4">
-        <f>C145/SQRT(15)</f>
+      <c r="B146" s="2">
+        <f>B145/SQRT(15)</f>
         <v>0.73654978603050791</v>
       </c>
-      <c r="E146" s="8">
-        <f>E145/SQRT(15)</f>
+      <c r="D146" s="5">
+        <f>D145/SQRT(15)</f>
         <v>1.7794238411208293E-7</v>
       </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="8">
-        <f>G145/SQRT(15)</f>
+      <c r="E146" s="4"/>
+      <c r="F146" s="5">
+        <f>F145/SQRT(15)</f>
         <v>61978.733344896435</v>
       </c>
-      <c r="Q146" s="3"/>
-      <c r="R146" s="3"/>
-      <c r="S146" s="3"/>
-      <c r="T146" s="3"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="Q135:S135"/>
-    <mergeCell ref="Q137:S137"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q133:S133"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="B74:R74"/>
-    <mergeCell ref="Q103:S103"/>
-    <mergeCell ref="Q104:S104"/>
-    <mergeCell ref="Q109:S109"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="Q128:S128"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q111:S111"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="Q114:S114"/>
+  <mergeCells count="11">
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A126:F126"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="6">
     <tablePart r:id="rId3"/>
@@ -11077,13 +12523,13 @@
           <xm:f>Folha1!1:1048576</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{EF659F33-B27D-477A-BED5-49EA59CEFAD8}">
-          <xm:f>Folha1!$C$4:$C$18</xm:f>
+          <xm:f>Folha1!$B$4:$B$18</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{1FAC1EA7-7C57-444F-A795-D14AD7B737CD}">
-          <xm:f>Folha1!$E$4:$E$18</xm:f>
+          <xm:f>Folha1!$D$4:$D$18</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{5BE6B1A2-8B0E-4A4B-89F6-D17106E225DD}">
-          <xm:f>Folha1!$R$14:$AA$31</xm:f>
+          <xm:f>Folha1!$V$14:$AE$31</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
@@ -11092,21 +12538,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B52C624EF34AD478A5856EC85ED098F" ma:contentTypeVersion="8" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="13f11bc05279c011ff2d322d3f66fd67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50696793-6437-4e87-ba7e-0fc4fcfbac97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffcb33e49fcbec99d603f857985d8417" ns3:_="">
     <xsd:import namespace="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
@@ -11276,10 +12707,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C452E65F-37E5-422E-B821-5F797BE3DB5D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11301,19 +12757,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C452E65F-37E5-422E-B821-5F797BE3DB5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T2A-Multimetro.xlsx
+++ b/T2A-Multimetro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD40FB20-585F-45EC-A55E-1B6A7566868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662740EB-AEC2-48D0-82D6-6B532FFFC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
   <si>
     <t>Voltagem</t>
   </si>
@@ -175,13 +175,17 @@
   <si>
     <t>ANALISE ESTATISTICA</t>
   </si>
+  <si>
+    <t>3,00E-06*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -292,7 +296,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -340,14 +344,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,7 +359,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -365,40 +373,6 @@
     <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="79">
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -617,9 +591,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1276,8 +1284,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1442,7 +1450,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$D$28:$D$42</c:f>
+              <c:f>Folha1!$D$43:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1496,7 +1504,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$B$28:$B$42</c:f>
+              <c:f>Folha1!$B$43:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2008,7 +2016,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$D$52:$D$66</c:f>
+              <c:f>Folha1!$D$67:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2062,7 +2070,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$B$52:$B$66</c:f>
+              <c:f>Folha1!$B$67:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2574,7 +2582,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$D$80:$D$94</c:f>
+              <c:f>Folha1!$D$95:$D$109</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2628,7 +2636,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$B$80:$B$94</c:f>
+              <c:f>Folha1!$B$95:$B$109</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3140,7 +3148,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$D$104:$D$118</c:f>
+              <c:f>Folha1!$D$119:$D$133</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3194,7 +3202,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$B$104:$B$118</c:f>
+              <c:f>Folha1!$B$119:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3706,7 +3714,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$D$128:$D$142</c:f>
+              <c:f>Folha1!$D$143:$D$157</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3760,7 +3768,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$B$128:$B$142</c:f>
+              <c:f>Folha1!$B$143:$B$157</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -8506,16 +8514,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106679</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>160021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8543,15 +8551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283845</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8732,16 +8740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38566</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>669432</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8774,17 +8782,17 @@
   <autoFilter ref="A3:H18" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9DD51987-C1BC-4ED6-8FEC-B5E9EEBD87E4}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{15D1FA17-1AE6-4DD2-8292-D64CE9308936}" name="V (V)" dataDxfId="2" totalsRowDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{7C02DDDF-3141-4D0A-9AF5-518B2A531A4C}" name="u(V)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5BFB6233-8250-4878-B204-A8C660E33AB0}" name="I (A)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D00D6C69-A1D9-4D13-9A2F-60BE40695798}" name="u(I)" dataDxfId="0" totalsRowDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{419C236C-08C9-42EB-933C-7880265CDDD8}" name="R (Ω)" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="72">
+    <tableColumn id="2" xr3:uid="{15D1FA17-1AE6-4DD2-8292-D64CE9308936}" name="V (V)" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{7C02DDDF-3141-4D0A-9AF5-518B2A531A4C}" name="u(V)" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{5BFB6233-8250-4878-B204-A8C660E33AB0}" name="I (A)" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{D00D6C69-A1D9-4D13-9A2F-60BE40695798}" name="u(I)" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{419C236C-08C9-42EB-933C-7880265CDDD8}" name="R (Ω)" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>B4/D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5D26FCBD-106E-427B-AC75-BD87B08904B4}" name="Fit" dataDxfId="5" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{5D26FCBD-106E-427B-AC75-BD87B08904B4}" name="Fit" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4F6967FE-8E66-46D5-89AC-72983E1166AF}" name="Residuo" dataDxfId="4" totalsRowDxfId="7">
+    <tableColumn id="9" xr3:uid="{4F6967FE-8E66-46D5-89AC-72983E1166AF}" name="Residuo" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8793,16 +8801,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}" name="Tabela513" displayName="Tabela513" ref="A27:F42" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="A27:F42" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}" name="Tabela513" displayName="Tabela513" ref="A42:F57" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A42:F57" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{71843C50-F2B2-4812-B490-8BF118C0297E}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{991DA961-5670-4F45-9567-BEB5B16C9F9F}" name="Voltagem" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{D016CBE5-CAE9-43D8-BDA7-51C54CA2663A}" name="u(V)" dataDxfId="66" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{D8270B4F-B072-4BED-8F6B-32BF8798E9F7}" name="Corrente Elétrica" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{ADFD343F-0A14-4F6B-B60A-AC165360EBBD}" name="u(I)" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{9EAEEDAC-6D0F-473B-A32D-883D869F1ED1}" name="Resistência" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Moeda">
-      <calculatedColumnFormula>B28/D28</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{71843C50-F2B2-4812-B490-8BF118C0297E}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{991DA961-5670-4F45-9567-BEB5B16C9F9F}" name="Voltagem" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{D016CBE5-CAE9-43D8-BDA7-51C54CA2663A}" name="u(V)" dataDxfId="57" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{D8270B4F-B072-4BED-8F6B-32BF8798E9F7}" name="Corrente Elétrica" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{ADFD343F-0A14-4F6B-B60A-AC165360EBBD}" name="u(I)" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{9EAEEDAC-6D0F-473B-A32D-883D869F1ED1}" name="Resistência" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Moeda">
+      <calculatedColumnFormula>B43/D43</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -8810,16 +8818,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}" name="Tabela515" displayName="Tabela515" ref="A51:F66" headerRowDxfId="59" dataDxfId="58">
-  <autoFilter ref="A51:F66" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}" name="Tabela515" displayName="Tabela515" ref="A66:F81" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A66:F81" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{42A0E4D7-25BB-48A1-879F-59A29E5FDEC0}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{47CBB6DA-76E3-4208-B8AC-53ED1356227C}" name="V (V)" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{339EC1BF-6347-49FE-8C68-674FFE212D24}" name="u(V)" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{D546E76A-468E-464B-A2CB-4F07756EC755}" name="I (A)" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{26E97079-5B7D-4585-A322-17562E32181D}" name="u(I)" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{9B5FBD40-E7C9-4AF1-B58C-93484A227F08}" name="R (Ω)" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46">
-      <calculatedColumnFormula>B52/D52</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{42A0E4D7-25BB-48A1-879F-59A29E5FDEC0}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{47CBB6DA-76E3-4208-B8AC-53ED1356227C}" name="V (V)" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{339EC1BF-6347-49FE-8C68-674FFE212D24}" name="u(V)" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{D546E76A-468E-464B-A2CB-4F07756EC755}" name="I (A)" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{26E97079-5B7D-4585-A322-17562E32181D}" name="u(I)" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{9B5FBD40-E7C9-4AF1-B58C-93484A227F08}" name="R (Ω)" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37">
+      <calculatedColumnFormula>B67/D67</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -8827,16 +8835,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}" name="Tabela516" displayName="Tabela516" ref="A79:F94" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A79:F94" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}" name="Tabela516" displayName="Tabela516" ref="A94:F109" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A94:F109" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DA8929B6-8358-4286-BBE7-87E237EAAF4B}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{AB952BEB-A90E-4961-B158-2A68B404E244}" name="V (V)" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{DBBC59F9-D98C-4686-97C1-BEE96C71F346}" name="u(V)" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{8245E335-11B5-4743-B73E-528AAAF1A734}" name="I (A)" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{7F838851-7F2E-40AB-96BC-7EA7E1DA6457}" name="u(I)" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{A7DC4E2F-8B36-4153-B12F-2CB9A0F3C0FE}" name="R (Ω)" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="34">
-      <calculatedColumnFormula>B80/D80</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{DA8929B6-8358-4286-BBE7-87E237EAAF4B}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{AB952BEB-A90E-4961-B158-2A68B404E244}" name="V (V)" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{DBBC59F9-D98C-4686-97C1-BEE96C71F346}" name="u(V)" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{8245E335-11B5-4743-B73E-528AAAF1A734}" name="I (A)" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{7F838851-7F2E-40AB-96BC-7EA7E1DA6457}" name="u(I)" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{A7DC4E2F-8B36-4153-B12F-2CB9A0F3C0FE}" name="R (Ω)" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="25">
+      <calculatedColumnFormula>B95/D95</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -8844,16 +8852,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}" name="Tabela517" displayName="Tabela517" ref="A103:F118" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A103:F118" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}" name="Tabela517" displayName="Tabela517" ref="A118:F133" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A118:F133" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E5653933-D5F0-40E0-9126-7D5C5E6E076F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{4047F096-802D-4A82-8556-4FDCD1CBA596}" name="V (V)" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{39BCB85A-98A6-4169-ABBD-53EC7B090C38}" name="u(V)" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{6A2E6146-0EF7-407B-BF4F-00BD8FF043CE}" name="I (A)" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{527997B1-B87F-41CF-8B06-19A40E1B12DD}" name="u(I)" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{5A9E15A7-8097-42C6-A5E9-38F4A78C1117}" name="R (Ω)" totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="23">
-      <calculatedColumnFormula>B104/D104</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E5653933-D5F0-40E0-9126-7D5C5E6E076F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{4047F096-802D-4A82-8556-4FDCD1CBA596}" name="V (V)" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{39BCB85A-98A6-4169-ABBD-53EC7B090C38}" name="u(V)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{6A2E6146-0EF7-407B-BF4F-00BD8FF043CE}" name="I (A)" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{527997B1-B87F-41CF-8B06-19A40E1B12DD}" name="u(I)" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{5A9E15A7-8097-42C6-A5E9-38F4A78C1117}" name="R (Ω)" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14">
+      <calculatedColumnFormula>B119/D119</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -8861,16 +8869,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}" name="Tabela518" displayName="Tabela518" ref="A127:F142" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A127:F142" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}" name="Tabela518" displayName="Tabela518" ref="A142:F157" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A142:F157" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FF1DBC2D-D6EA-47E0-9253-0394DF3401A6}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E8262805-4EA5-4DDE-9F58-1568CDE64B65}" name="V (V)" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{A83FC60C-ADB5-4B27-B59A-4BF99A9A0315}" name="u(V)" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4DCE768E-96BA-4F88-9C29-8BC5D79A7E60}" name="I (A)" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{FB7AB7EF-F243-4E85-AE65-90CC109B64B6}" name="u(I)" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{DC14564C-AA8B-4953-90CB-3874FB98E31D}" name="R (Ω)" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="9">
-      <calculatedColumnFormula>B128/D128</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{FF1DBC2D-D6EA-47E0-9253-0394DF3401A6}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E8262805-4EA5-4DDE-9F58-1568CDE64B65}" name="V (V)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A83FC60C-ADB5-4B27-B59A-4BF99A9A0315}" name="u(V)" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4DCE768E-96BA-4F88-9C29-8BC5D79A7E60}" name="I (A)" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FB7AB7EF-F243-4E85-AE65-90CC109B64B6}" name="u(I)" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DC14564C-AA8B-4953-90CB-3874FB98E31D}" name="R (Ω)" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>B143/D143</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -9199,46 +9207,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93CEA2-7506-43DA-BD0E-18E2DA668FCC}">
-  <dimension ref="A2:X146"/>
+  <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36:X47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.21875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.21875" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="T2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9264,20 +9267,12 @@
         <v>30</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="T3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25">
-        <v>9.9999999999999995E-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -9294,7 +9289,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F4" s="5">
-        <f>B4/D4</f>
+        <f t="shared" ref="F4:F18" si="0">B4/D4</f>
         <v>468.29268292682923</v>
       </c>
       <c r="G4" s="2">
@@ -9306,19 +9301,15 @@
         <v>1.4298058739939945E-3</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="20" cm="1">
+      <c r="J4" s="34" cm="1">
         <f t="array" ref="J4:K8">LINEST(Tabela5[V (V)],Tabela5[I (A)],TRUE,TRUE)</f>
         <v>464.23921468327922</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="34">
         <v>4.8024015504641859E-3</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="31"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -9335,7 +9326,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F5" s="5">
-        <f>B5/D5</f>
+        <f t="shared" si="0"/>
         <v>470.94282754073652</v>
       </c>
       <c r="G5" s="2">
@@ -9347,22 +9338,14 @@
         <v>9.4320499910607314E-3</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="20">
+      <c r="J5" s="34">
         <v>3.8006521695006943</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="34">
         <v>3.6662496657451686E-2</v>
       </c>
-      <c r="T5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -9379,7 +9362,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F6" s="5">
-        <f>B6/D6</f>
+        <f t="shared" si="0"/>
         <v>468.16479400749068</v>
       </c>
       <c r="G6" s="2">
@@ -9391,18 +9374,14 @@
         <v>7.7751546043092201E-3</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="20">
+      <c r="J6" s="34">
         <v>0.99912944199347653</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="34">
         <v>6.6989062946331016E-2</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="31"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -9419,7 +9398,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F7" s="5">
-        <f>B7/D7</f>
+        <f t="shared" si="0"/>
         <v>471.32016778997979</v>
       </c>
       <c r="G7" s="2">
@@ -9431,31 +9410,23 @@
         <v>2.5244914862508905E-2</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="20">
+      <c r="J7" s="34">
         <v>14919.950937885862</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="34">
         <v>13</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25">
-        <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
-        <v>115.08094791750561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -9472,7 +9443,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F8" s="5">
-        <f>B8/D8</f>
+        <f t="shared" si="0"/>
         <v>466.08960334823558</v>
       </c>
       <c r="G8" s="2">
@@ -9484,21 +9455,17 @@
         <v>4.9241664668788765E-3</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="20">
+      <c r="J8" s="34">
         <v>66.953795384125769</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="34">
         <v>5.8337949207557478E-2</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="31"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -9515,7 +9482,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F9" s="5">
-        <f>B9/D9</f>
+        <f t="shared" si="0"/>
         <v>467.94871794871796</v>
       </c>
       <c r="G9" s="2">
@@ -9532,17 +9499,8 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="T9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="25">
-        <f>SLOPE(Tabela5[V (V)],Tabela5[I (A)])</f>
-        <v>464.23921468327904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -9559,7 +9517,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F10" s="5">
-        <f>B10/D10</f>
+        <f t="shared" si="0"/>
         <v>466.48190324616525</v>
       </c>
       <c r="G10" s="2">
@@ -9573,12 +9531,8 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="4"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="31"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -9595,7 +9549,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F11" s="5">
-        <f>B11/D11</f>
+        <f t="shared" si="0"/>
         <v>466.96832579185525</v>
       </c>
       <c r="G11" s="2">
@@ -9607,19 +9561,16 @@
         <v>1.7815106761859489E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
-      <c r="T11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="26">
-        <f>ABS((W5-W9)/W5)</f>
-        <v>1.2256990035576501E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -9636,7 +9587,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F12" s="5">
-        <f>B12/D12</f>
+        <f t="shared" si="0"/>
         <v>441.59615480899214</v>
       </c>
       <c r="G12" s="2">
@@ -9648,19 +9599,16 @@
         <v>-0.2309273189850316</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="T12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="28">
-        <f>ABS((W5-F20)/W5)</f>
-        <v>9.1024993524850759E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -9677,7 +9625,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F13" s="5">
-        <f>B13/D13</f>
+        <f t="shared" si="0"/>
         <v>466.08422122697152</v>
       </c>
       <c r="G13" s="2">
@@ -9689,14 +9637,16 @@
         <v>1.443603518257941E-2</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -9713,7 +9663,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="F14" s="5">
-        <f>B14/D14</f>
+        <f t="shared" si="0"/>
         <v>467.99307958477505</v>
       </c>
       <c r="G14" s="2">
@@ -9725,10 +9675,16 @@
         <v>3.8592276710827988E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -9745,7 +9701,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F15" s="5">
-        <f>B15/D15</f>
+        <f t="shared" si="0"/>
         <v>466.08177972740094</v>
       </c>
       <c r="G15" s="2">
@@ -9757,10 +9713,12 @@
         <v>1.8719783802793266E-2</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -9777,7 +9735,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5">
-        <f>B16/D16</f>
+        <f t="shared" si="0"/>
         <v>465.73953353614365</v>
       </c>
       <c r="G16" s="2">
@@ -9789,8 +9747,15 @@
         <v>1.5911000532183195E-2</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24">
+        <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
+        <v>115.08094791750561</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
@@ -9805,11 +9770,11 @@
       <c r="D17" s="5">
         <v>1.4873000000000001E-2</v>
       </c>
-      <c r="E17" s="5">
-        <v>3.0000000000000001E-6</v>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="5">
-        <f>B17/D17</f>
+        <f t="shared" si="0"/>
         <v>465.9450010085389</v>
       </c>
       <c r="G17" s="2">
@@ -9821,8 +9786,10 @@
         <v>2.0567758465123376E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
@@ -9841,7 +9808,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F18" s="5">
-        <f>B18/D18</f>
+        <f t="shared" si="0"/>
         <v>466.17858707214822</v>
       </c>
       <c r="G18" s="2">
@@ -9853,8 +9820,15 @@
         <v>2.619070859605177E-2</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24">
+        <f>SLOPE(Tabela5[V (V)],Tabela5[I (A)])</f>
+        <v>464.23921468327904</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -9862,6 +9836,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
@@ -9881,6 +9859,15 @@
         <f>AVERAGE(F4:F18)</f>
         <v>465.72182530433201</v>
       </c>
+      <c r="J20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="25">
+        <f>ABS((M14-M18)/M14)</f>
+        <v>1.2256990035576501E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
@@ -9900,6 +9887,15 @@
         <f>STDEVA(F4:F18)</f>
         <v>6.8978760942238413</v>
       </c>
+      <c r="J21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27">
+        <f>ABS((M14-F20)/M14)</f>
+        <v>9.1024993524850759E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
@@ -9916,127 +9912,23 @@
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21">
-        <f t="shared" ref="F22" si="0">F21/SQRT(10)</f>
+        <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>2.1812999475373567</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C28" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D28" s="14">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="E28" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F28" s="14">
-        <f t="shared" ref="F28:F42" si="1">B28/D28</f>
-        <v>9750</v>
-      </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1.22</v>
-      </c>
-      <c r="C29" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D29" s="14">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="E29" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F29" s="14">
-        <f t="shared" si="1"/>
-        <v>9384.6153846153848</v>
-      </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2.36</v>
-      </c>
-      <c r="C30" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2.3699999999999999E-4</v>
-      </c>
-      <c r="E30" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F30" s="14">
-        <f t="shared" si="1"/>
-        <v>9957.8059071729949</v>
-      </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3.48</v>
-      </c>
-      <c r="C31" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D31" s="14">
-        <v>3.48E-4</v>
-      </c>
-      <c r="E31" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F31" s="14">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -10046,520 +9938,430 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4.25</v>
-      </c>
-      <c r="C32" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D32" s="14">
-        <v>4.2400000000000001E-4</v>
-      </c>
-      <c r="E32" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F32" s="14">
-        <f t="shared" si="1"/>
-        <v>10023.584905660377</v>
-      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="C33" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D33" s="14">
-        <v>5.3700000000000004E-4</v>
-      </c>
-      <c r="E33" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F33" s="14">
-        <f t="shared" si="1"/>
-        <v>9944.1340782122898</v>
-      </c>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I33" s="4"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5.99</v>
-      </c>
-      <c r="C34" s="14">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I36" s="4"/>
+      <c r="V36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I37" s="4"/>
+      <c r="V37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I38" s="4"/>
+      <c r="Y38" s="6"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I39" s="4"/>
+      <c r="Y39" s="6"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I40" s="4"/>
+      <c r="V40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="I41" s="4"/>
+      <c r="Y41" s="6"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="V42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="6">
+        <f>SQRT(((1/D59)*B61)^2+(-(B59/(D59^2))*D61)^2)</f>
+        <v>2275.6957077765142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C43" s="14">
         <v>1E-3</v>
       </c>
-      <c r="D34" s="14">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="D43" s="14">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="E43" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F34" s="14">
-        <f t="shared" si="1"/>
-        <v>10696.428571428572</v>
-      </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2">
-        <v>6.81</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="F43" s="14">
+        <f t="shared" ref="F43:F57" si="2">B43/D43</f>
+        <v>9750</v>
+      </c>
+      <c r="Y43" s="6"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="C44" s="14">
         <v>1E-3</v>
       </c>
-      <c r="D35" s="14">
-        <v>6.78E-4</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="D44" s="14">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="E44" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F35" s="14">
-        <f t="shared" si="1"/>
-        <v>10044.247787610619</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>9</v>
-      </c>
-      <c r="B36" s="2">
-        <v>7.38</v>
-      </c>
-      <c r="C36" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D36" s="14">
-        <v>7.3399999999999995E-4</v>
-      </c>
-      <c r="E36" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="1"/>
-        <v>10054.49591280654</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="U36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2">
-        <v>7.95</v>
-      </c>
-      <c r="C37" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D37" s="14">
-        <v>7.9100000000000004E-4</v>
-      </c>
-      <c r="E37" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F37" s="14">
-        <f t="shared" si="1"/>
-        <v>10050.568900126422</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="U37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2">
-        <v>8.24</v>
-      </c>
-      <c r="C38" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D38" s="14">
-        <v>8.1899999999999996E-4</v>
-      </c>
-      <c r="E38" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="1"/>
-        <v>10061.050061050062</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>12</v>
-      </c>
-      <c r="B39" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D39" s="14">
-        <v>8.8500000000000004E-4</v>
-      </c>
-      <c r="E39" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F39" s="14">
-        <f t="shared" si="1"/>
-        <v>10056.497175141243</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="X39" s="6"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2">
-        <v>9.44</v>
-      </c>
-      <c r="C40" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D40" s="14">
-        <v>9.3800000000000003E-4</v>
-      </c>
-      <c r="E40" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F40" s="14">
-        <f t="shared" si="1"/>
-        <v>10063.965884861407</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="U40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>14</v>
-      </c>
-      <c r="B41" s="2">
-        <v>9.77</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D41" s="14">
-        <v>9.7099999999999997E-4</v>
-      </c>
-      <c r="E41" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F41" s="14">
-        <f t="shared" si="1"/>
-        <v>10061.791967044284</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="X41" s="6"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>15</v>
-      </c>
-      <c r="B42" s="2">
-        <v>9.98</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="D42" s="14">
-        <v>9.9200000000000004E-4</v>
-      </c>
-      <c r="E42" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" si="1"/>
-        <v>10060.483870967742</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="U42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="6">
-        <f>SQRT(((1/D44)*B46)^2+(-(B44/(D44^2))*D46)^2)</f>
-        <v>2275.6957077765142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="X43" s="6"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="2">
-        <f>AVERAGE(B28:B42)</f>
-        <v>6.1260000000000003</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="5">
-        <f>AVERAGE(D28:D42)</f>
-        <v>6.0826666666666663E-4</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5">
-        <f>AVERAGE(F28:F42)</f>
-        <v>10013.978027113197</v>
-      </c>
-      <c r="U44" s="1" t="s">
+      <c r="F44" s="14">
+        <f t="shared" si="2"/>
+        <v>9384.6153846153848</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="6">
+      <c r="X44" s="1"/>
+      <c r="Y44" s="6">
         <f>SLOPE(Tabela513[Voltagem],Tabela513[Corrente Elétrica])</f>
         <v>10104.290262959435</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>7</v>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>3</v>
       </c>
       <c r="B45" s="2">
-        <f>STDEVA(B28:B42)</f>
-        <v>3.1010869062314277</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="5">
-        <f>STDEVA(D28:D42)</f>
-        <v>3.0675128749681294E-4</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5">
-        <f>STDEVA(F28:F42)</f>
-        <v>261.13897472485797</v>
-      </c>
-      <c r="U45" s="1"/>
+        <v>2.36</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D45" s="14">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="E45" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="2"/>
+        <v>9957.8059071729949</v>
+      </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="C46" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D46" s="14">
+        <v>3.48E-4</v>
+      </c>
+      <c r="E46" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="10">
+        <f>ABS((Y40-Y44)/Y40)</f>
+        <v>1.042902629594355E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D47" s="14">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="E47" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="2"/>
+        <v>10023.584905660377</v>
+      </c>
+      <c r="V47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="11">
+        <f>ABS((Y40-F59)/Y40)</f>
+        <v>1.3978027113196732E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5.34</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D48" s="14">
+        <v>5.3700000000000004E-4</v>
+      </c>
+      <c r="E48" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="2"/>
+        <v>9944.1340782122898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="C49" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D49" s="14">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="E49" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="2"/>
+        <v>10696.428571428572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50" s="17">
         <v>8</v>
       </c>
-      <c r="B46" s="2">
-        <f>B45/SQRT(10)</f>
-        <v>0.98064978458163166</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="5">
-        <f t="shared" ref="D46:F46" si="2">D45/SQRT(10)</f>
-        <v>9.7003274367905937E-5</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5">
+      <c r="B50" s="2">
+        <v>6.81</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D50" s="14">
+        <v>6.78E-4</v>
+      </c>
+      <c r="E50" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F50" s="14">
         <f t="shared" si="2"/>
-        <v>82.57939459716934</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="10">
-        <f>ABS((X40-X44)/X40)</f>
-        <v>1.042902629594355E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="U47" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="11">
-        <f>ABS((X40-F44)/X40)</f>
-        <v>1.3978027113196732E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+        <v>10044.247787610619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51" s="17">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2">
+        <v>7.38</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D51" s="14">
+        <v>7.3399999999999995E-4</v>
+      </c>
+      <c r="E51" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="2"/>
+        <v>10054.49591280654</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="V51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="C52" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D52" s="14">
+        <v>7.9100000000000004E-4</v>
+      </c>
+      <c r="E52" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="2"/>
+        <v>10050.568900126422</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="V52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53" s="17">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D53" s="14">
+        <v>8.1899999999999996E-4</v>
+      </c>
+      <c r="E53" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="2"/>
+        <v>10061.050061050062</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="Y53" s="6"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D54" s="14">
+        <v>8.8500000000000004E-4</v>
+      </c>
+      <c r="E54" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="2"/>
+        <v>10056.497175141243</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="Y54" s="6"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
         <v>13</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="U51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1.68</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D52" s="5">
-        <v>6.9999999999999997E-7</v>
-      </c>
-      <c r="E52" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" ref="F52:F66" si="3">B52/D52</f>
-        <v>2400000</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="U52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="6">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <v>2</v>
-      </c>
-      <c r="B53" s="2">
-        <v>2.52</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D53" s="5">
-        <v>8.9999999999999996E-7</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="3"/>
-        <v>2800000</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="X53" s="6"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2">
-        <v>2.91</v>
-      </c>
-      <c r="C54" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="B55" s="2">
+        <v>9.44</v>
+      </c>
+      <c r="C55" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D55" s="14">
+        <v>9.3800000000000003E-4</v>
+      </c>
+      <c r="E55" s="14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E54" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" si="3"/>
-        <v>2910000.0000000005</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="X54" s="6"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="C55" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1.1000000000000001E-6</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" si="3"/>
-        <v>3272727.2727272725</v>
+      <c r="F55" s="14">
+        <f t="shared" si="2"/>
+        <v>10063.965884861407</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="1"/>
@@ -10568,374 +10370,382 @@
       <c r="M55" s="3"/>
       <c r="N55" s="9"/>
       <c r="O55" s="3"/>
-      <c r="U55" s="1" t="s">
+      <c r="V55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-      <c r="X55" s="6">
+      <c r="X55" s="1"/>
+      <c r="Y55" s="6">
         <v>6800000</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
-        <v>5</v>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
+        <v>14</v>
       </c>
       <c r="B56" s="2">
-        <v>4.45</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.3E-6</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" si="3"/>
-        <v>3423076.923076923</v>
+        <v>9.77</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D56" s="14">
+        <v>9.7099999999999997E-4</v>
+      </c>
+      <c r="E56" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="2"/>
+        <v>10061.791967044284</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="X56" s="6"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
-        <v>6</v>
+      <c r="Y56" s="6"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A57" s="17">
+        <v>15</v>
       </c>
       <c r="B57" s="2">
-        <v>4.95</v>
-      </c>
-      <c r="C57" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1.3999999999999999E-6</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="3"/>
-        <v>3535714.2857142859</v>
+        <v>9.98</v>
+      </c>
+      <c r="C57" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="D57" s="14">
+        <v>9.9200000000000004E-4</v>
+      </c>
+      <c r="E57" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F57" s="14">
+        <f t="shared" si="2"/>
+        <v>10060.483870967742</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="U57" s="1" t="s">
+      <c r="V57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="1"/>
       <c r="W57" s="1"/>
-      <c r="X57" s="6">
-        <f>SQRT(((1/D68)*B70)^2+(-(B68/(D68^2))*D70)^2)</f>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="6">
+        <f>SQRT(((1/D83)*B85)^2+(-(B83/(D83^2))*D85)^2)</f>
         <v>641862.27200783929</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
-        <v>7</v>
-      </c>
-      <c r="B58" s="2">
-        <v>5.47</v>
-      </c>
-      <c r="C58" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D58" s="5">
-        <v>1.5999999999999999E-6</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="3"/>
-        <v>3418750</v>
-      </c>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="I58" s="4"/>
-      <c r="X58" s="6"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
-        <v>8</v>
+      <c r="Y58" s="6"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="B59" s="2">
-        <v>5.98</v>
-      </c>
-      <c r="C59" s="5">
-        <v>0.01</v>
-      </c>
+        <f>AVERAGE(B43:B57)</f>
+        <v>6.1260000000000003</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="5">
-        <v>1.7E-6</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1E-4</v>
-      </c>
+        <f>AVERAGE(D43:D57)</f>
+        <v>6.0826666666666663E-4</v>
+      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="5">
-        <f t="shared" si="3"/>
-        <v>3517647.0588235296</v>
+        <f>AVERAGE(F43:F57)</f>
+        <v>10013.978027113197</v>
       </c>
       <c r="I59" s="4"/>
-      <c r="U59" s="1" t="s">
+      <c r="V59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-      <c r="X59" s="6">
+      <c r="X59" s="1"/>
+      <c r="Y59" s="6">
         <f>SLOPE(Tabela515[V (V)],Tabela515[I (A)])</f>
         <v>4175199.6242367299</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
-        <v>9</v>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="B60" s="2">
-        <v>6.46</v>
-      </c>
-      <c r="C60" s="5">
-        <v>0.01</v>
-      </c>
+        <f>STDEVA(B43:B57)</f>
+        <v>3.1010869062314277</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="5">
-        <v>1.7999999999999999E-6</v>
-      </c>
-      <c r="E60" s="5">
-        <v>1E-4</v>
-      </c>
+        <f>STDEVA(D43:D57)</f>
+        <v>3.0675128749681294E-4</v>
+      </c>
+      <c r="E60" s="4"/>
       <c r="F60" s="5">
-        <f t="shared" si="3"/>
-        <v>3588888.888888889</v>
+        <f>STDEVA(F43:F57)</f>
+        <v>261.13897472485797</v>
       </c>
       <c r="I60" s="4"/>
-      <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
-        <v>10</v>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B61" s="2">
-        <v>7.16</v>
-      </c>
-      <c r="C61" s="5">
-        <v>0.01</v>
-      </c>
+        <f>B60/SQRT(10)</f>
+        <v>0.98064978458163166</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1E-4</v>
-      </c>
+        <f t="shared" ref="D61:F61" si="3">D60/SQRT(10)</f>
+        <v>9.7003274367905937E-5</v>
+      </c>
+      <c r="E61" s="4"/>
       <c r="F61" s="5">
         <f t="shared" si="3"/>
-        <v>3580000.0000000005</v>
+        <v>82.57939459716934</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="U61" s="1" t="s">
+      <c r="V61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-      <c r="X61" s="10">
-        <f>((X55-X59)/X55)</f>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="10">
+        <f>((Y55-Y59)/Y55)</f>
         <v>0.38600005525930442</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
-        <v>11</v>
-      </c>
-      <c r="B62" s="2">
-        <v>7.99</v>
-      </c>
-      <c r="C62" s="5">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I62" s="4"/>
+      <c r="V62" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="11">
+        <f>(Y55-F83)/Y55</f>
+        <v>0.50075181452214323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A67" s="17">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="C67" s="5">
         <v>0.01</v>
       </c>
-      <c r="D62" s="5">
-        <v>2.2000000000000001E-6</v>
-      </c>
-      <c r="E62" s="5">
+      <c r="D67" s="5">
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="E67" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F62" s="5">
-        <f t="shared" si="3"/>
-        <v>3631818.1818181816</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="U62" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="11">
-        <f>(X55-F68)/X55</f>
-        <v>0.50075181452214323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
-        <v>12</v>
-      </c>
-      <c r="B63" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C63" s="5">
+      <c r="F67" s="5">
+        <f t="shared" ref="F67:F81" si="4">B67/D67</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="C68" s="5">
         <v>0.01</v>
       </c>
-      <c r="D63" s="5">
-        <v>2.3999999999999999E-6</v>
-      </c>
-      <c r="E63" s="5">
+      <c r="D68" s="5">
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="E68" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F63" s="5">
-        <f t="shared" si="3"/>
-        <v>3625000</v>
-      </c>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
-        <v>13</v>
-      </c>
-      <c r="B64" s="2">
-        <v>9.15</v>
-      </c>
-      <c r="C64" s="5">
+      <c r="F68" s="5">
+        <f t="shared" si="4"/>
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2.91</v>
+      </c>
+      <c r="C69" s="5">
         <v>0.01</v>
       </c>
-      <c r="D64" s="5">
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="E64" s="5">
+      <c r="D69" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E69" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F64" s="5">
-        <f t="shared" si="3"/>
-        <v>3660000</v>
-      </c>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
-        <v>14</v>
-      </c>
-      <c r="B65" s="2">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="C65" s="5">
+      <c r="F69" s="5">
+        <f t="shared" si="4"/>
+        <v>2910000.0000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C70" s="5">
         <v>0.01</v>
       </c>
-      <c r="D65" s="5">
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="E65" s="5">
+      <c r="D70" s="5">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="E70" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F65" s="5">
-        <f t="shared" si="3"/>
-        <v>3752000</v>
-      </c>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
-        <v>15</v>
-      </c>
-      <c r="B66" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="C66" s="5">
+      <c r="F70" s="5">
+        <f t="shared" si="4"/>
+        <v>3272727.2727272725</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A71" s="17">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>4.45</v>
+      </c>
+      <c r="C71" s="5">
         <v>0.01</v>
       </c>
-      <c r="D66" s="5">
-        <v>2.6000000000000001E-6</v>
-      </c>
-      <c r="E66" s="5">
+      <c r="D71" s="5">
+        <v>1.3E-6</v>
+      </c>
+      <c r="E71" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F66" s="5">
-        <f t="shared" si="3"/>
-        <v>3807692.3076923075</v>
-      </c>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+      <c r="F71" s="5">
+        <f t="shared" si="4"/>
+        <v>3423076.923076923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A72" s="17">
         <v>6</v>
       </c>
-      <c r="B68" s="2">
-        <f>AVERAGE(B52:B66)</f>
-        <v>6.02</v>
-      </c>
-      <c r="D68" s="5">
-        <f>AVERAGE(D52:D66)</f>
-        <v>1.7133333333333332E-6</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5">
-        <f>AVERAGE(F52:F66)</f>
-        <v>3394887.6612494262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+      <c r="B72" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="4"/>
+        <v>3535714.2857142859</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A73" s="17">
         <v>7</v>
       </c>
-      <c r="B69" s="2">
-        <f>STDEVA(B52:B66)</f>
-        <v>2.66224126844818</v>
-      </c>
-      <c r="D69" s="5">
-        <f>STDEVA(D52:D66)</f>
-        <v>6.3680751371494486E-7</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="5">
-        <f>STDEVA(F52:F66)</f>
-        <v>394535.0166596687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+      <c r="B73" s="2">
+        <v>5.47</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="4"/>
+        <v>3418750</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A74" s="17">
         <v>8</v>
       </c>
-      <c r="B70" s="2">
-        <f>B69/SQRT(10)</f>
-        <v>0.84187460891920085</v>
-      </c>
-      <c r="D70" s="5">
-        <f>D69/SQRT(10)</f>
-        <v>2.0137621744481388E-7</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="5">
-        <f t="shared" ref="F70" si="4">F69/SQRT(10)</f>
-        <v>124762.92693370297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="B74" s="2">
+        <v>5.98</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1.7E-6</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="4"/>
+        <v>3517647.0588235296</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -10950,141 +10760,200 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A75" s="17">
+        <v>9</v>
+      </c>
+      <c r="B75" s="2">
+        <v>6.46</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="4"/>
+        <v>3588888.888888889</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A76" s="17">
+        <v>10</v>
+      </c>
+      <c r="B76" s="2">
+        <v>7.16</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="4"/>
+        <v>3580000.0000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A77" s="17">
+        <v>11</v>
+      </c>
+      <c r="B77" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="4"/>
+        <v>3631818.1818181816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A78" s="17">
         <v>12</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>20</v>
+      <c r="B78" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="4"/>
+        <v>3625000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A79" s="17">
+        <v>13</v>
+      </c>
+      <c r="B79" s="2">
+        <v>9.15</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="4"/>
+        <v>3660000</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="U79" s="1" t="s">
+      <c r="V79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V79" s="1"/>
       <c r="W79" s="1"/>
-      <c r="X79" s="6">
+      <c r="X79" s="1"/>
+      <c r="Y79" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
-        <v>1</v>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A80" s="17">
+        <v>14</v>
       </c>
       <c r="B80" s="2">
-        <v>0.81</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="C80" s="5">
         <v>0.01</v>
       </c>
       <c r="D80" s="5">
-        <v>1.714E-3</v>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="E80" s="5">
-        <v>4.9999999999999998E-7</v>
+        <v>1E-4</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" ref="F80:F94" si="5">B80/D80</f>
-        <v>472.57876312718787</v>
+        <f t="shared" si="4"/>
+        <v>3752000</v>
       </c>
       <c r="I80" s="4"/>
-      <c r="U80" s="1" t="s">
+      <c r="V80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V80" s="1"/>
       <c r="W80" s="1"/>
-      <c r="X80" s="6">
+      <c r="X80" s="1"/>
+      <c r="Y80" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
-        <v>2</v>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A81" s="17">
+        <v>15</v>
       </c>
       <c r="B81" s="2">
-        <v>1.44</v>
+        <v>9.9</v>
       </c>
       <c r="C81" s="5">
         <v>0.01</v>
       </c>
       <c r="D81" s="5">
-        <v>3.0699999999999998E-3</v>
+        <v>2.6000000000000001E-6</v>
       </c>
       <c r="E81" s="5">
-        <v>5.0000000000000004E-6</v>
+        <v>1E-4</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="5"/>
-        <v>469.05537459283391</v>
+        <f t="shared" si="4"/>
+        <v>3807692.3076923075</v>
       </c>
       <c r="I81" s="4"/>
-      <c r="X81" s="6"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A82" s="9">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="C82" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D82" s="5">
-        <v>4.7404999999999999E-3</v>
-      </c>
-      <c r="E82" s="5">
-        <v>1.55E-4</v>
-      </c>
-      <c r="F82" s="5">
-        <f t="shared" si="5"/>
-        <v>453.53865625988817</v>
-      </c>
+      <c r="Y81" s="6"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
       <c r="I82" s="4"/>
-      <c r="X82" s="6"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
-        <v>4</v>
+      <c r="Y82" s="6"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="B83" s="2">
-        <v>3.06</v>
-      </c>
-      <c r="C83" s="5">
-        <v>0.01</v>
+        <f>AVERAGE(B67:B81)</f>
+        <v>6.02</v>
       </c>
       <c r="D83" s="5">
-        <v>6.5395000000000002E-3</v>
-      </c>
-      <c r="E83" s="5">
-        <v>6.0000000000000002E-6</v>
-      </c>
+        <f>AVERAGE(D67:D81)</f>
+        <v>1.7133333333333332E-6</v>
+      </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="5">
-        <f t="shared" si="5"/>
-        <v>467.92568239162017</v>
+        <f>AVERAGE(F67:F81)</f>
+        <v>3394887.6612494262</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="1"/>
@@ -11093,500 +10962,453 @@
       <c r="M83" s="3"/>
       <c r="N83" s="9"/>
       <c r="O83" s="3"/>
-      <c r="U83" s="1" t="s">
+      <c r="V83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V83" s="1"/>
       <c r="W83" s="1"/>
-      <c r="X83" s="6">
+      <c r="X83" s="1"/>
+      <c r="Y83" s="6">
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A84" s="9">
-        <v>5</v>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="B84" s="2">
-        <v>3.68</v>
-      </c>
-      <c r="C84" s="5">
-        <v>0.01</v>
+        <f>STDEVA(B67:B81)</f>
+        <v>2.66224126844818</v>
       </c>
       <c r="D84" s="5">
-        <v>7.8584999999999992E-3</v>
-      </c>
-      <c r="E84" s="5">
-        <v>6.9999999999999999E-6</v>
-      </c>
+        <f>STDEVA(D67:D81)</f>
+        <v>6.3680751371494486E-7</v>
+      </c>
+      <c r="E84" s="4"/>
       <c r="F84" s="5">
-        <f t="shared" si="5"/>
-        <v>468.28275116116316</v>
+        <f>STDEVA(F67:F81)</f>
+        <v>394535.0166596687</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="X84" s="6"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
-        <v>6</v>
+      <c r="Y84" s="6"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B85" s="2">
-        <v>4.53</v>
-      </c>
-      <c r="C85" s="5">
-        <v>0.01</v>
+        <f>B84/SQRT(10)</f>
+        <v>0.84187460891920085</v>
       </c>
       <c r="D85" s="5">
-        <v>9.6395000000000005E-3</v>
-      </c>
-      <c r="E85" s="5">
-        <v>6.0000000000000002E-6</v>
-      </c>
+        <f>D84/SQRT(10)</f>
+        <v>2.0137621744481388E-7</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="5">
-        <f t="shared" si="5"/>
-        <v>469.94138700140047</v>
+        <f t="shared" ref="F85" si="5">F84/SQRT(10)</f>
+        <v>124762.92693370297</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="U85" s="1" t="s">
+      <c r="V85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V85" s="1"/>
       <c r="W85" s="1"/>
-      <c r="X85" s="6">
-        <f>SQRT(((1/D96)*B98)^2+(-(B96/(D96^2))*D98)^2)</f>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="6">
+        <f>SQRT(((1/D111)*B113)^2+(-(B111/(D111^2))*D113)^2)</f>
         <v>110.53496611955116</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A86" s="9">
-        <v>7</v>
-      </c>
-      <c r="B86" s="2">
-        <v>5.12</v>
-      </c>
-      <c r="C86" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D86" s="5">
-        <v>1.0932000000000001E-2</v>
-      </c>
-      <c r="E86" s="5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F86" s="5">
-        <f t="shared" si="5"/>
-        <v>468.34979875594581</v>
-      </c>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I86" s="4"/>
-      <c r="X86" s="6"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
-        <v>8</v>
-      </c>
-      <c r="B87" s="2">
-        <v>5.93</v>
-      </c>
-      <c r="C87" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D87" s="5">
-        <v>1.2722499999999999E-2</v>
-      </c>
-      <c r="E87" s="5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="F87" s="5">
-        <f t="shared" si="5"/>
-        <v>466.10336018864217</v>
-      </c>
+      <c r="Y86" s="6"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I87" s="4"/>
-      <c r="U87" s="1" t="s">
+      <c r="V87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V87" s="1"/>
       <c r="W87" s="1"/>
-      <c r="X87" s="6">
+      <c r="X87" s="1"/>
+      <c r="Y87" s="6">
         <f>SLOPE(Tabela516[V (V)],Tabela516[I (A)])</f>
         <v>465.55989729092471</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A88" s="9">
-        <v>9</v>
-      </c>
-      <c r="B88" s="2">
-        <v>6.83</v>
-      </c>
-      <c r="C88" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D88" s="5">
-        <v>1.465E-2</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="5">
-        <f t="shared" si="5"/>
-        <v>466.21160409556313</v>
-      </c>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I88" s="4"/>
-      <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="I89" s="4"/>
+      <c r="V89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="10">
+        <f>((Y83-Y87)/Y83)</f>
+        <v>9.4470270405857242E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I90" s="4"/>
+      <c r="V90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="11">
+        <f>ABS((Y83-F111)/Y83)</f>
+        <v>7.4915092966851629E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A93" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A95" s="17">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1.714E-3</v>
+      </c>
+      <c r="E95" s="5">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="F95" s="5">
+        <f t="shared" ref="F95:F109" si="6">B95/D95</f>
+        <v>472.57876312718787</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A96" s="17">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D96" s="5">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="E96" s="5">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F96" s="5">
+        <f t="shared" si="6"/>
+        <v>469.05537459283391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A97" s="17">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D97" s="5">
+        <v>4.7404999999999999E-3</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1.55E-4</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" si="6"/>
+        <v>453.53865625988817</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A98" s="17">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D98" s="5">
+        <v>6.5395000000000002E-3</v>
+      </c>
+      <c r="E98" s="5">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" si="6"/>
+        <v>467.92568239162017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A99" s="17">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D99" s="5">
+        <v>7.8584999999999992E-3</v>
+      </c>
+      <c r="E99" s="5">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="6"/>
+        <v>468.28275116116316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A100" s="17">
+        <v>6</v>
+      </c>
+      <c r="B100" s="2">
+        <v>4.53</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D100" s="5">
+        <v>9.6395000000000005E-3</v>
+      </c>
+      <c r="E100" s="5">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F100" s="5">
+        <f t="shared" si="6"/>
+        <v>469.94138700140047</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A101" s="17">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1.0932000000000001E-2</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="6"/>
+        <v>468.34979875594581</v>
+      </c>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A102" s="17">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5.93</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1.2722499999999999E-2</v>
+      </c>
+      <c r="E102" s="5">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" si="6"/>
+        <v>466.10336018864217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A103" s="17">
+        <v>9</v>
+      </c>
+      <c r="B103" s="2">
+        <v>6.83</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1.465E-2</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="6"/>
+        <v>466.21160409556313</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="V103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A104" s="17">
         <v>10</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B104" s="2">
         <v>7.14</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C104" s="5">
         <v>0.01</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D104" s="5">
         <v>1.5311999999999999E-2</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E104" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F89" s="5">
-        <f t="shared" si="5"/>
+      <c r="F104" s="5">
+        <f t="shared" si="6"/>
         <v>466.30094043887146</v>
       </c>
-      <c r="I89" s="4"/>
-      <c r="U89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="10">
-        <f>((X83-X87)/X83)</f>
-        <v>9.4470270405857242E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" s="9">
+      <c r="I104" s="4"/>
+      <c r="V104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A105" s="17">
         <v>11</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B105" s="2">
         <v>7.96</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C105" s="5">
         <v>0.01</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D105" s="5">
         <v>1.7070999999999999E-2</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="5">
-        <f t="shared" si="5"/>
+      <c r="F105" s="5">
+        <f t="shared" si="6"/>
         <v>466.28785659891042</v>
       </c>
-      <c r="I90" s="4"/>
-      <c r="U90" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="V90" s="12"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="11">
-        <f>ABS((X83-F96)/X83)</f>
-        <v>7.4915092966851629E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A106" s="17">
         <v>12</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B106" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C106" s="5">
         <v>0.01</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D106" s="5">
         <v>1.8512500000000001E-2</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E106" s="5">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F91" s="5">
-        <f t="shared" si="5"/>
+      <c r="F106" s="5">
+        <f t="shared" si="6"/>
         <v>466.17150573936533</v>
       </c>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A107" s="17">
         <v>13</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B107" s="2">
         <v>9.06</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C107" s="5">
         <v>0.01</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D107" s="5">
         <v>1.9453999999999999E-2</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E107" s="5">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="F92" s="5">
-        <f t="shared" si="5"/>
+      <c r="F107" s="5">
+        <f t="shared" si="6"/>
         <v>465.71399198108361</v>
-      </c>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
-        <v>14</v>
-      </c>
-      <c r="B93" s="2">
-        <v>9.49</v>
-      </c>
-      <c r="C93" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D93" s="5">
-        <v>2.0382000000000001E-2</v>
-      </c>
-      <c r="E93" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F93" s="5">
-        <f t="shared" si="5"/>
-        <v>465.60690805612796</v>
-      </c>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
-        <v>15</v>
-      </c>
-      <c r="B94" s="2">
-        <v>10</v>
-      </c>
-      <c r="C94" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D94" s="5">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="E94" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F94" s="5">
-        <f t="shared" si="5"/>
-        <v>465.11627906976747</v>
-      </c>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="2">
-        <f>AVERAGE(B80:B94)</f>
-        <v>5.7219999999999995</v>
-      </c>
-      <c r="D96" s="5">
-        <f>AVERAGE(D80:D94)</f>
-        <v>1.2273200000000001E-2</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="2">
-        <f>AVERAGE(F80:F94)</f>
-        <v>466.47899063055797</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="2">
-        <f>STDEVA(B80:B94)</f>
-        <v>3.031381580354787</v>
-      </c>
-      <c r="D97" s="5">
-        <f>STDEVA(D80:D94)</f>
-        <v>6.5110933737298335E-3</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="2">
-        <f>STDEVA(F80:F94)</f>
-        <v>4.1032210501884805</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="2">
-        <f>B97/SQRT(10)</f>
-        <v>0.95860702510018592</v>
-      </c>
-      <c r="D98" s="5">
-        <f>D97/SQRT(10)</f>
-        <v>2.0589885119016217E-3</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="2">
-        <f t="shared" ref="F98" si="6">F97/SQRT(10)</f>
-        <v>1.2975524261743667</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="U103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A104" s="9">
-        <v>1</v>
-      </c>
-      <c r="B104" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="C104" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D104" s="7">
-        <v>7.7999999999999999E-5</v>
-      </c>
-      <c r="E104" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F104" s="7">
-        <f t="shared" ref="F104:F118" si="7">B104/D104</f>
-        <v>9871.794871794873</v>
-      </c>
-      <c r="I104" s="4"/>
-      <c r="U104" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A105" s="9">
-        <v>2</v>
-      </c>
-      <c r="B105" s="8">
-        <v>1.48</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" s="7">
-        <v>1.46E-4</v>
-      </c>
-      <c r="E105" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F105" s="7">
-        <f t="shared" si="7"/>
-        <v>10136.986301369863</v>
-      </c>
-      <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A106" s="9">
-        <v>3</v>
-      </c>
-      <c r="B106" s="8">
-        <v>1.81</v>
-      </c>
-      <c r="C106" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D106" s="7">
-        <v>1.7999999999999998E-4</v>
-      </c>
-      <c r="E106" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F106" s="7">
-        <f t="shared" si="7"/>
-        <v>10055.555555555557</v>
-      </c>
-      <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A107" s="9">
-        <v>4</v>
-      </c>
-      <c r="B107" s="8">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="C107" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D107" s="7">
-        <v>2.2700000000000002E-4</v>
-      </c>
-      <c r="E107" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F107" s="7">
-        <f t="shared" si="7"/>
-        <v>10044.052863436122</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="1"/>
@@ -11595,502 +11417,505 @@
       <c r="M107" s="3"/>
       <c r="N107" s="9"/>
       <c r="O107" s="3"/>
-      <c r="U107" s="1" t="s">
+      <c r="V107" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V107" s="1"/>
       <c r="W107" s="1"/>
-      <c r="X107" s="6">
+      <c r="X107" s="1"/>
+      <c r="Y107" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A108" s="9">
-        <v>5</v>
-      </c>
-      <c r="B108" s="8">
-        <v>2.74</v>
-      </c>
-      <c r="C108" s="7">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A108" s="17">
+        <v>14</v>
+      </c>
+      <c r="B108" s="2">
+        <v>9.49</v>
+      </c>
+      <c r="C108" s="5">
         <v>0.01</v>
       </c>
-      <c r="D108" s="7">
-        <v>2.7300000000000002E-4</v>
-      </c>
-      <c r="E108" s="7">
+      <c r="D108" s="5">
+        <v>2.0382000000000001E-2</v>
+      </c>
+      <c r="E108" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F108" s="7">
-        <f t="shared" si="7"/>
-        <v>10036.630036630037</v>
+      <c r="F108" s="5">
+        <f t="shared" si="6"/>
+        <v>465.60690805612796</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-      <c r="X108" s="6"/>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A109" s="9">
-        <v>6</v>
-      </c>
-      <c r="B109" s="8">
-        <v>3.18</v>
-      </c>
-      <c r="C109" s="7">
+      <c r="Y108" s="6"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A109" s="17">
+        <v>15</v>
+      </c>
+      <c r="B109" s="2">
+        <v>10</v>
+      </c>
+      <c r="C109" s="5">
         <v>0.01</v>
       </c>
-      <c r="D109" s="7">
-        <v>3.1700000000000001E-4</v>
-      </c>
-      <c r="E109" s="7">
+      <c r="D109" s="5">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="E109" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F109" s="7">
-        <f t="shared" si="7"/>
-        <v>10031.545741324921</v>
+      <c r="F109" s="5">
+        <f t="shared" si="6"/>
+        <v>465.11627906976747</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-      <c r="U109" s="1" t="s">
+      <c r="V109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V109" s="1"/>
       <c r="W109" s="1"/>
-      <c r="X109" s="6">
-        <f>SQRT(((1/D120)*B122)^2+(-(B120/(D120^2))*D122)^2)</f>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="6">
+        <f>SQRT(((1/D135)*B137)^2+(-(B135/(D135^2))*D137)^2)</f>
         <v>2612.0114556618387</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A110" s="9">
-        <v>7</v>
-      </c>
-      <c r="B110" s="8">
-        <v>3.68</v>
-      </c>
-      <c r="C110" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D110" s="7">
-        <v>3.6600000000000001E-4</v>
-      </c>
-      <c r="E110" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F110" s="7">
-        <f t="shared" si="7"/>
-        <v>10054.644808743169</v>
-      </c>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
       <c r="I110" s="4"/>
-      <c r="X110" s="6"/>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A111" s="9">
-        <v>8</v>
-      </c>
-      <c r="B111" s="8">
-        <v>4.33</v>
-      </c>
-      <c r="C111" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D111" s="7">
-        <v>4.2900000000000002E-4</v>
-      </c>
-      <c r="E111" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F111" s="7">
-        <f t="shared" si="7"/>
-        <v>10093.240093240092</v>
+      <c r="Y110" s="6"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A111" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="2">
+        <f>AVERAGE(B95:B109)</f>
+        <v>5.7219999999999995</v>
+      </c>
+      <c r="D111" s="5">
+        <f>AVERAGE(D95:D109)</f>
+        <v>1.2273200000000001E-2</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="2">
+        <f>AVERAGE(F95:F109)</f>
+        <v>466.47899063055797</v>
       </c>
       <c r="I111" s="4"/>
-      <c r="U111" s="1" t="s">
+      <c r="V111" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V111" s="1"/>
       <c r="W111" s="1"/>
-      <c r="X111" s="6">
+      <c r="X111" s="1"/>
+      <c r="Y111" s="6">
         <f>SLOPE(Tabela517[V (V)],Tabela517[I (A)])</f>
         <v>10057.504745271553</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A112" s="9">
-        <v>9</v>
-      </c>
-      <c r="B112" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="C112" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D112" s="7">
-        <v>4.7599999999999997E-4</v>
-      </c>
-      <c r="E112" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F112" s="7">
-        <f t="shared" si="7"/>
-        <v>10084.033613445379</v>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A112" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2">
+        <f>STDEVA(B95:B109)</f>
+        <v>3.031381580354787</v>
+      </c>
+      <c r="D112" s="5">
+        <f>STDEVA(D95:D109)</f>
+        <v>6.5110933737298335E-3</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="2">
+        <f>STDEVA(F95:F109)</f>
+        <v>4.1032210501884805</v>
       </c>
       <c r="I112" s="4"/>
-      <c r="U112" s="1"/>
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A113" s="9">
+      <c r="X112" s="1"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2">
+        <f>B112/SQRT(10)</f>
+        <v>0.95860702510018592</v>
+      </c>
+      <c r="D113" s="5">
+        <f>D112/SQRT(10)</f>
+        <v>2.0589885119016217E-3</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="2">
+        <f t="shared" ref="F113" si="7">F112/SQRT(10)</f>
+        <v>1.2975524261743667</v>
+      </c>
+      <c r="I113" s="4"/>
+      <c r="V113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="10">
+        <f>ABS((Y107-Y111)/Y107)</f>
+        <v>5.7504745271553474E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I114" s="4"/>
+      <c r="V114" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="11">
+        <f>ABS((Y107-F135)/Y107)</f>
+        <v>5.2067968264465888E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I116" s="4"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A119" s="17">
+        <v>1</v>
+      </c>
+      <c r="B119" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="C119" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D119" s="7">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="E119" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F119" s="7">
+        <f t="shared" ref="F119:F133" si="8">B119/D119</f>
+        <v>9871.794871794873</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A120" s="17">
+        <v>2</v>
+      </c>
+      <c r="B120" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1.46E-4</v>
+      </c>
+      <c r="E120" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F120" s="7">
+        <f t="shared" si="8"/>
+        <v>10136.986301369863</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A121" s="17">
+        <v>3</v>
+      </c>
+      <c r="B121" s="8">
+        <v>1.81</v>
+      </c>
+      <c r="C121" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D121" s="7">
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="E121" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F121" s="7">
+        <f t="shared" si="8"/>
+        <v>10055.555555555557</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A122" s="17">
+        <v>4</v>
+      </c>
+      <c r="B122" s="8">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C122" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D122" s="7">
+        <v>2.2700000000000002E-4</v>
+      </c>
+      <c r="E122" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F122" s="7">
+        <f t="shared" si="8"/>
+        <v>10044.052863436122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A123" s="17">
+        <v>5</v>
+      </c>
+      <c r="B123" s="8">
+        <v>2.74</v>
+      </c>
+      <c r="C123" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D123" s="7">
+        <v>2.7300000000000002E-4</v>
+      </c>
+      <c r="E123" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F123" s="7">
+        <f t="shared" si="8"/>
+        <v>10036.630036630037</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A124" s="17">
+        <v>6</v>
+      </c>
+      <c r="B124" s="8">
+        <v>3.18</v>
+      </c>
+      <c r="C124" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D124" s="7">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="E124" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F124" s="7">
+        <f t="shared" si="8"/>
+        <v>10031.545741324921</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A125" s="17">
+        <v>7</v>
+      </c>
+      <c r="B125" s="8">
+        <v>3.68</v>
+      </c>
+      <c r="C125" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D125" s="7">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="E125" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F125" s="7">
+        <f t="shared" si="8"/>
+        <v>10054.644808743169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A126" s="17">
+        <v>8</v>
+      </c>
+      <c r="B126" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="C126" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D126" s="7">
+        <v>4.2900000000000002E-4</v>
+      </c>
+      <c r="E126" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F126" s="7">
+        <f t="shared" si="8"/>
+        <v>10093.240093240092</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A127" s="17">
+        <v>9</v>
+      </c>
+      <c r="B127" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="C127" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D127" s="7">
+        <v>4.7599999999999997E-4</v>
+      </c>
+      <c r="E127" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F127" s="7">
+        <f t="shared" si="8"/>
+        <v>10084.033613445379</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="V127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A128" s="17">
         <v>10</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B128" s="8">
         <v>5.56</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C128" s="7">
         <v>0.01</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D128" s="7">
         <v>5.5200000000000008E-4</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E128" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F113" s="7">
-        <f t="shared" si="7"/>
+      <c r="F128" s="7">
+        <f t="shared" si="8"/>
         <v>10072.46376811594</v>
       </c>
-      <c r="I113" s="4"/>
-      <c r="U113" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="10">
-        <f>ABS((X107-X111)/X107)</f>
-        <v>5.7504745271553474E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A114" s="9">
+      <c r="I128" s="4"/>
+      <c r="V128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A129" s="17">
         <v>11</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B129" s="8">
         <v>5.96</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C129" s="7">
         <v>0.01</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D129" s="7">
         <v>5.9099999999999995E-4</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E129" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F114" s="7">
-        <f t="shared" si="7"/>
+      <c r="F129" s="7">
+        <f t="shared" si="8"/>
         <v>10084.60236886633</v>
       </c>
-      <c r="I114" s="4"/>
-      <c r="U114" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="V114" s="12"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="11">
-        <f>ABS((X107-F120)/X107)</f>
-        <v>5.2067968264465888E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A115" s="9">
+      <c r="I129" s="4"/>
+      <c r="Y129" s="6"/>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A130" s="17">
         <v>12</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B130" s="8">
         <v>6.8</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C130" s="7">
         <v>0.01</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D130" s="7">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E130" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F115" s="7">
-        <f t="shared" si="7"/>
+      <c r="F130" s="7">
+        <f t="shared" si="8"/>
         <v>10074.074074074073</v>
       </c>
-      <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A116" s="9">
+      <c r="I130" s="4"/>
+      <c r="Y130" s="6"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A131" s="17">
         <v>13</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B131" s="8">
         <v>7.64</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C131" s="7">
         <v>0.01</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D131" s="7">
         <v>7.5799999999999999E-4</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E131" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F116" s="7">
-        <f t="shared" si="7"/>
+      <c r="F131" s="7">
+        <f t="shared" si="8"/>
         <v>10079.155672823219</v>
-      </c>
-      <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A117" s="9">
-        <v>14</v>
-      </c>
-      <c r="B117" s="8">
-        <v>8.44</v>
-      </c>
-      <c r="C117" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D117" s="7">
-        <v>8.4499999999999994E-4</v>
-      </c>
-      <c r="E117" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F117" s="7">
-        <f t="shared" si="7"/>
-        <v>9988.165680473372</v>
-      </c>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A118" s="9">
-        <v>15</v>
-      </c>
-      <c r="B118" s="8">
-        <v>9.52</v>
-      </c>
-      <c r="C118" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D118" s="7">
-        <v>9.4499999999999998E-4</v>
-      </c>
-      <c r="E118" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F118" s="7">
-        <f t="shared" si="7"/>
-        <v>10074.074074074073</v>
-      </c>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="2">
-        <f>AVERAGE(B104:B118)</f>
-        <v>4.5993333333333331</v>
-      </c>
-      <c r="D120" s="5">
-        <f>AVERAGE(D104:D118)</f>
-        <v>4.5719999999999995E-4</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="5">
-        <f>AVERAGE(F104:F118)</f>
-        <v>10052.067968264466</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="2">
-        <f>STDEVA(B104:B118)</f>
-        <v>2.6700708034129166</v>
-      </c>
-      <c r="D121" s="5">
-        <f>STDEVA(D104:D118)</f>
-        <v>2.6547348535884221E-4</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="5">
-        <f>STDEVA(F104:F118)</f>
-        <v>60.017411251811424</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="2">
-        <f>B121/SQRT(10)</f>
-        <v>0.84435052527005017</v>
-      </c>
-      <c r="D122" s="5">
-        <f>D121/SQRT(10)</f>
-        <v>8.3950087211730399E-5</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="5">
-        <f t="shared" ref="F122" si="8">F121/SQRT(10)</f>
-        <v>18.979171882274159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D123" s="6"/>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I127" s="1"/>
-      <c r="U127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="X127" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A128" s="9">
-        <v>1</v>
-      </c>
-      <c r="B128" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="C128" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D128" s="5">
-        <v>2.9999999999999999E-7</v>
-      </c>
-      <c r="E128" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F128" s="5">
-        <f t="shared" ref="F128:F142" si="9">B128/D128</f>
-        <v>3166666.6666666665</v>
-      </c>
-      <c r="I128" s="4"/>
-      <c r="U128" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V128" s="1"/>
-      <c r="W128" s="1"/>
-      <c r="X128" s="6">
-        <v>9.9999999999999995E-8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A129" s="9">
-        <v>2</v>
-      </c>
-      <c r="B129" s="2">
-        <v>1.74</v>
-      </c>
-      <c r="C129" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D129" s="5">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="E129" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F129" s="5">
-        <f t="shared" si="9"/>
-        <v>3480000</v>
-      </c>
-      <c r="I129" s="4"/>
-      <c r="X129" s="6"/>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A130" s="9">
-        <v>3</v>
-      </c>
-      <c r="B130" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="C130" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D130" s="5">
-        <v>7.9999999999999996E-7</v>
-      </c>
-      <c r="E130" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F130" s="5">
-        <f t="shared" si="9"/>
-        <v>3737500.0000000005</v>
-      </c>
-      <c r="I130" s="4"/>
-      <c r="X130" s="6"/>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A131" s="9">
-        <v>4</v>
-      </c>
-      <c r="B131" s="2">
-        <v>4.01</v>
-      </c>
-      <c r="C131" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D131" s="5">
-        <v>1.1000000000000001E-6</v>
-      </c>
-      <c r="E131" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F131" s="5">
-        <f t="shared" si="9"/>
-        <v>3645454.5454545449</v>
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="1"/>
@@ -12099,413 +11924,633 @@
       <c r="M131" s="3"/>
       <c r="N131" s="9"/>
       <c r="O131" s="3"/>
-      <c r="U131" s="1" t="s">
+      <c r="V131" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V131" s="1"/>
       <c r="W131" s="1"/>
-      <c r="X131" s="6">
+      <c r="X131" s="1"/>
+      <c r="Y131" s="6">
         <v>6800000</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A132" s="9">
-        <v>5</v>
-      </c>
-      <c r="B132" s="2">
-        <v>4.58</v>
-      </c>
-      <c r="C132" s="5">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A132" s="17">
+        <v>14</v>
+      </c>
+      <c r="B132" s="8">
+        <v>8.44</v>
+      </c>
+      <c r="C132" s="7">
         <v>0.01</v>
       </c>
-      <c r="D132" s="5">
-        <v>1.1999999999999999E-6</v>
-      </c>
-      <c r="E132" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F132" s="5">
-        <f t="shared" si="9"/>
-        <v>3816666.666666667</v>
+      <c r="D132" s="7">
+        <v>8.4499999999999994E-4</v>
+      </c>
+      <c r="E132" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F132" s="7">
+        <f t="shared" si="8"/>
+        <v>9988.165680473372</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
-      <c r="X132" s="6"/>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A133" s="9">
-        <v>6</v>
-      </c>
-      <c r="B133" s="2">
-        <v>5.52</v>
-      </c>
-      <c r="C133" s="5">
+      <c r="Y132" s="6"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A133" s="17">
+        <v>15</v>
+      </c>
+      <c r="B133" s="8">
+        <v>9.52</v>
+      </c>
+      <c r="C133" s="7">
         <v>0.01</v>
       </c>
-      <c r="D133" s="5">
-        <v>1.5E-6</v>
-      </c>
-      <c r="E133" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F133" s="5">
-        <f t="shared" si="9"/>
-        <v>3679999.9999999995</v>
+      <c r="D133" s="7">
+        <v>9.4499999999999998E-4</v>
+      </c>
+      <c r="E133" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F133" s="7">
+        <f t="shared" si="8"/>
+        <v>10074.074074074073</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
-      <c r="U133" s="1" t="s">
+      <c r="V133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V133" s="1"/>
       <c r="W133" s="1"/>
-      <c r="X133" s="6">
-        <f>SQRT(((1/D144)*B146)^2+(-(B144/(D144^2))*D146)^2)</f>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="6">
+        <f>SQRT(((1/D159)*B161)^2+(-(B159/(D159^2))*D161)^2)</f>
         <v>634526.55757414585</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A134" s="9">
-        <v>7</v>
-      </c>
-      <c r="B134" s="2">
-        <v>6.12</v>
-      </c>
-      <c r="C134" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.5999999999999999E-6</v>
-      </c>
-      <c r="E134" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F134" s="5">
-        <f t="shared" si="9"/>
-        <v>3825000.0000000005</v>
-      </c>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
       <c r="I134" s="4"/>
-      <c r="X134" s="6"/>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A135" s="9">
-        <v>8</v>
+      <c r="Y134" s="6"/>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="B135" s="2">
-        <v>6.54</v>
-      </c>
-      <c r="C135" s="5">
-        <v>0.01</v>
+        <f>AVERAGE(B119:B133)</f>
+        <v>4.5993333333333331</v>
       </c>
       <c r="D135" s="5">
-        <v>1.7E-6</v>
-      </c>
-      <c r="E135" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
+        <f>AVERAGE(D119:D133)</f>
+        <v>4.5719999999999995E-4</v>
+      </c>
+      <c r="E135" s="4"/>
       <c r="F135" s="5">
-        <f t="shared" si="9"/>
-        <v>3847058.8235294116</v>
+        <f>AVERAGE(F119:F133)</f>
+        <v>10052.067968264466</v>
       </c>
       <c r="I135" s="4"/>
-      <c r="U135" s="1" t="s">
+      <c r="V135" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V135" s="1"/>
       <c r="W135" s="1"/>
-      <c r="X135" s="6">
+      <c r="X135" s="1"/>
+      <c r="Y135" s="6">
         <f>SLOPE(Tabela515[V (V)],Tabela515[I (A)])</f>
         <v>4175199.6242367299</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A136" s="9">
-        <v>9</v>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="B136" s="2">
-        <v>7.22</v>
-      </c>
-      <c r="C136" s="5">
-        <v>0.01</v>
+        <f>STDEVA(B119:B133)</f>
+        <v>2.6700708034129166</v>
       </c>
       <c r="D136" s="5">
-        <v>1.7999999999999999E-6</v>
-      </c>
-      <c r="E136" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
+        <f>STDEVA(D119:D133)</f>
+        <v>2.6547348535884221E-4</v>
+      </c>
+      <c r="E136" s="4"/>
       <c r="F136" s="5">
-        <f t="shared" si="9"/>
-        <v>4011111.111111111</v>
+        <f>STDEVA(F119:F133)</f>
+        <v>60.017411251811424</v>
       </c>
       <c r="I136" s="4"/>
-      <c r="U136" s="1"/>
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A137" s="9">
-        <v>10</v>
+      <c r="X136" s="1"/>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B137" s="2">
-        <v>7.66</v>
-      </c>
-      <c r="C137" s="5">
-        <v>0.01</v>
+        <f>B136/SQRT(10)</f>
+        <v>0.84435052527005017</v>
       </c>
       <c r="D137" s="5">
-        <v>1.9E-6</v>
-      </c>
-      <c r="E137" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
+        <f>D136/SQRT(10)</f>
+        <v>8.3950087211730399E-5</v>
+      </c>
+      <c r="E137" s="4"/>
       <c r="F137" s="5">
-        <f t="shared" si="9"/>
-        <v>4031578.9473684211</v>
+        <f t="shared" ref="F137" si="9">F136/SQRT(10)</f>
+        <v>18.979171882274159</v>
       </c>
       <c r="I137" s="4"/>
-      <c r="U137" s="1" t="s">
+      <c r="V137" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V137" s="1"/>
       <c r="W137" s="1"/>
-      <c r="X137" s="10">
-        <f>ABS(X131-X135)/X131</f>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="10">
+        <f>ABS(Y131-Y135)/Y131</f>
         <v>0.38600005525930442</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A138" s="9">
-        <v>11</v>
-      </c>
-      <c r="B138" s="2">
-        <v>8.25</v>
-      </c>
-      <c r="C138" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D138" s="5">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="E138" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F138" s="5">
-        <f t="shared" si="9"/>
-        <v>3928571.4285714291</v>
-      </c>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D138" s="6"/>
       <c r="I138" s="4"/>
-      <c r="U138" s="12" t="s">
+      <c r="V138" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V138" s="12"/>
       <c r="W138" s="12"/>
-      <c r="X138" s="11">
-        <f>ABS(X131-F144)/X131</f>
+      <c r="X138" s="12"/>
+      <c r="Y138" s="11">
+        <f>ABS(Y131-F159)/Y131</f>
         <v>0.44018062833281024</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A139" s="9">
-        <v>12</v>
-      </c>
-      <c r="B139" s="2">
-        <v>8.82</v>
-      </c>
-      <c r="C139" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D139" s="5">
-        <v>2.2000000000000001E-6</v>
-      </c>
-      <c r="E139" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F139" s="5">
-        <f t="shared" si="9"/>
-        <v>4009090.9090909092</v>
-      </c>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I139" s="4"/>
-      <c r="U139" s="12"/>
       <c r="V139" s="12"/>
       <c r="W139" s="12"/>
-      <c r="X139" s="13"/>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A140" s="9">
-        <v>13</v>
-      </c>
-      <c r="B140" s="2">
-        <v>9</v>
-      </c>
-      <c r="C140" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D140" s="5">
-        <v>2.3E-6</v>
-      </c>
-      <c r="E140" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F140" s="5">
-        <f t="shared" si="9"/>
-        <v>3913043.4782608696</v>
-      </c>
+      <c r="X139" s="12"/>
+      <c r="Y139" s="13"/>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I140" s="4"/>
-      <c r="U140" s="1"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A141" s="9">
-        <v>14</v>
-      </c>
-      <c r="B141" s="2">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="C141" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D141" s="5">
-        <v>2.3999999999999999E-6</v>
-      </c>
-      <c r="E141" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F141" s="5">
-        <f t="shared" si="9"/>
-        <v>4045833.333333334</v>
-      </c>
+      <c r="Y140" s="1"/>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A141" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
       <c r="I141" s="4"/>
-      <c r="U141" s="1"/>
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A142" s="9">
-        <v>15</v>
-      </c>
-      <c r="B142" s="2">
-        <v>9.91</v>
-      </c>
-      <c r="C142" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D142" s="5">
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="E142" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F142" s="5">
-        <f t="shared" si="9"/>
-        <v>3963999.9999999995</v>
+      <c r="Y141" s="1"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I142" s="4"/>
-      <c r="U142" s="1"/>
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="U143" s="1"/>
+      <c r="Y142" s="1"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A143" s="17">
+        <v>1</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D143" s="5">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="E143" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" ref="F143:F157" si="10">B143/D143</f>
+        <v>3166666.6666666665</v>
+      </c>
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>6</v>
+      <c r="Y143" s="1"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A144" s="17">
+        <v>2</v>
       </c>
       <c r="B144" s="2">
-        <f>AVERAGE(B128:B142)</f>
-        <v>6.2013333333333343</v>
+        <v>1.74</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.01</v>
       </c>
       <c r="D144" s="5">
-        <f>AVERAGE(D128:D142)</f>
-        <v>1.5933333333333335E-6</v>
-      </c>
-      <c r="E144" s="4"/>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="E144" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
       <c r="F144" s="5">
-        <f>AVERAGE(F128:F142)</f>
-        <v>3806771.7273368905</v>
-      </c>
-      <c r="U144" s="1"/>
+        <f t="shared" si="10"/>
+        <v>3480000</v>
+      </c>
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
-        <v>7</v>
+      <c r="Y144" s="1"/>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A145" s="17">
+        <v>3</v>
       </c>
       <c r="B145" s="2">
-        <f>STDEVA(B128:B142)</f>
-        <v>2.8526450549487934</v>
+        <v>2.99</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.01</v>
       </c>
       <c r="D145" s="5">
-        <f>STDEVA(D128:D142)</f>
-        <v>6.8916789025054048E-7</v>
-      </c>
-      <c r="E145" s="4"/>
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="E145" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
       <c r="F145" s="5">
-        <f>STDEVA(F128:F142)</f>
-        <v>240042.60206381421</v>
-      </c>
-      <c r="U145" s="1"/>
+        <f t="shared" si="10"/>
+        <v>3737500.0000000005</v>
+      </c>
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
-        <v>8</v>
+      <c r="Y145" s="1"/>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A146" s="17">
+        <v>4</v>
       </c>
       <c r="B146" s="2">
-        <f>B145/SQRT(15)</f>
-        <v>0.73654978603050791</v>
+        <v>4.01</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.01</v>
       </c>
       <c r="D146" s="5">
-        <f>D145/SQRT(15)</f>
-        <v>1.7794238411208293E-7</v>
-      </c>
-      <c r="E146" s="4"/>
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="E146" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
       <c r="F146" s="5">
-        <f>F145/SQRT(15)</f>
-        <v>61978.733344896435</v>
-      </c>
-      <c r="U146" s="1"/>
+        <f t="shared" si="10"/>
+        <v>3645454.5454545449</v>
+      </c>
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A147" s="17">
+        <v>5</v>
+      </c>
+      <c r="B147" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D147" s="5">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="E147" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" si="10"/>
+        <v>3816666.666666667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A148" s="17">
+        <v>6</v>
+      </c>
+      <c r="B148" s="2">
+        <v>5.52</v>
+      </c>
+      <c r="C148" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D148" s="5">
+        <v>1.5E-6</v>
+      </c>
+      <c r="E148" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" si="10"/>
+        <v>3679999.9999999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A149" s="17">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="E149" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F149" s="5">
+        <f t="shared" si="10"/>
+        <v>3825000.0000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A150" s="17">
+        <v>8</v>
+      </c>
+      <c r="B150" s="2">
+        <v>6.54</v>
+      </c>
+      <c r="C150" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D150" s="5">
+        <v>1.7E-6</v>
+      </c>
+      <c r="E150" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F150" s="5">
+        <f t="shared" si="10"/>
+        <v>3847058.8235294116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A151" s="17">
+        <v>9</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7.22</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D151" s="5">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="E151" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" si="10"/>
+        <v>4011111.111111111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A152" s="17">
+        <v>10</v>
+      </c>
+      <c r="B152" s="2">
+        <v>7.66</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D152" s="5">
+        <v>1.9E-6</v>
+      </c>
+      <c r="E152" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" si="10"/>
+        <v>4031578.9473684211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A153" s="17">
+        <v>11</v>
+      </c>
+      <c r="B153" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D153" s="5">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="E153" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" si="10"/>
+        <v>3928571.4285714291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A154" s="17">
+        <v>12</v>
+      </c>
+      <c r="B154" s="2">
+        <v>8.82</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D154" s="5">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="E154" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" si="10"/>
+        <v>4009090.9090909092</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A155" s="17">
+        <v>13</v>
+      </c>
+      <c r="B155" s="2">
+        <v>9</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D155" s="5">
+        <v>2.3E-6</v>
+      </c>
+      <c r="E155" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="10"/>
+        <v>3913043.4782608696</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A156" s="17">
+        <v>14</v>
+      </c>
+      <c r="B156" s="2">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D156" s="5">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="E156" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="10"/>
+        <v>4045833.333333334</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A157" s="17">
+        <v>15</v>
+      </c>
+      <c r="B157" s="2">
+        <v>9.91</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D157" s="5">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="E157" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" si="10"/>
+        <v>3963999.9999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A159" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="2">
+        <f>AVERAGE(B143:B157)</f>
+        <v>6.2013333333333343</v>
+      </c>
+      <c r="D159" s="5">
+        <f>AVERAGE(D143:D157)</f>
+        <v>1.5933333333333335E-6</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="5">
+        <f>AVERAGE(F143:F157)</f>
+        <v>3806771.7273368905</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A160" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="2">
+        <f>STDEVA(B143:B157)</f>
+        <v>2.8526450549487934</v>
+      </c>
+      <c r="D160" s="5">
+        <f>STDEVA(D143:D157)</f>
+        <v>6.8916789025054048E-7</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="5">
+        <f>STDEVA(F143:F157)</f>
+        <v>240042.60206381421</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="2">
+        <f>B160/SQRT(15)</f>
+        <v>0.73654978603050791</v>
+      </c>
+      <c r="D161" s="5">
+        <f>D160/SQRT(15)</f>
+        <v>1.7794238411208293E-7</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="5">
+        <f>F160/SQRT(15)</f>
+        <v>61978.733344896435</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T10:W10"/>
+  <mergeCells count="7">
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A126:F126"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="6">
@@ -12529,7 +12574,7 @@
           <xm:f>Folha1!$D$4:$D$18</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{5BE6B1A2-8B0E-4A4B-89F6-D17106E225DD}">
-          <xm:f>Folha1!$V$14:$AE$31</xm:f>
+          <xm:f>Folha1!$W$14:$AF$31</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
@@ -12538,6 +12583,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B52C624EF34AD478A5856EC85ED098F" ma:contentTypeVersion="8" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="13f11bc05279c011ff2d322d3f66fd67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50696793-6437-4e87-ba7e-0fc4fcfbac97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffcb33e49fcbec99d603f857985d8417" ns3:_="">
     <xsd:import namespace="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
@@ -12707,35 +12767,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C452E65F-37E5-422E-B821-5F797BE3DB5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12757,9 +12792,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C452E65F-37E5-422E-B821-5F797BE3DB5D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T2A-Multimetro.xlsx
+++ b/T2A-Multimetro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCE49D8-BEA3-40EF-A665-B2C3851A4A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C78A2ED-30D9-4D59-BBF7-80B5BD34DED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="R3 CA" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -362,6 +362,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,141 +374,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="174">
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -549,10 +426,89 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -580,6 +536,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -594,17 +553,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -645,30 +593,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -688,9 +613,84 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -990,7 +990,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1057,7 +1057,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1150,7 +1150,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1186,7 +1186,7 @@
                   <c:v>8.2874999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9865000000000006E-3</c:v>
+                  <c:v>9.4865000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.04273E-2</c:v>
@@ -1360,7 +1360,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1398,7 +1398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -1484,7 +1484,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1522,7 +1522,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -1574,7 +1574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1611,7 +1611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1625,7 +1625,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1692,7 +1692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1785,7 +1785,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1995,7 +1995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2033,7 +2033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -2119,7 +2119,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2157,7 +2157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -2209,7 +2209,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2246,7 +2246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2260,7 +2260,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2327,7 +2327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2410,7 +2410,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2604,7 +2604,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2642,7 +2642,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -2726,7 +2726,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2764,7 +2764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -2812,7 +2812,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2826,7 +2826,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2893,7 +2893,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2976,7 +2976,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3170,7 +3170,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3208,7 +3208,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -3292,7 +3292,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3330,7 +3330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -3378,7 +3378,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3392,7 +3392,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3459,7 +3459,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3542,7 +3542,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3736,7 +3736,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3774,7 +3774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -3858,7 +3858,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3896,7 +3896,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -3944,7 +3944,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3958,7 +3958,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4025,7 +4025,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4108,7 +4108,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4302,7 +4302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4340,7 +4340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -4424,7 +4424,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4462,7 +4462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -4510,7 +4510,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4524,7 +4524,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4591,7 +4591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4674,7 +4674,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4868,7 +4868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4906,7 +4906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -4990,7 +4990,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5028,7 +5028,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -5076,7 +5076,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5090,7 +5090,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5127,7 +5127,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5355,7 +5355,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5393,7 +5393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -5447,7 +5447,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5485,7 +5485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -5537,7 +5537,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5574,7 +5574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5588,7 +5588,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5655,7 +5655,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5738,7 +5738,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5932,7 +5932,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5970,7 +5970,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -6054,7 +6054,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6092,7 +6092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -6140,7 +6140,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6154,7 +6154,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6221,7 +6221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6304,7 +6304,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6498,7 +6498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6536,7 +6536,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -6620,7 +6620,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6658,7 +6658,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -6706,7 +6706,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6720,7 +6720,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6787,7 +6787,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6870,7 +6870,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7064,7 +7064,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7102,7 +7102,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -7186,7 +7186,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7224,7 +7224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -7272,7 +7272,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7286,7 +7286,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7353,7 +7353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7436,7 +7436,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7630,7 +7630,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7668,7 +7668,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -7752,7 +7752,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7790,7 +7790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -7838,7 +7838,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7852,7 +7852,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7919,7 +7919,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8002,7 +8002,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8196,7 +8196,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8234,7 +8234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -8318,7 +8318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8356,7 +8356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -8404,7 +8404,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8418,7 +8418,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8455,7 +8455,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8540,7 +8540,7 @@
                   <c:v>8.2874999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9865000000000006E-3</c:v>
+                  <c:v>9.4865000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.04273E-2</c:v>
@@ -8570,49 +8570,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.4298058739939945E-3</c:v>
+                  <c:v>-6.1797212596539364E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4320499910607314E-3</c:v>
+                  <c:v>1.1579992574330955E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7751546043092201E-3</c:v>
+                  <c:v>-1.7245049399310375E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5244914862508905E-2</c:v>
+                  <c:v>1.4566375253720398E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9241664668788765E-3</c:v>
+                  <c:v>-6.9034239340917125E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8344898825873646E-2</c:v>
+                  <c:v>5.4018297415443506E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1543658308986959E-2</c:v>
+                  <c:v>-2.5887254142547E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7815106761859489E-2</c:v>
+                  <c:v>2.5497777851284376E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.2309273189850316</c:v>
+                  <c:v>-1.5432937866028063E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.443603518257941E-2</c:v>
+                  <c:v>-3.2562396880537747E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8592276710827988E-2</c:v>
+                  <c:v>1.961530158128344E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8719783802793266E-2</c:v>
+                  <c:v>-1.6250279227154607E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5911000532183195E-2</c:v>
+                  <c:v>-5.6133717735944444E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0567758465123376E-2</c:v>
+                  <c:v>-2.1667976282930823E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.619070859605177E-2</c:v>
+                  <c:v>2.1994668075038248E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8683,7 +8683,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8721,7 +8721,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -8775,7 +8775,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8813,7 +8813,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -8865,7 +8865,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8902,7 +8902,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8916,7 +8916,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8983,7 +8983,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9076,7 +9076,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9286,7 +9286,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9324,7 +9324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -9410,7 +9410,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9448,7 +9448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -9500,7 +9500,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9537,7 +9537,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9551,7 +9551,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9588,7 +9588,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9816,7 +9816,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9854,7 +9854,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -9908,7 +9908,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9946,7 +9946,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -9998,7 +9998,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10035,7 +10035,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19562,21 +19562,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3A41102B-D886-4686-BF43-25DC255C159F}" name="Tabela59" displayName="Tabela59" ref="A3:H18" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3A41102B-D886-4686-BF43-25DC255C159F}" name="Tabela59" displayName="Tabela59" ref="A3:H18" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A3:H18" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CB1610DE-1A75-4964-BFFA-797C860127B9}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="75" totalsRowDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{F3523595-9BBC-45DC-A437-8DABC8389766}" name="V (V)" dataDxfId="73" totalsRowDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{853C39B3-3EDC-49EA-8062-B2FEFCA58DCD}" name="u(V)" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{D52C3B05-232E-49DC-BE05-A51CCC35DC34}" name="I (A)" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{8D363E62-2DBC-4599-80C5-9E8B05567846}" name="u(I)" dataDxfId="69" totalsRowDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{BFA14C47-C72D-4F33-9331-0ED77D6F7655}" name="R (Ω)" totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="68">
+    <tableColumn id="1" xr3:uid="{CB1610DE-1A75-4964-BFFA-797C860127B9}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{F3523595-9BBC-45DC-A437-8DABC8389766}" name="V (V)" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="5" xr3:uid="{853C39B3-3EDC-49EA-8062-B2FEFCA58DCD}" name="u(V)" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{D52C3B05-232E-49DC-BE05-A51CCC35DC34}" name="I (A)" dataDxfId="166"/>
+    <tableColumn id="6" xr3:uid="{8D363E62-2DBC-4599-80C5-9E8B05567846}" name="u(I)" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="4" xr3:uid="{BFA14C47-C72D-4F33-9331-0ED77D6F7655}" name="R (Ω)" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162">
       <calculatedColumnFormula>B4/D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{59D677C7-6DE3-408F-B24F-DBC917BCB1DC}" name="Fit" dataDxfId="65" totalsRowDxfId="66">
+    <tableColumn id="8" xr3:uid="{59D677C7-6DE3-408F-B24F-DBC917BCB1DC}" name="Fit" dataDxfId="161" totalsRowDxfId="160">
       <calculatedColumnFormula>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FB81627E-5E76-4944-8A75-10E635C1D839}" name="Residuo" dataDxfId="63" totalsRowDxfId="64">
+    <tableColumn id="9" xr3:uid="{FB81627E-5E76-4944-8A75-10E635C1D839}" name="Residuo" dataDxfId="159" totalsRowDxfId="158">
       <calculatedColumnFormula>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19585,15 +19585,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}" name="Tabela515" displayName="Tabela515" ref="A66:F81" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}" name="Tabela515" displayName="Tabela515" ref="A66:F81" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A66:F81" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{42A0E4D7-25BB-48A1-879F-59A29E5FDEC0}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{47CBB6DA-76E3-4208-B8AC-53ED1356227C}" name="V (V)" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="7" xr3:uid="{339EC1BF-6347-49FE-8C68-674FFE212D24}" name="u(V)" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{D546E76A-468E-464B-A2CB-4F07756EC755}" name="I (A)" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{26E97079-5B7D-4585-A322-17562E32181D}" name="u(I)" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{9B5FBD40-E7C9-4AF1-B58C-93484A227F08}" name="R (Ω)" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="1" xr3:uid="{42A0E4D7-25BB-48A1-879F-59A29E5FDEC0}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{47CBB6DA-76E3-4208-B8AC-53ED1356227C}" name="V (V)" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{339EC1BF-6347-49FE-8C68-674FFE212D24}" name="u(V)" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{D546E76A-468E-464B-A2CB-4F07756EC755}" name="I (A)" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{26E97079-5B7D-4585-A322-17562E32181D}" name="u(I)" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{9B5FBD40-E7C9-4AF1-B58C-93484A227F08}" name="R (Ω)" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>B67/D67</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19602,15 +19602,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}" name="Tabela516" displayName="Tabela516" ref="A94:F109" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}" name="Tabela516" displayName="Tabela516" ref="A94:F109" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A94:F109" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DA8929B6-8358-4286-BBE7-87E237EAAF4B}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{AB952BEB-A90E-4961-B158-2A68B404E244}" name="V (V)" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="5" xr3:uid="{DBBC59F9-D98C-4686-97C1-BEE96C71F346}" name="u(V)" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{8245E335-11B5-4743-B73E-528AAAF1A734}" name="I (A)" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{7F838851-7F2E-40AB-96BC-7EA7E1DA6457}" name="u(I)" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{A7DC4E2F-8B36-4153-B12F-2CB9A0F3C0FE}" name="R (Ω)" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="1" xr3:uid="{DA8929B6-8358-4286-BBE7-87E237EAAF4B}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{AB952BEB-A90E-4961-B158-2A68B404E244}" name="V (V)" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{DBBC59F9-D98C-4686-97C1-BEE96C71F346}" name="u(V)" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{8245E335-11B5-4743-B73E-528AAAF1A734}" name="I (A)" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{7F838851-7F2E-40AB-96BC-7EA7E1DA6457}" name="u(I)" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{A7DC4E2F-8B36-4153-B12F-2CB9A0F3C0FE}" name="R (Ω)" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>B95/D95</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19619,15 +19619,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}" name="Tabela517" displayName="Tabela517" ref="A118:F133" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}" name="Tabela517" displayName="Tabela517" ref="A118:F133" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A118:F133" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E5653933-D5F0-40E0-9126-7D5C5E6E076F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{4047F096-802D-4A82-8556-4FDCD1CBA596}" name="V (V)" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{39BCB85A-98A6-4169-ABBD-53EC7B090C38}" name="u(V)" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{6A2E6146-0EF7-407B-BF4F-00BD8FF043CE}" name="I (A)" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{527997B1-B87F-41CF-8B06-19A40E1B12DD}" name="u(I)" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{5A9E15A7-8097-42C6-A5E9-38F4A78C1117}" name="R (Ω)" totalsRowFunction="count" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="1" xr3:uid="{E5653933-D5F0-40E0-9126-7D5C5E6E076F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{4047F096-802D-4A82-8556-4FDCD1CBA596}" name="V (V)" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{39BCB85A-98A6-4169-ABBD-53EC7B090C38}" name="u(V)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{6A2E6146-0EF7-407B-BF4F-00BD8FF043CE}" name="I (A)" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{527997B1-B87F-41CF-8B06-19A40E1B12DD}" name="u(I)" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{5A9E15A7-8097-42C6-A5E9-38F4A78C1117}" name="R (Ω)" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>B119/D119</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19636,15 +19636,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}" name="Tabela518" displayName="Tabela518" ref="A142:F157" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}" name="Tabela518" displayName="Tabela518" ref="A142:F157" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A142:F157" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FF1DBC2D-D6EA-47E0-9253-0394DF3401A6}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{E8262805-4EA5-4DDE-9F58-1568CDE64B65}" name="V (V)" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{A83FC60C-ADB5-4B27-B59A-4BF99A9A0315}" name="u(V)" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{4DCE768E-96BA-4F88-9C29-8BC5D79A7E60}" name="I (A)" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{FB7AB7EF-F243-4E85-AE65-90CC109B64B6}" name="u(I)" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{DC14564C-AA8B-4953-90CB-3874FB98E31D}" name="R (Ω)" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="1" xr3:uid="{FF1DBC2D-D6EA-47E0-9253-0394DF3401A6}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E8262805-4EA5-4DDE-9F58-1568CDE64B65}" name="V (V)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A83FC60C-ADB5-4B27-B59A-4BF99A9A0315}" name="u(V)" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4DCE768E-96BA-4F88-9C29-8BC5D79A7E60}" name="I (A)" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FB7AB7EF-F243-4E85-AE65-90CC109B64B6}" name="u(I)" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DC14564C-AA8B-4953-90CB-3874FB98E31D}" name="R (Ω)" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>B143/D143</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19653,15 +19653,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F3DD7421-EF1D-4BC0-8ED9-A63BFB06AB19}" name="Tabela51310" displayName="Tabela51310" ref="A42:F57" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F3DD7421-EF1D-4BC0-8ED9-A63BFB06AB19}" name="Tabela51310" displayName="Tabela51310" ref="A42:F57" headerRowDxfId="157" dataDxfId="156">
   <autoFilter ref="A42:F57" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{07A8A6C3-C48C-472A-B73E-5F4F78F3C49F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{AD6068E0-E33D-49DE-8748-9EC06B048742}" name="Voltagem" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{D27F5606-502B-4B26-9671-119A8AF7B13C}" name="u(V)" dataDxfId="57" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{F84C2BE2-E9FC-490C-A387-C7753C934DE3}" name="Corrente Elétrica" dataDxfId="55" totalsRowDxfId="56" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{30FE2DB4-9B0E-41CF-A523-DA0892F17A5D}" name="u(I)" dataDxfId="53" totalsRowDxfId="54" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{4AB4A32D-D819-4065-AB35-819B8222419F}" name="Resistência" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="52" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{07A8A6C3-C48C-472A-B73E-5F4F78F3C49F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{AD6068E0-E33D-49DE-8748-9EC06B048742}" name="Voltagem" dataDxfId="153"/>
+    <tableColumn id="5" xr3:uid="{D27F5606-502B-4B26-9671-119A8AF7B13C}" name="u(V)" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{F84C2BE2-E9FC-490C-A387-C7753C934DE3}" name="Corrente Elétrica" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="6" xr3:uid="{30FE2DB4-9B0E-41CF-A523-DA0892F17A5D}" name="u(I)" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="4" xr3:uid="{4AB4A32D-D819-4065-AB35-819B8222419F}" name="Resistência" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146">
       <calculatedColumnFormula>B43/D43</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19670,15 +19670,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E8A953DC-A322-498F-A19B-B21F7F0E15C9}" name="Tabela51511" displayName="Tabela51511" ref="A66:F81" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E8A953DC-A322-498F-A19B-B21F7F0E15C9}" name="Tabela51511" displayName="Tabela51511" ref="A66:F81" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A66:F81" xr:uid="{21B89758-6540-410C-9D6E-6615E7F30F73}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{58A63172-0AA3-46AC-A45A-6243BE068E61}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{DD0C36DC-EA3A-4FA0-B77E-D87A6463B3A8}" name="V (V)" dataDxfId="45" totalsRowDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{31BCB860-8337-41A0-8CFD-B654BE8F9A90}" name="u(V)" dataDxfId="43" totalsRowDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{6AAF4455-2C20-43F4-9CA2-F4CD29A28986}" name="I (A)" dataDxfId="41" totalsRowDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{6FAFA2B3-B9B9-46E1-A1F7-04DDF582A622}" name="u(I)" dataDxfId="39" totalsRowDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{08ED0521-254A-488E-8CCD-19886B3E1098}" name="R (Ω)" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="38">
+    <tableColumn id="1" xr3:uid="{58A63172-0AA3-46AC-A45A-6243BE068E61}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{DD0C36DC-EA3A-4FA0-B77E-D87A6463B3A8}" name="V (V)" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{31BCB860-8337-41A0-8CFD-B654BE8F9A90}" name="u(V)" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{6AAF4455-2C20-43F4-9CA2-F4CD29A28986}" name="I (A)" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{6FAFA2B3-B9B9-46E1-A1F7-04DDF582A622}" name="u(I)" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{08ED0521-254A-488E-8CCD-19886B3E1098}" name="R (Ω)" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>B67/D67</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19687,15 +19687,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3996FF49-DD34-465F-966F-1C7437438535}" name="Tabela51612" displayName="Tabela51612" ref="A94:F109" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3996FF49-DD34-465F-966F-1C7437438535}" name="Tabela51612" displayName="Tabela51612" ref="A94:F109" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A94:F109" xr:uid="{A42DD33C-4153-4F72-9A4D-037FCE993F86}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11C5B112-D974-4C55-9970-027ACEA5FEAD}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{34853D8C-4337-4F6F-956B-8DFD2BCA0BF5}" name="V (V)" dataDxfId="31" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{90C9AF6F-366F-4C36-B500-1ED65EFD0A21}" name="u(V)" dataDxfId="29" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{904F08DC-67B7-4E57-B105-C7CCDD215F90}" name="I (A)" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{9C8B4467-27A2-4804-B223-FCFB4FEE2EFC}" name="u(I)" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{118CCBA4-C9EB-4EC1-99BD-3C0399EFAB58}" name="R (Ω)" totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{11C5B112-D974-4C55-9970-027ACEA5FEAD}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{34853D8C-4337-4F6F-956B-8DFD2BCA0BF5}" name="V (V)" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="5" xr3:uid="{90C9AF6F-366F-4C36-B500-1ED65EFD0A21}" name="u(V)" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{904F08DC-67B7-4E57-B105-C7CCDD215F90}" name="I (A)" dataDxfId="123"/>
+    <tableColumn id="6" xr3:uid="{9C8B4467-27A2-4804-B223-FCFB4FEE2EFC}" name="u(I)" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{118CCBA4-C9EB-4EC1-99BD-3C0399EFAB58}" name="R (Ω)" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>B95/D95</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19704,15 +19704,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B4A462F6-E635-43C5-99E5-0FFFA21445F0}" name="Tabela51714" displayName="Tabela51714" ref="A118:F133" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B4A462F6-E635-43C5-99E5-0FFFA21445F0}" name="Tabela51714" displayName="Tabela51714" ref="A118:F133" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A118:F133" xr:uid="{3535E9FF-E56C-4068-8E82-CCB88E5535D2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87AD16E2-2F45-43EF-A323-0101A8C476AD}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{EBDF0055-4C91-4169-90EC-EE1E4EB4BF6C}" name="V (V)" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{100FA3B4-C550-403E-B6D6-960B86BF9264}" name="u(V)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{217C370D-B825-4D5C-A00E-04B64F51BFC3}" name="I (A)" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{29666DD6-31F2-4143-AEEE-A351F4B13B5C}" name="u(I)" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{02C734A3-8EB5-42B6-A669-A909A7173DB0}" name="R (Ω)" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{87AD16E2-2F45-43EF-A323-0101A8C476AD}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{EBDF0055-4C91-4169-90EC-EE1E4EB4BF6C}" name="V (V)" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{100FA3B4-C550-403E-B6D6-960B86BF9264}" name="u(V)" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{217C370D-B825-4D5C-A00E-04B64F51BFC3}" name="I (A)" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{29666DD6-31F2-4143-AEEE-A351F4B13B5C}" name="u(I)" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{02C734A3-8EB5-42B6-A669-A909A7173DB0}" name="R (Ω)" totalsRowFunction="count" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>B119/D119</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19721,15 +19721,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{974B8708-D7FD-4A0E-BB9E-EB86AA70760A}" name="Tabela51819" displayName="Tabela51819" ref="A142:F157" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{974B8708-D7FD-4A0E-BB9E-EB86AA70760A}" name="Tabela51819" displayName="Tabela51819" ref="A142:F157" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A142:F157" xr:uid="{BCC2E761-7EDB-4227-A85C-DDC7184409AF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73228F04-746F-4954-AD0B-F27C277BAE4F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{D7562051-8DA5-44A7-B4AF-DA43BD9254F6}" name="V (V)" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{6B85E416-3514-455F-B4B3-853BD4259D44}" name="u(V)" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{A5F6B675-05FF-48A7-A6D9-0F1837340B02}" name="I (A)" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F3DEE24F-E173-4F3D-9CD4-1088CEF3EDB6}" name="u(I)" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A8BDF2D1-A40F-4636-A48B-41C95EB27F79}" name="R (Ω)" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{73228F04-746F-4954-AD0B-F27C277BAE4F}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{D7562051-8DA5-44A7-B4AF-DA43BD9254F6}" name="V (V)" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{6B85E416-3514-455F-B4B3-853BD4259D44}" name="u(V)" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{A5F6B675-05FF-48A7-A6D9-0F1837340B02}" name="I (A)" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{F3DEE24F-E173-4F3D-9CD4-1088CEF3EDB6}" name="u(I)" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{A8BDF2D1-A40F-4636-A48B-41C95EB27F79}" name="R (Ω)" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>B143/D143</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19741,18 +19741,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E381089C-760B-462C-AB9E-689E83BCD178}" name="Tabela52" displayName="Tabela52" ref="A3:H18" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A3:H18" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C435C4C2-AD8B-4A0D-8142-885D37A761EF}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="84" totalsRowDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{6B35960F-D78D-4095-8E3D-043220512137}" name="V (V)" dataDxfId="83" totalsRowDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{031EBECC-806A-461A-AB65-77E7C29FBD0C}" name="u(V)" dataDxfId="82" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{1FA96904-73C1-478B-9F6A-51FD7892E2E7}" name="I (A)" dataDxfId="81" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{34147ADB-8798-43D2-BFFA-00E5D3131EDA}" name="u(I)" dataDxfId="80" totalsRowDxfId="90" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{6B9C80B7-684C-49A0-A019-D59C4D0F8B19}" name="R (Ω)" totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="89" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{C435C4C2-AD8B-4A0D-8142-885D37A761EF}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{6B35960F-D78D-4095-8E3D-043220512137}" name="V (V)" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{031EBECC-806A-461A-AB65-77E7C29FBD0C}" name="u(V)" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{1FA96904-73C1-478B-9F6A-51FD7892E2E7}" name="I (A)" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{34147ADB-8798-43D2-BFFA-00E5D3131EDA}" name="u(I)" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{6B9C80B7-684C-49A0-A019-D59C4D0F8B19}" name="R (Ω)" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula>B4/D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D11CAD9A-864D-4A63-AE75-7C81DDEF3CF3}" name="Fit" dataDxfId="87" totalsRowDxfId="88">
+    <tableColumn id="8" xr3:uid="{D11CAD9A-864D-4A63-AE75-7C81DDEF3CF3}" name="Fit" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>$J$4*Tabela52[[#This Row],[I (A)]]+$K$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{81B39A70-B15B-4519-A957-7D0ADA3F6F0B}" name="Residuo" dataDxfId="85" totalsRowDxfId="86">
+    <tableColumn id="9" xr3:uid="{81B39A70-B15B-4519-A957-7D0ADA3F6F0B}" name="Residuo" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>Tabela52[[#This Row],[V (V)]]-Tabela52[[#This Row],[Fit]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19761,21 +19761,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}" name="Tabela5" displayName="Tabela5" ref="A3:H18" headerRowDxfId="173" dataDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}" name="Tabela5" displayName="Tabela5" ref="A3:H18" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A3:H18" xr:uid="{9C5B2E42-3817-413B-9C33-33DD89DD5E35}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9DD51987-C1BC-4ED6-8FEC-B5E9EEBD87E4}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="2" xr3:uid="{15D1FA17-1AE6-4DD2-8292-D64CE9308936}" name="V (V)" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="5" xr3:uid="{7C02DDDF-3141-4D0A-9AF5-518B2A531A4C}" name="u(V)" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{5BFB6233-8250-4878-B204-A8C660E33AB0}" name="I (A)" dataDxfId="166"/>
-    <tableColumn id="6" xr3:uid="{D00D6C69-A1D9-4D13-9A2F-60BE40695798}" name="u(I)" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="4" xr3:uid="{419C236C-08C9-42EB-933C-7880265CDDD8}" name="R (Ω)" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162">
+    <tableColumn id="1" xr3:uid="{9DD51987-C1BC-4ED6-8FEC-B5E9EEBD87E4}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{15D1FA17-1AE6-4DD2-8292-D64CE9308936}" name="V (V)" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{7C02DDDF-3141-4D0A-9AF5-518B2A531A4C}" name="u(V)" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{5BFB6233-8250-4878-B204-A8C660E33AB0}" name="I (A)" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{D00D6C69-A1D9-4D13-9A2F-60BE40695798}" name="u(I)" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{419C236C-08C9-42EB-933C-7880265CDDD8}" name="R (Ω)" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>B4/D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5D26FCBD-106E-427B-AC75-BD87B08904B4}" name="Fit" dataDxfId="161" totalsRowDxfId="160">
+    <tableColumn id="8" xr3:uid="{5D26FCBD-106E-427B-AC75-BD87B08904B4}" name="Fit" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>$J$4*Tabela5[[#This Row],[I (A)]]+$K$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4F6967FE-8E66-46D5-89AC-72983E1166AF}" name="Residuo" dataDxfId="159" totalsRowDxfId="158">
+    <tableColumn id="9" xr3:uid="{4F6967FE-8E66-46D5-89AC-72983E1166AF}" name="Residuo" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>Tabela5[[#This Row],[V (V)]]-Tabela5[[#This Row],[Fit]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19784,15 +19784,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}" name="Tabela513" displayName="Tabela513" ref="A42:F57" headerRowDxfId="157" dataDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}" name="Tabela513" displayName="Tabela513" ref="A42:F57" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A42:F57" xr:uid="{69947E35-7A5F-4B7A-83C9-EDC56314766C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{71843C50-F2B2-4812-B490-8BF118C0297E}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{991DA961-5670-4F45-9567-BEB5B16C9F9F}" name="Voltagem" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{D016CBE5-CAE9-43D8-BDA7-51C54CA2663A}" name="u(V)" dataDxfId="152" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{D8270B4F-B072-4BED-8F6B-32BF8798E9F7}" name="Corrente Elétrica" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{ADFD343F-0A14-4F6B-B60A-AC165360EBBD}" name="u(I)" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{9EAEEDAC-6D0F-473B-A32D-883D869F1ED1}" name="Resistência" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{71843C50-F2B2-4812-B490-8BF118C0297E}" name="Numero de Medição" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{991DA961-5670-4F45-9567-BEB5B16C9F9F}" name="Voltagem" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{D016CBE5-CAE9-43D8-BDA7-51C54CA2663A}" name="u(V)" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{D8270B4F-B072-4BED-8F6B-32BF8798E9F7}" name="Corrente Elétrica" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{ADFD343F-0A14-4F6B-B60A-AC165360EBBD}" name="u(I)" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{9EAEEDAC-6D0F-473B-A32D-883D869F1ED1}" name="Resistência" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>B43/D43</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19801,7 +19801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -20124,8 +20124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC59787-5A62-4C9E-A40B-31623266B0E9}">
   <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20182,10 +20182,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
@@ -20209,19 +20209,19 @@
       </c>
       <c r="G4" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>0.71857019412600598</v>
+        <v>0.72617972125965391</v>
       </c>
       <c r="H4" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>1.4298058739939945E-3</v>
+        <v>-6.1797212596539364E-3</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="31" cm="1">
         <f t="array" ref="J4:K8">LINEST(Tabela59[V (V)],Tabela59[I (A)],TRUE,TRUE)</f>
-        <v>464.23921468327922</v>
+        <v>465.37340754892119</v>
       </c>
       <c r="K4" s="31">
-        <v>4.8024015504641859E-3</v>
+        <v>1.0668107153187556E-2</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -20246,18 +20246,18 @@
       </c>
       <c r="G5" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>0.99056795000893927</v>
+        <v>0.9988420007425669</v>
       </c>
       <c r="H5" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>9.4320499910607314E-3</v>
+        <v>1.1579992574330955E-3</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="31">
-        <v>3.8006521695006943</v>
+        <v>0.50404609178452187</v>
       </c>
       <c r="K5" s="31">
-        <v>3.6662496657451686E-2</v>
+        <v>4.8452268459604148E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -20282,18 +20282,18 @@
       </c>
       <c r="G6" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>1.4922248453956908</v>
+        <v>1.501724504939931</v>
       </c>
       <c r="H6" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>7.7751546043092201E-3</v>
+        <v>-1.7245049399310375E-3</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="31">
-        <v>0.99912944199347653</v>
+        <v>0.9999847498503176</v>
       </c>
       <c r="K6" s="31">
-        <v>6.6989062946331016E-2</v>
+        <v>8.8662934058695349E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -20318,15 +20318,15 @@
       </c>
       <c r="G7" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>1.9747550851374911</v>
+        <v>1.9854336247462796</v>
       </c>
       <c r="H7" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>2.5244914862508905E-2</v>
+        <v>1.4566375253720398E-2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="31">
-        <v>14919.950937885862</v>
+        <v>852437.6493893984</v>
       </c>
       <c r="K7" s="31">
         <v>13</v>
@@ -20363,18 +20363,18 @@
       </c>
       <c r="G8" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>2.4450758335331213</v>
+        <v>2.4569034239340919</v>
       </c>
       <c r="H8" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>4.9241664668788765E-3</v>
+        <v>-6.9034239340917125E-3</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="31">
-        <v>66.953795384125769</v>
+        <v>67.011111388269455</v>
       </c>
       <c r="K8" s="31">
-        <v>5.8337949207557478E-2</v>
+        <v>1.0219450638665529E-3</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -20402,11 +20402,11 @@
       </c>
       <c r="G9" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>2.9016551011741263</v>
+        <v>2.9145981702584556</v>
       </c>
       <c r="H9" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>1.8344898825873646E-2</v>
+        <v>5.4018297415443506E-3</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -20437,11 +20437,11 @@
       </c>
       <c r="G10" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>3.388456341691013</v>
+        <v>3.4025887254142546</v>
       </c>
       <c r="H10" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>1.1543658308986959E-2</v>
+        <v>-2.5887254142547E-3</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -20469,11 +20469,11 @@
       </c>
       <c r="G11" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>3.8521848932381406</v>
+        <v>3.8674502222148717</v>
       </c>
       <c r="H11" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>1.7815106761859489E-2</v>
+        <v>2.5497777851284376E-3</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="23" t="s">
@@ -20496,22 +20496,22 @@
         <v>0.01</v>
       </c>
       <c r="D12" s="5">
-        <v>9.9865000000000006E-3</v>
+        <v>9.4865000000000001E-3</v>
       </c>
       <c r="E12" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>441.59615480899214</v>
+        <v>464.87113266220422</v>
       </c>
       <c r="G12" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>4.6409273189850317</v>
+        <v>4.4254329378660282</v>
       </c>
       <c r="H12" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>-0.2309273189850316</v>
+        <v>-1.5432937866028063E-2</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="23" t="s">
@@ -20545,17 +20545,17 @@
       </c>
       <c r="G13" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>4.8455639648174209</v>
+        <v>4.8632562396880541</v>
       </c>
       <c r="H13" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>1.443603518257941E-2</v>
+        <v>-3.2562396880537747E-3</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
@@ -20583,11 +20583,11 @@
       </c>
       <c r="G14" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>5.3714077232891722</v>
+        <v>5.3903846984187167</v>
       </c>
       <c r="H14" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>3.8592276710827988E-2</v>
+        <v>1.961530158128344E-2</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="23" t="s">
@@ -20621,17 +20621,17 @@
       </c>
       <c r="G15" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>5.9312802161972069</v>
+        <v>5.9516250279227156</v>
       </c>
       <c r="H15" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>1.8719783802793266E-2</v>
+        <v>-1.6250279227154607E-3</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
@@ -20655,11 +20655,11 @@
       </c>
       <c r="G16" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>6.4140889994678165</v>
+        <v>6.4356133717735942</v>
       </c>
       <c r="H16" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>1.5911000532183195E-2</v>
+        <v>-5.6133717735944444E-3</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="23" t="s">
@@ -20669,7 +20669,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="24">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
-        <v>115.08094791750561</v>
+        <v>115.64457411168775</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -20694,17 +20694,17 @@
       </c>
       <c r="G17" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>6.9094322415348763</v>
+        <v>6.9321667976282928</v>
       </c>
       <c r="H17" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>2.0567758465123376E-2</v>
+        <v>-2.1667976282930823E-3</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
@@ -20728,11 +20728,11 @@
       </c>
       <c r="G18" s="2">
         <f>$J$4*Tabela59[[#This Row],[I (A)]]+$K$4</f>
-        <v>7.4238092914039484</v>
+        <v>7.4478005331924964</v>
       </c>
       <c r="H18" s="2">
         <f>Tabela59[[#This Row],[V (V)]]-Tabela59[[#This Row],[Fit]]</f>
-        <v>2.619070859605177E-2</v>
+        <v>2.1994668075038248E-3</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="23" t="s">
@@ -20742,7 +20742,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="24">
         <f>SLOPE(Tabela59[V (V)],Tabela59[I (A)])</f>
-        <v>464.23921468327904</v>
+        <v>465.37340754892131</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -20751,10 +20751,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -20767,12 +20767,12 @@
       <c r="C20" s="20"/>
       <c r="D20" s="21">
         <f>AVERAGE(D4:D18)</f>
-        <v>8.5053799999999999E-3</v>
+        <v>8.4720466666666668E-3</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21">
         <f>AVERAGE(F4:F18)</f>
-        <v>465.72182530433201</v>
+        <v>467.27349049454619</v>
       </c>
       <c r="J20" s="23" t="s">
         <v>23</v>
@@ -20781,7 +20781,7 @@
       <c r="L20" s="23"/>
       <c r="M20" s="25">
         <f>ABS((M14-M18)/M14)</f>
-        <v>1.2256990035576501E-2</v>
+        <v>9.8438137256993477E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -20795,12 +20795,12 @@
       <c r="C21" s="20"/>
       <c r="D21" s="21">
         <f>STDEVA(D4:D18)</f>
-        <v>4.7106600023169333E-3</v>
+        <v>4.7011902788954372E-3</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21">
         <f>STDEVA(F4:F18)</f>
-        <v>6.8978760942238413</v>
+        <v>1.8649100465002957</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>24</v>
@@ -20809,7 +20809,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="27">
         <f>ABS((M14-F20)/M14)</f>
-        <v>9.1024993524850759E-3</v>
+        <v>5.8010840541570319E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -20823,12 +20823,12 @@
       <c r="C22" s="20"/>
       <c r="D22" s="21">
         <f>D21/SQRT(10)</f>
-        <v>1.4896414889975563E-3</v>
+        <v>1.4866468995151792E-3</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
-        <v>2.1812999475373567</v>
+        <v>0.58973633782714585</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -23464,8 +23464,8 @@
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J19:M19"/>
   </mergeCells>
-  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.15" right="3.937007874015748E-2" top="0" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="6">
     <tablePart r:id="rId3"/>
@@ -23482,7 +23482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE3FEA-051F-43E6-A195-9D45A472FA48}">
   <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
@@ -23540,10 +23540,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
@@ -23910,10 +23910,10 @@
         <v>-2.2390640718121801E-2</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
@@ -23986,10 +23986,10 @@
         <v>-2.2193925436306827E-2</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
@@ -24059,10 +24059,10 @@
         <v>-2.1162888050820783E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
@@ -24109,10 +24109,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -25463,8 +25463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93CEA2-7506-43DA-BD0E-18E2DA668FCC}">
   <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25521,10 +25521,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
@@ -25891,10 +25891,10 @@
         <v>1.443603518257941E-2</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
@@ -25967,10 +25967,10 @@
         <v>1.8719783802793266E-2</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
@@ -26040,10 +26040,10 @@
         <v>2.0567758465123376E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
@@ -26090,10 +26090,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
@@ -28837,6 +28837,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B52C624EF34AD478A5856EC85ED098F" ma:contentTypeVersion="8" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="13f11bc05279c011ff2d322d3f66fd67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50696793-6437-4e87-ba7e-0fc4fcfbac97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffcb33e49fcbec99d603f857985d8417" ns3:_="">
     <xsd:import namespace="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
@@ -29006,35 +29021,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C452E65F-37E5-422E-B821-5F797BE3DB5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29056,9 +29046,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C452E65F-37E5-422E-B821-5F797BE3DB5D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T2A-Multimetro.xlsx
+++ b/T2A-Multimetro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E806DB-83A9-4524-B36F-7FC81A1AE0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06CD92-2A61-41B5-BA5E-852E261F3FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="R1 CA" sheetId="1" r:id="rId1"/>
@@ -468,23 +468,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,28 +486,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,6 +511,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15612,16 +15612,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -15649,10 +15649,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -15690,10 +15690,10 @@
       <c r="K4" s="22">
         <v>1.0668107153187556E-2</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="53"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
@@ -15730,8 +15730,8 @@
       <c r="K5" s="22">
         <v>4.8452268459604148E-3</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -15768,8 +15768,8 @@
       <c r="K6" s="22">
         <v>8.8662934058695349E-3</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
@@ -15807,8 +15807,8 @@
         <v>13</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="3"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="3"/>
@@ -15919,15 +15919,15 @@
         <v>-2.5887254142547E-3</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="30">
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="47">
         <v>0.01</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="47"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
@@ -15961,15 +15961,15 @@
         <v>2.5497777851284376E-3</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="30">
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="47">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="47"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -16003,15 +16003,15 @@
         <v>-1.5432937866028063E-2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="31">
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="46">
         <v>470</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="46"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
@@ -16082,16 +16082,16 @@
         <v>1.961530158128344E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="31">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="46">
         <f>J4</f>
         <v>465.37340754892119</v>
       </c>
-      <c r="N14" s="31"/>
+      <c r="N14" s="46"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
@@ -16125,16 +16125,16 @@
         <v>-1.6250279227154607E-3</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="32">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="48">
         <f>J5</f>
         <v>0.50404609178452187</v>
       </c>
-      <c r="N15" s="32"/>
+      <c r="N15" s="48"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
@@ -16168,16 +16168,16 @@
         <v>-5.6133717735944444E-3</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="31">
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="46">
         <f>F20</f>
         <v>467.27349049454619</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="46"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
@@ -16211,16 +16211,16 @@
         <v>-2.1667976282930823E-3</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="32">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="48">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>115.64457411168775</v>
       </c>
-      <c r="N17" s="32"/>
+      <c r="N17" s="48"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
@@ -16264,16 +16264,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="33">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="50">
         <f>ABS((M12-M14)/M12)</f>
         <v>9.8438137256995888E-3</v>
       </c>
-      <c r="N19" s="33"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -16283,23 +16283,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>3.9533333333333336</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>8.4720466666666668E-3</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>467.27349049454619</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -16309,28 +16309,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>2.187825622023142</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>4.7011902788954372E-3</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>1.8649100465002957</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="J21" s="39" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="J21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="34">
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="45">
         <f>ABS((M12-F20)/M12)</f>
         <v>5.8010840541570319E-3</v>
       </c>
-      <c r="N21" s="34"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -16340,23 +16340,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.69185120888677698</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>1.4866468995151792E-3</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>0.58973633782714585</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -17612,30 +17612,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="J21:L22"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J19:L20"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M4:N7"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:N20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17692,16 +17692,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -17729,10 +17729,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -17997,15 +17997,15 @@
         <v>0.35170041002550789</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="30">
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="47">
         <v>0.01</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -18036,15 +18036,15 @@
         <v>-2.0605841003705549E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="30">
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="47">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -18075,15 +18075,15 @@
         <v>-1.6446095729433452E-2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="30">
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="47">
         <v>10000</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -18148,16 +18148,16 @@
         <v>-1.5310768080984971E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="30">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="47">
         <f>J4</f>
         <v>10104.290262959434</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -18188,16 +18188,16 @@
         <v>-2.2193925436306827E-2</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="32">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="48">
         <f>J5</f>
         <v>89.573503681548132</v>
       </c>
-      <c r="N15" s="32"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -18228,16 +18228,16 @@
         <v>-1.7721309373159855E-2</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="30">
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="47">
         <f>F20</f>
         <v>10013.978027113197</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -18268,16 +18268,16 @@
         <v>-2.1162888050820783E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="43">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="51">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>2275.6957077765142</v>
       </c>
-      <c r="N17" s="43"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
@@ -18315,16 +18315,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="33">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="50">
         <f>ABS((M12-M14)/M12)</f>
         <v>1.0429026295943368E-2</v>
       </c>
-      <c r="N19" s="33"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -18334,23 +18334,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>6.1260000000000003</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>6.0826666666666663E-4</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>10013.978027113197</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -18360,28 +18360,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>3.1010869062314277</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>3.0675128749681294E-4</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>261.13897472485797</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="J21" s="39" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="J21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="34">
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="45">
         <f>ABS((M12-F20)/M12)</f>
         <v>1.3978027113196732E-3</v>
       </c>
-      <c r="N21" s="34"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -18391,23 +18391,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.98064978458163166</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>9.7003274367905937E-5</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>82.57939459716934</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -19662,22 +19662,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J16:L16"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M10:N10"/>
@@ -19685,6 +19669,22 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M19:N20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:H22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -19722,16 +19722,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -19759,10 +19759,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -20027,15 +20027,15 @@
         <v>-7.6810709253170906E-2</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="30">
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="47">
         <v>0.01</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -20066,15 +20066,15 @@
         <v>1.5669328323156151E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="30">
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="47">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -20105,15 +20105,15 @@
         <v>7.8149365899482959E-2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="30">
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="47">
         <v>6800000</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -20178,16 +20178,16 @@
         <v>-6.1930483795210378E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="30">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="47">
         <f>J4</f>
         <v>4175199.6242367309</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -20218,16 +20218,16 @@
         <v>-0.18697040864255676</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="43">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="51">
         <f>J5</f>
         <v>58948.507012604212</v>
       </c>
-      <c r="N15" s="43"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -20258,16 +20258,16 @@
         <v>-0.15449037106622932</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="30">
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="47">
         <f>F20</f>
         <v>3394887.6612494262</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -20298,16 +20298,16 @@
         <v>7.5509628933771111E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="43">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="51">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>641862.27200783929</v>
       </c>
-      <c r="N17" s="43"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
@@ -20345,16 +20345,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="33">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="50">
         <f>ABS((M12-M14)/M12)</f>
         <v>0.38600005525930431</v>
       </c>
-      <c r="N19" s="33"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -20364,23 +20364,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>6.02</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>1.7133333333333332E-6</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>3394887.6612494262</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -20390,28 +20390,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>2.66224126844818</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>6.3680751371494486E-7</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>394535.0166596687</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="J21" s="39" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="J21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="34">
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="45">
         <f>ABS((M12-F20)/M12)</f>
         <v>0.50075181452214323</v>
       </c>
-      <c r="N21" s="34"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -20421,23 +20421,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.84187460891920085</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>2.0137621744481388E-7</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>124762.92693370297</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -21692,22 +21692,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J16:L16"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M10:N10"/>
@@ -21715,6 +21699,22 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M19:N20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -21729,8 +21729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8B41A8-119D-45F7-AE39-7CD01A0BBCB0}">
   <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21752,16 +21752,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -21789,10 +21789,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -21830,10 +21830,10 @@
       <c r="K4" s="22">
         <v>8.0902685690213971E-3</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="53"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
@@ -21870,8 +21870,8 @@
       <c r="K5" s="22">
         <v>1.2743622496404835E-2</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -21908,8 +21908,8 @@
       <c r="K6" s="22">
         <v>2.2511589962947894E-2</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
@@ -21947,8 +21947,8 @@
         <v>13</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="3"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="3"/>
@@ -22059,15 +22059,15 @@
         <v>2.2408934246589851E-2</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="30">
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="47">
         <v>0.01</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -22098,15 +22098,15 @@
         <v>-1.176061852810939E-3</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="30">
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="47">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -22137,15 +22137,15 @@
         <v>1.4572361189317817E-3</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="31">
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="46">
         <v>470</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -22212,16 +22212,16 @@
         <v>4.3367247776027185E-3</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="31">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="46">
         <f>J4</f>
         <v>465.55989729092471</v>
       </c>
-      <c r="N14" s="31"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -22252,16 +22252,16 @@
         <v>3.232132832733825E-3</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="32">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="48">
         <f>J5</f>
         <v>0.92403458921281356</v>
       </c>
-      <c r="N15" s="32"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -22292,16 +22292,16 @@
         <v>-5.0925104666692533E-3</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="31">
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="46">
         <f>F20</f>
         <v>466.47899063055797</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -22332,16 +22332,16 @@
         <v>-7.1320951526505638E-3</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="32">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="48">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>110.53496611955116</v>
       </c>
-      <c r="N17" s="32"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
@@ -22379,16 +22379,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="33">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="50">
         <f>ABS((M12-M14)/M12)</f>
         <v>9.4470270405857242E-3</v>
       </c>
-      <c r="N19" s="33"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -22398,23 +22398,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>5.7219999999999995</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>1.2273200000000001E-2</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>466.47899063055797</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -22424,28 +22424,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>3.031381580354787</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>6.5110933737298335E-3</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>4.1032210501884805</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="J21" s="39" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="J21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="34">
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="45">
         <f>ABS((M12-F20)/M12)</f>
         <v>7.4915092966851629E-3</v>
       </c>
-      <c r="N21" s="34"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -22455,23 +22455,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.95860702510018592</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>2.0589885119016217E-3</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>1.2975524261743667</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -23726,16 +23726,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:H22"/>
     <mergeCell ref="M19:N20"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="M4:N7"/>
@@ -23750,6 +23740,16 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:H22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -23787,16 +23787,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -23824,10 +23824,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -23865,10 +23865,10 @@
       <c r="K4" s="22">
         <v>1.0421637951800733E-3</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="53"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
@@ -23905,8 +23905,8 @@
       <c r="K5" s="22">
         <v>1.058610182411359E-2</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -23943,8 +23943,8 @@
       <c r="K6" s="22">
         <v>2.0058815625968805E-2</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
@@ -23982,8 +23982,8 @@
         <v>13</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="3"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="3"/>
@@ -24094,15 +24094,15 @@
         <v>-2.0889005645678971E-3</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="30">
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="47">
         <v>0.01</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -24133,15 +24133,15 @@
         <v>1.4288300483324079E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="30">
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="47">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -24172,15 +24172,15 @@
         <v>1.1585577455561769E-2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="30">
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="47">
         <v>10000</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -24245,16 +24245,16 @@
         <v>1.4972531749333662E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="30">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="47">
         <f>J4</f>
         <v>10057.504745271552</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -24285,16 +24285,16 @@
         <v>1.0142133146522347E-2</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="32">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="48">
         <f>J5</f>
         <v>20.193896080591035</v>
       </c>
-      <c r="N15" s="32"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -24325,16 +24325,16 @@
         <v>1.5369239288983927E-2</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="30">
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="47">
         <f>F20</f>
         <v>10052.067968264466</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -24365,16 +24365,16 @@
         <v>-5.9633673549640775E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="43">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="51">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>2612.0114556618387</v>
       </c>
-      <c r="N17" s="43"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
@@ -24412,16 +24412,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="33">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="50">
         <f>ABS((M12-M14)/M12)</f>
         <v>5.7504745271551652E-3</v>
       </c>
-      <c r="N19" s="33"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -24431,23 +24431,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>4.5993333333333331</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>4.5719999999999995E-4</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>10052.067968264466</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -24457,28 +24457,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>2.6700708034129166</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>2.6547348535884221E-4</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>60.017411251811424</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="J21" s="39" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="J21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="34">
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="45">
         <f>ABS((M12-F20)/M12)</f>
         <v>5.2067968264465888E-3</v>
       </c>
-      <c r="N21" s="34"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -24488,23 +24488,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.84435052527005017</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>8.3950087211730399E-5</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>18.979171882274159</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -25759,6 +25759,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J19:L20"/>
@@ -25768,21 +25781,8 @@
     <mergeCell ref="G20:H22"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M4:N7"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -25797,8 +25797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1B1871-272C-4BD5-AD57-F866431E67A8}">
   <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25820,16 +25820,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -25857,10 +25857,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -26125,15 +26125,15 @@
         <v>-0.10889512733106077</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="30">
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="47">
         <v>0.01</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -26164,15 +26164,15 @@
         <v>-0.10232203729697265</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="30">
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="47">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -26203,15 +26203,15 @@
         <v>0.16425105273711615</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="30">
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="47">
         <v>6800000</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -26276,16 +26276,16 @@
         <v>-4.6029677160616345E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="30">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="47">
         <f>J4</f>
         <v>4134269.0996591127</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -26316,16 +26316,16 @@
         <v>0.11054341287347036</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="43">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="51">
         <f>J5</f>
         <v>56358.769354844706</v>
       </c>
-      <c r="N15" s="43"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -26356,16 +26356,16 @@
         <v>-0.12288349709243995</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="30">
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="47">
         <f>F20</f>
         <v>3806771.7273368905</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -26396,16 +26396,16 @@
         <v>0.1736895929416491</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="43">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="51">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>777133.14715069497</v>
       </c>
-      <c r="N17" s="43"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
@@ -26443,16 +26443,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="33">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="50">
         <f>ABS((M12-M14)/M12)</f>
         <v>0.3920192500501305</v>
       </c>
-      <c r="N19" s="33"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -26462,23 +26462,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>6.2013333333333343</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>1.5933333333333335E-6</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>3806771.7273368905</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -26488,28 +26488,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>2.8526450549487934</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>6.8916789025054048E-7</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>240042.60206381421</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="J21" s="39" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="J21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="34">
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="45">
         <f>ABS((M12-F20)/M12)</f>
         <v>0.44018062833281024</v>
       </c>
-      <c r="N21" s="34"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -26519,23 +26519,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.90208557296543679</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>2.1793402234446575E-7</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>75908.135799508775</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -27790,21 +27790,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
     <mergeCell ref="M19:N20"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="J16:L16"/>
@@ -27813,6 +27798,21 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="J19:L20"/>
     <mergeCell ref="J21:L22"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -27824,18 +27824,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28009,6 +28009,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60169DA3-410F-42F9-98E4-43875082A5B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
@@ -28020,14 +28028,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/T2A-Multimetro.xlsx
+++ b/T2A-Multimetro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06CD92-2A61-41B5-BA5E-852E261F3FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0C0083-FCB4-4342-A413-F105262D7516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF471F3A-E1A0-4176-A48E-87D105974DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="R1 CA" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="40">
   <si>
     <t>Numero de Medição</t>
   </si>
@@ -77,15 +77,6 @@
   </si>
   <si>
     <t>Incerteza na Média</t>
-  </si>
-  <si>
-    <t>Ciruito A Resistência 2</t>
-  </si>
-  <si>
-    <t>Ciruito A Resistência 1</t>
-  </si>
-  <si>
-    <t>Ciruito A Resistência 3</t>
   </si>
   <si>
     <t>V (V)</t>
@@ -222,6 +213,24 @@
       </rPr>
       <t>):</t>
     </r>
+  </si>
+  <si>
+    <t>Montagem 1 Resistência 4A</t>
+  </si>
+  <si>
+    <t>Montagem 2 Resistência 4B</t>
+  </si>
+  <si>
+    <t>Montagem 1 Resistência 4C</t>
+  </si>
+  <si>
+    <t>Montagem 1 Resistência 4B</t>
+  </si>
+  <si>
+    <t>Montagem 2 Resistência 4A</t>
+  </si>
+  <si>
+    <t>Montagem 2 Resistência 4C</t>
   </si>
 </sst>
 </file>
@@ -468,29 +477,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,20 +513,32 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,9 +551,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="95">
     <dxf>
@@ -926,7 +935,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -993,7 +1002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1086,7 +1095,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1296,7 +1305,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1334,7 +1343,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -1420,7 +1429,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1458,7 +1467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -1510,7 +1519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1547,7 +1556,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1561,7 +1570,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1598,7 +1607,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1852,7 +1861,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1890,7 +1899,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -1969,7 +1978,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2007,7 +2016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -2059,7 +2068,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2096,7 +2105,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2110,7 +2119,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2177,7 +2186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2270,7 +2279,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2480,7 +2489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2518,7 +2527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -2604,7 +2613,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2642,7 +2651,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -2694,7 +2703,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2731,7 +2740,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2745,7 +2754,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2782,7 +2791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3011,7 +3020,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3049,7 +3058,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -3103,7 +3112,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3141,7 +3150,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -3193,7 +3202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3230,7 +3239,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3244,7 +3253,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3281,7 +3290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3534,7 +3543,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3572,7 +3581,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -3651,7 +3660,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3689,7 +3698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -3741,7 +3750,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3778,7 +3787,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3792,7 +3801,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3859,7 +3868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3952,7 +3961,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4162,7 +4171,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4200,7 +4209,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -4286,7 +4295,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4324,7 +4333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -4376,7 +4385,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4413,7 +4422,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4427,7 +4436,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4464,7 +4473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4718,7 +4727,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4756,7 +4765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -4835,7 +4844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4873,7 +4882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -4925,7 +4934,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4962,7 +4971,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4976,7 +4985,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5043,7 +5052,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5136,7 +5145,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5346,7 +5355,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5384,7 +5393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -5470,7 +5479,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5508,7 +5517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -5560,7 +5569,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5597,7 +5606,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5611,7 +5620,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5648,7 +5657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5901,7 +5910,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5939,7 +5948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -6018,7 +6027,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6056,7 +6065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -6108,7 +6117,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6145,7 +6154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6159,7 +6168,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6226,7 +6235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6319,7 +6328,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6529,7 +6538,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6567,7 +6576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -6653,7 +6662,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6691,7 +6700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -6743,7 +6752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6780,7 +6789,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6794,7 +6803,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6831,7 +6840,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7083,7 +7092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7121,7 +7130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459642992"/>
@@ -7200,7 +7209,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7238,7 +7247,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459645904"/>
@@ -7290,7 +7299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7327,7 +7336,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7341,7 +7350,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7408,7 +7417,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7501,7 +7510,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7711,7 +7720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7749,7 +7758,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838937568"/>
@@ -7835,7 +7844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7873,7 +7882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="838931744"/>
@@ -7925,7 +7934,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7962,7 +7971,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15266,7 +15275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15589,8 +15598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93CEA2-7506-43DA-BD0E-18E2DA668FCC}">
   <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15612,47 +15621,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -15690,10 +15699,10 @@
       <c r="K4" s="22">
         <v>1.0668107153187556E-2</v>
       </c>
-      <c r="M4" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="49"/>
+      <c r="M4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
@@ -15730,8 +15739,8 @@
       <c r="K5" s="22">
         <v>4.8452268459604148E-3</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -15768,8 +15777,8 @@
       <c r="K6" s="22">
         <v>8.8662934058695349E-3</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
@@ -15807,8 +15816,8 @@
         <v>13</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
       <c r="O7" s="3"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="3"/>
@@ -15919,15 +15928,15 @@
         <v>-2.5887254142547E-3</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="47">
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="30">
         <v>0.01</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="30"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
@@ -15961,15 +15970,15 @@
         <v>2.5497777851284376E-3</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="47">
+      <c r="J11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="30">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="30"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -16003,15 +16012,15 @@
         <v>-1.5432937866028063E-2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="46">
+      <c r="J12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="31">
         <v>470</v>
       </c>
-      <c r="N12" s="46"/>
+      <c r="N12" s="31"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
@@ -16067,7 +16076,7 @@
         <v>1.1560000000000001E-2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
@@ -16082,16 +16091,16 @@
         <v>1.961530158128344E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="46">
+      <c r="J14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="31">
         <f>J4</f>
         <v>465.37340754892119</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="31"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
@@ -16125,16 +16134,16 @@
         <v>-1.6250279227154607E-3</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="48">
+      <c r="J15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="32">
         <f>J5</f>
         <v>0.50404609178452187</v>
       </c>
-      <c r="N15" s="48"/>
+      <c r="N15" s="32"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
@@ -16153,7 +16162,7 @@
         <v>1.3806000000000001E-2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
@@ -16168,16 +16177,16 @@
         <v>-5.6133717735944444E-3</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="46">
+      <c r="J16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="31">
         <f>F20</f>
         <v>467.27349049454619</v>
       </c>
-      <c r="N16" s="46"/>
+      <c r="N16" s="31"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
@@ -16196,7 +16205,7 @@
         <v>1.4873000000000001E-2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
@@ -16211,16 +16220,16 @@
         <v>-2.1667976282930823E-3</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="48">
+      <c r="J17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="32">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>115.64457411168775</v>
       </c>
-      <c r="N17" s="48"/>
+      <c r="N17" s="32"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
@@ -16264,16 +16273,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="50">
+      <c r="J19" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="42">
         <f>ABS((M12-M14)/M12)</f>
         <v>9.8438137256995888E-3</v>
       </c>
-      <c r="N19" s="50"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -16283,23 +16292,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>3.9533333333333336</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>8.4720466666666668E-3</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>467.27349049454619</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -16309,28 +16318,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>2.187825622023142</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>4.7011902788954372E-3</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>1.8649100465002957</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="J21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="45">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="41">
         <f>ABS((M12-F20)/M12)</f>
         <v>5.8010840541570319E-3</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -16340,23 +16349,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.69185120888677698</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>1.4866468995151792E-3</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>0.58973633782714585</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -17612,12 +17621,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M4:N7"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="G20:H22"/>
@@ -17625,17 +17637,14 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M19:N20"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J11:L11"/>
     <mergeCell ref="J19:L20"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M14:N14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17669,8 +17678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE3FEA-051F-43E6-A195-9D45A472FA48}">
   <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17692,47 +17701,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="E3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -17997,15 +18006,15 @@
         <v>0.35170041002550789</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="47">
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="30">
         <v>0.01</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -18036,15 +18045,15 @@
         <v>-2.0605841003705549E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="47">
+      <c r="J11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="30">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -18075,15 +18084,15 @@
         <v>-1.6446095729433452E-2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="47">
+      <c r="J12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="30">
         <v>10000</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -18148,16 +18157,16 @@
         <v>-1.5310768080984971E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="47">
+      <c r="J14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="30">
         <f>J4</f>
         <v>10104.290262959434</v>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -18188,16 +18197,16 @@
         <v>-2.2193925436306827E-2</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="48">
+      <c r="J15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="32">
         <f>J5</f>
         <v>89.573503681548132</v>
       </c>
-      <c r="N15" s="48"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -18228,16 +18237,16 @@
         <v>-1.7721309373159855E-2</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="47">
+      <c r="J16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="30">
         <f>F20</f>
         <v>10013.978027113197</v>
       </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -18268,11 +18277,11 @@
         <v>-2.1162888050820783E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="J17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="51">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>2275.6957077765142</v>
@@ -18315,16 +18324,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="50">
+      <c r="J19" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="42">
         <f>ABS((M12-M14)/M12)</f>
         <v>1.0429026295943368E-2</v>
       </c>
-      <c r="N19" s="50"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -18334,23 +18343,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>6.1260000000000003</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>6.0826666666666663E-4</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>10013.978027113197</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -18360,28 +18369,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>3.1010869062314277</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>3.0675128749681294E-4</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>261.13897472485797</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="J21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="45">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="41">
         <f>ABS((M12-F20)/M12)</f>
         <v>1.3978027113196732E-3</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -18391,23 +18400,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.98064978458163166</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>9.7003274367905937E-5</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>82.57939459716934</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -19662,6 +19671,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M10:N10"/>
@@ -19669,22 +19694,6 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M19:N20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:H22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -19700,7 +19709,7 @@
   <dimension ref="A2:Y161"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C22"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19722,47 +19731,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="E3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -20027,15 +20036,15 @@
         <v>-7.6810709253170906E-2</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="47">
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="30">
         <v>0.01</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -20066,15 +20075,15 @@
         <v>1.5669328323156151E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="47">
+      <c r="J11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="30">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -20105,15 +20114,15 @@
         <v>7.8149365899482959E-2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="47">
+      <c r="J12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="30">
         <v>6800000</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -20178,16 +20187,16 @@
         <v>-6.1930483795210378E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="47">
+      <c r="J14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="30">
         <f>J4</f>
         <v>4175199.6242367309</v>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -20218,11 +20227,11 @@
         <v>-0.18697040864255676</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="51">
         <f>J5</f>
         <v>58948.507012604212</v>
@@ -20259,15 +20268,15 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="47">
+      <c r="M16" s="30">
         <f>F20</f>
         <v>3394887.6612494262</v>
       </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -20298,11 +20307,11 @@
         <v>7.5509628933771111E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="J17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="51">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>641862.27200783929</v>
@@ -20345,16 +20354,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="50">
+      <c r="J19" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="42">
         <f>ABS((M12-M14)/M12)</f>
         <v>0.38600005525930431</v>
       </c>
-      <c r="N19" s="50"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -20364,23 +20373,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>6.02</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>1.7133333333333332E-6</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>3394887.6612494262</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -20390,28 +20399,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>2.66224126844818</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>6.3680751371494486E-7</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>394535.0166596687</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="J21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="45">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="41">
         <f>ABS((M12-F20)/M12)</f>
         <v>0.50075181452214323</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -20421,23 +20430,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.84187460891920085</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>2.0137621744481388E-7</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>124762.92693370297</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -21692,6 +21701,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M10:N10"/>
@@ -21699,22 +21724,6 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M19:N20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -21729,8 +21738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8B41A8-119D-45F7-AE39-7CD01A0BBCB0}">
   <dimension ref="A2:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21752,47 +21761,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="E3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -21808,7 +21817,7 @@
         <v>1.714E-3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F18" si="0">B4/D4</f>
@@ -21830,10 +21839,10 @@
       <c r="K4" s="22">
         <v>8.0902685690213971E-3</v>
       </c>
-      <c r="M4" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="49"/>
+      <c r="M4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
@@ -21849,7 +21858,7 @@
         <v>3.0699999999999998E-3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
@@ -21870,8 +21879,8 @@
       <c r="K5" s="22">
         <v>1.2743622496404835E-2</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -21887,7 +21896,7 @@
         <v>4.7404999999999999E-3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
@@ -21908,8 +21917,8 @@
       <c r="K6" s="22">
         <v>2.2511589962947894E-2</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
@@ -21925,7 +21934,7 @@
         <v>6.5395000000000002E-3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
@@ -21947,8 +21956,8 @@
         <v>13</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
       <c r="O7" s="3"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="3"/>
@@ -21970,7 +21979,7 @@
         <v>7.8584999999999992E-3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -22009,7 +22018,7 @@
         <v>9.6395000000000005E-3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
@@ -22044,7 +22053,7 @@
         <v>1.0932000000000001E-2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
@@ -22059,15 +22068,15 @@
         <v>2.2408934246589851E-2</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="47">
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="30">
         <v>0.01</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -22083,7 +22092,7 @@
         <v>1.2722499999999999E-2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
@@ -22098,15 +22107,15 @@
         <v>-1.176061852810939E-3</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="47">
+      <c r="J11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="30">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -22122,7 +22131,7 @@
         <v>1.465E-2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
@@ -22137,15 +22146,15 @@
         <v>1.4572361189317817E-3</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="46">
+      <c r="J12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="31">
         <v>470</v>
       </c>
-      <c r="N12" s="46"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -22197,7 +22206,7 @@
         <v>1.7070999999999999E-2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
@@ -22212,16 +22221,16 @@
         <v>4.3367247776027185E-3</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="46">
+      <c r="J14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="31">
         <f>J4</f>
         <v>465.55989729092471</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -22237,7 +22246,7 @@
         <v>1.8512500000000001E-2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
@@ -22252,16 +22261,16 @@
         <v>3.232132832733825E-3</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="48">
+      <c r="J15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="32">
         <f>J5</f>
         <v>0.92403458921281356</v>
       </c>
-      <c r="N15" s="48"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -22277,7 +22286,7 @@
         <v>1.9453999999999999E-2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
@@ -22292,16 +22301,16 @@
         <v>-5.0925104666692533E-3</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="46">
+      <c r="J16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="31">
         <f>F20</f>
         <v>466.47899063055797</v>
       </c>
-      <c r="N16" s="46"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -22332,16 +22341,16 @@
         <v>-7.1320951526505638E-3</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="48">
+      <c r="J17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="32">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>110.53496611955116</v>
       </c>
-      <c r="N17" s="48"/>
+      <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
@@ -22379,16 +22388,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="50">
+      <c r="J19" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="42">
         <f>ABS((M12-M14)/M12)</f>
         <v>9.4470270405857242E-3</v>
       </c>
-      <c r="N19" s="50"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -22398,23 +22407,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>5.7219999999999995</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>1.2273200000000001E-2</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>466.47899063055797</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -22424,28 +22433,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>3.031381580354787</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>6.5110933737298335E-3</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>4.1032210501884805</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="J21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="45">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="41">
         <f>ABS((M12-F20)/M12)</f>
         <v>7.4915092966851629E-3</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -22455,23 +22464,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.95860702510018592</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>2.0589885119016217E-3</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>1.2975524261743667</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -23726,6 +23735,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:H22"/>
     <mergeCell ref="M19:N20"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="M4:N7"/>
@@ -23740,16 +23759,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="G20:H22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -23765,7 +23774,7 @@
   <dimension ref="A2:Y161"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N7"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23787,47 +23796,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="E3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -23865,10 +23874,10 @@
       <c r="K4" s="22">
         <v>1.0421637951800733E-3</v>
       </c>
-      <c r="M4" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="49"/>
+      <c r="M4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
@@ -23878,7 +23887,7 @@
         <v>1.48</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
         <v>1.46E-4</v>
@@ -23905,8 +23914,8 @@
       <c r="K5" s="22">
         <v>1.058610182411359E-2</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -23943,8 +23952,8 @@
       <c r="K6" s="22">
         <v>2.0058815625968805E-2</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
@@ -23982,8 +23991,8 @@
         <v>13</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
       <c r="O7" s="3"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="3"/>
@@ -24094,15 +24103,15 @@
         <v>-2.0889005645678971E-3</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="47">
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="30">
         <v>0.01</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -24133,15 +24142,15 @@
         <v>1.4288300483324079E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="47">
+      <c r="J11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="30">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -24172,15 +24181,15 @@
         <v>1.1585577455561769E-2</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="47">
+      <c r="J12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="30">
         <v>10000</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -24245,16 +24254,16 @@
         <v>1.4972531749333662E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="47">
+      <c r="J14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="30">
         <f>J4</f>
         <v>10057.504745271552</v>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -24285,16 +24294,16 @@
         <v>1.0142133146522347E-2</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="48">
+      <c r="J15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="32">
         <f>J5</f>
         <v>20.193896080591035</v>
       </c>
-      <c r="N15" s="48"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -24325,16 +24334,16 @@
         <v>1.5369239288983927E-2</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="47">
+      <c r="J16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="30">
         <f>F20</f>
         <v>10052.067968264466</v>
       </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -24365,11 +24374,11 @@
         <v>-5.9633673549640775E-2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="J17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="51">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>2612.0114556618387</v>
@@ -24412,16 +24421,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="50">
+      <c r="J19" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="42">
         <f>ABS((M12-M14)/M12)</f>
         <v>5.7504745271551652E-3</v>
       </c>
-      <c r="N19" s="50"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -24431,23 +24440,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>4.5993333333333331</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>4.5719999999999995E-4</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>10052.067968264466</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -24457,28 +24466,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>2.6700708034129166</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>2.6547348535884221E-4</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>60.017411251811424</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="J21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="45">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="41">
         <f>ABS((M12-F20)/M12)</f>
         <v>5.2067968264465888E-3</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -24488,23 +24497,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.84435052527005017</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>8.3950087211730399E-5</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>18.979171882274159</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -25759,19 +25768,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M4:N7"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J19:L20"/>
@@ -25783,6 +25779,19 @@
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -25798,7 +25807,7 @@
   <dimension ref="A2:Y161"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25820,47 +25829,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="E3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
@@ -26125,15 +26134,15 @@
         <v>-0.10889512733106077</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="47">
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="30">
         <v>0.01</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
@@ -26164,15 +26173,15 @@
         <v>-0.10232203729697265</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="47">
+      <c r="J11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="30">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
@@ -26203,15 +26212,15 @@
         <v>0.16425105273711615</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="47">
+      <c r="J12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="30">
         <v>6800000</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -26276,16 +26285,16 @@
         <v>-4.6029677160616345E-2</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="47">
+      <c r="J14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="30">
         <f>J4</f>
         <v>4134269.0996591127</v>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -26316,11 +26325,11 @@
         <v>0.11054341287347036</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="51">
         <f>J5</f>
         <v>56358.769354844706</v>
@@ -26356,16 +26365,16 @@
         <v>-0.12288349709243995</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="47">
+      <c r="J16" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="30">
         <f>F20</f>
         <v>3806771.7273368905</v>
       </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
@@ -26397,10 +26406,10 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="51">
         <f>SQRT(((1/D20)*B22)^2+(-(B20/(D20^2))*D22)^2)</f>
         <v>777133.14715069497</v>
@@ -26443,16 +26452,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="J19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="50">
+      <c r="J19" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="42">
         <f>ABS((M12-M14)/M12)</f>
         <v>0.3920192500501305</v>
       </c>
-      <c r="N19" s="50"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
@@ -26462,23 +26471,23 @@
         <f>AVERAGE(B4:B18)</f>
         <v>6.2013333333333343</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="19">
         <f>AVERAGE(D4:D18)</f>
         <v>1.5933333333333335E-6</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="19">
         <f>AVERAGE(F4:F18)</f>
         <v>3806771.7273368905</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -26488,28 +26497,28 @@
         <f>STDEVA(B4:B18)</f>
         <v>2.8526450549487934</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19">
         <f>STDEVA(D4:D18)</f>
         <v>6.8916789025054048E-7</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="19">
         <f>STDEVA(F4:F18)</f>
         <v>240042.60206381421</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="J21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="45">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="J21" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="41">
         <f>ABS((M12-F20)/M12)</f>
         <v>0.44018062833281024</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
@@ -26519,23 +26528,23 @@
         <f>B21/SQRT(10)</f>
         <v>0.90208557296543679</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="19">
         <f>D21/SQRT(10)</f>
         <v>2.1793402234446575E-7</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="19">
         <f t="shared" ref="F22" si="1">F21/SQRT(10)</f>
         <v>75908.135799508775</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
@@ -27790,6 +27799,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="M19:N20"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="J16:L16"/>
@@ -27798,21 +27822,6 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="J19:L20"/>
     <mergeCell ref="J21:L22"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="9.8425196850393706E-2" bottom="9.8425196850393706E-2" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -27824,18 +27833,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28009,14 +28018,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60169DA3-410F-42F9-98E4-43875082A5B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="50696793-6437-4e87-ba7e-0fc4fcfbac97"/>
@@ -28028,6 +28029,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF8CA081-A56A-407E-BC39-67D7C2082E3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
